--- a/assign1/doc/data/all_data.xlsx
+++ b/assign1/doc/data/all_data.xlsx
@@ -666,7 +666,9 @@
         <v>0.145167</v>
       </c>
       <c r="W7" s="3"/>
-      <c r="X7" s="0"/>
+      <c r="X7" s="1" t="n">
+        <v>0.260382517</v>
+      </c>
       <c r="Y7" s="15"/>
       <c r="AA7" s="16" t="n">
         <v>600</v>
@@ -678,7 +680,9 @@
         <v>0.061651</v>
       </c>
       <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
+      <c r="AE7" s="3" t="n">
+        <v>0.190523413</v>
+      </c>
       <c r="AH7" s="16" t="n">
         <v>128</v>
       </c>
@@ -692,7 +696,9 @@
         <v>20.439002</v>
       </c>
       <c r="AL7" s="13"/>
-      <c r="AM7" s="13"/>
+      <c r="AM7" s="13" t="n">
+        <v>69.273222629</v>
+      </c>
       <c r="AP7" s="16"/>
       <c r="AQ7" s="16"/>
       <c r="AR7" s="17" t="s">
@@ -776,7 +782,9 @@
         <v>0.144703</v>
       </c>
       <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
+      <c r="X8" s="3" t="n">
+        <v>0.22845807</v>
+      </c>
       <c r="Y8" s="15"/>
       <c r="AA8" s="16"/>
       <c r="AB8" s="3" t="n">
@@ -786,7 +794,9 @@
         <v>0.062901</v>
       </c>
       <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
+      <c r="AE8" s="3" t="n">
+        <v>0.187392197</v>
+      </c>
       <c r="AH8" s="16"/>
       <c r="AI8" s="16"/>
       <c r="AJ8" s="3" t="n">
@@ -876,7 +886,9 @@
         <v>0.148382</v>
       </c>
       <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
+      <c r="X9" s="3" t="n">
+        <v>0.232848801</v>
+      </c>
       <c r="Y9" s="15"/>
       <c r="AA9" s="16"/>
       <c r="AB9" s="3" t="n">
@@ -886,7 +898,9 @@
         <v>0.062348</v>
       </c>
       <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
+      <c r="AE9" s="3" t="n">
+        <v>0.192391681</v>
+      </c>
       <c r="AH9" s="16"/>
       <c r="AI9" s="16"/>
       <c r="AJ9" s="3" t="n">
@@ -896,7 +910,9 @@
         <v>20.589557</v>
       </c>
       <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
+      <c r="AM9" s="3" t="n">
+        <v>70.729489574</v>
+      </c>
       <c r="AP9" s="16"/>
       <c r="AQ9" s="16"/>
       <c r="AR9" s="17" t="s">
@@ -978,7 +994,9 @@
         <v>0.673226</v>
       </c>
       <c r="W10" s="3"/>
-      <c r="X10" s="0"/>
+      <c r="X10" s="1" t="n">
+        <v>1.028520083</v>
+      </c>
       <c r="Y10" s="15"/>
       <c r="AA10" s="16" t="n">
         <v>1000</v>
@@ -990,7 +1008,9 @@
         <v>0.277229</v>
       </c>
       <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
+      <c r="AE10" s="3" t="n">
+        <v>0.879061204</v>
+      </c>
       <c r="AH10" s="16" t="n">
         <v>256</v>
       </c>
@@ -1002,7 +1022,9 @@
         <v>21.796661</v>
       </c>
       <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
+      <c r="AM10" s="3" t="n">
+        <v>65.964860666</v>
+      </c>
       <c r="AP10" s="16"/>
       <c r="AQ10" s="16" t="n">
         <v>2</v>
@@ -1088,7 +1110,9 @@
         <v>0.68225</v>
       </c>
       <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
+      <c r="X11" s="3" t="n">
+        <v>1.02948427</v>
+      </c>
       <c r="Y11" s="15"/>
       <c r="AA11" s="16"/>
       <c r="AB11" s="3" t="n">
@@ -1098,7 +1122,9 @@
         <v>0.284855</v>
       </c>
       <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
+      <c r="AE11" s="3" t="n">
+        <v>0.863559344</v>
+      </c>
       <c r="AH11" s="16"/>
       <c r="AI11" s="16"/>
       <c r="AJ11" s="3" t="n">
@@ -1190,7 +1216,9 @@
         <v>0.671369</v>
       </c>
       <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
+      <c r="X12" s="3" t="n">
+        <v>1.099632848</v>
+      </c>
       <c r="Y12" s="15"/>
       <c r="AA12" s="16"/>
       <c r="AB12" s="3" t="n">
@@ -1200,7 +1228,9 @@
         <v>0.282898</v>
       </c>
       <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
+      <c r="AE12" s="3" t="n">
+        <v>0.890577508</v>
+      </c>
       <c r="AH12" s="16"/>
       <c r="AI12" s="16"/>
       <c r="AJ12" s="3" t="n">
@@ -1210,7 +1240,9 @@
         <v>21.863877</v>
       </c>
       <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
+      <c r="AM12" s="3" t="n">
+        <v>68.319259458</v>
+      </c>
       <c r="AP12" s="16"/>
       <c r="AQ12" s="16"/>
       <c r="AR12" s="17" t="s">
@@ -1292,7 +1324,9 @@
         <v>2.381493</v>
       </c>
       <c r="W13" s="3"/>
-      <c r="X13" s="0"/>
+      <c r="X13" s="1" t="n">
+        <v>3.763860123</v>
+      </c>
       <c r="Y13" s="15"/>
       <c r="AA13" s="16" t="n">
         <v>1400</v>
@@ -1304,7 +1338,9 @@
         <v>0.903676</v>
       </c>
       <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
+      <c r="AE13" s="3" t="n">
+        <v>2.4404577</v>
+      </c>
       <c r="AH13" s="16" t="n">
         <v>512</v>
       </c>
@@ -1316,7 +1352,9 @@
         <v>20.693888</v>
       </c>
       <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
+      <c r="AM13" s="3" t="n">
+        <v>64.588413706</v>
+      </c>
       <c r="AP13" s="16"/>
       <c r="AQ13" s="16"/>
       <c r="AR13" s="17" t="s">
@@ -1387,7 +1425,9 @@
         <v>2.667248</v>
       </c>
       <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
+      <c r="X14" s="3" t="n">
+        <v>3.358994822</v>
+      </c>
       <c r="Y14" s="15"/>
       <c r="AA14" s="16"/>
       <c r="AB14" s="3" t="n">
@@ -1397,7 +1437,9 @@
         <v>0.937332</v>
       </c>
       <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
+      <c r="AE14" s="3" t="n">
+        <v>2.372684764</v>
+      </c>
       <c r="AH14" s="16"/>
       <c r="AI14" s="16"/>
       <c r="AJ14" s="3" t="n">
@@ -1484,7 +1526,9 @@
         <v>2.498134</v>
       </c>
       <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
+      <c r="X15" s="3" t="n">
+        <v>3.98588594</v>
+      </c>
       <c r="Y15" s="15"/>
       <c r="AA15" s="16"/>
       <c r="AB15" s="3" t="n">
@@ -1494,7 +1538,9 @@
         <v>0.949238</v>
       </c>
       <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
+      <c r="AE15" s="3" t="n">
+        <v>2.47531481</v>
+      </c>
       <c r="AH15" s="16"/>
       <c r="AI15" s="16"/>
       <c r="AJ15" s="3" t="n">
@@ -1504,7 +1550,9 @@
         <v>21.230785</v>
       </c>
       <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
+      <c r="AM15" s="3" t="n">
+        <v>65.625170709</v>
+      </c>
       <c r="AP15" s="16"/>
       <c r="AQ15" s="16"/>
       <c r="AR15" s="17" t="s">
@@ -1579,7 +1627,9 @@
         <v>5.963251</v>
       </c>
       <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
+      <c r="X16" s="3" t="n">
+        <v>8.480833807</v>
+      </c>
       <c r="Y16" s="15"/>
       <c r="AA16" s="16" t="n">
         <v>1800</v>
@@ -1591,7 +1641,9 @@
         <v>2.169392</v>
       </c>
       <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
+      <c r="AE16" s="3" t="n">
+        <v>5.237624637</v>
+      </c>
       <c r="AH16" s="16" t="n">
         <v>1024</v>
       </c>
@@ -1603,7 +1655,9 @@
         <v>21.233337</v>
       </c>
       <c r="AL16" s="3"/>
-      <c r="AM16" s="3"/>
+      <c r="AM16" s="3" t="n">
+        <v>70.46433622</v>
+      </c>
       <c r="AP16" s="16"/>
       <c r="AQ16" s="16"/>
       <c r="AR16" s="17" t="s">
@@ -1674,7 +1728,9 @@
         <v>6.122657</v>
       </c>
       <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
+      <c r="X17" s="3" t="n">
+        <v>8.628960091</v>
+      </c>
       <c r="Y17" s="15"/>
       <c r="AA17" s="16"/>
       <c r="AB17" s="3" t="n">
@@ -1684,7 +1740,9 @@
         <v>2.219745</v>
       </c>
       <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
+      <c r="AE17" s="3" t="n">
+        <v>5.139344725</v>
+      </c>
       <c r="AH17" s="16"/>
       <c r="AI17" s="16"/>
       <c r="AJ17" s="3" t="n">
@@ -1747,7 +1805,9 @@
         <v>5.782624</v>
       </c>
       <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
+      <c r="X18" s="3" t="n">
+        <v>8.973020151</v>
+      </c>
       <c r="Y18" s="15"/>
       <c r="AA18" s="16"/>
       <c r="AB18" s="3" t="n">
@@ -1757,7 +1817,9 @@
         <v>2.216786</v>
       </c>
       <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
+      <c r="AE18" s="3" t="n">
+        <v>5.294092496</v>
+      </c>
       <c r="AH18" s="16"/>
       <c r="AI18" s="16"/>
       <c r="AJ18" s="3" t="n">
@@ -1767,7 +1829,9 @@
         <v>20.992498</v>
       </c>
       <c r="AL18" s="3"/>
-      <c r="AM18" s="3"/>
+      <c r="AM18" s="3" t="n">
+        <v>66.152702343</v>
+      </c>
       <c r="AP18" s="16" t="n">
         <v>1000</v>
       </c>
@@ -1832,7 +1896,9 @@
         <v>17.187057</v>
       </c>
       <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
+      <c r="X19" s="3" t="n">
+        <v>15.839479915</v>
+      </c>
       <c r="Y19" s="15"/>
       <c r="AA19" s="16" t="n">
         <v>2200</v>
@@ -1844,7 +1910,9 @@
         <v>4.144092</v>
       </c>
       <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
+      <c r="AE19" s="3" t="n">
+        <v>9.582285343</v>
+      </c>
       <c r="AH19" s="16" t="n">
         <v>128</v>
       </c>
@@ -1858,7 +1926,9 @@
         <v>72.436213</v>
       </c>
       <c r="AL19" s="3"/>
-      <c r="AM19" s="3"/>
+      <c r="AM19" s="3" t="n">
+        <v>231.08540984</v>
+      </c>
       <c r="AP19" s="16"/>
       <c r="AQ19" s="16"/>
       <c r="AR19" s="17" t="s">
@@ -1915,7 +1985,9 @@
         <v>17.225765</v>
       </c>
       <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
+      <c r="X20" s="3" t="n">
+        <v>16.889169139</v>
+      </c>
       <c r="Y20" s="15"/>
       <c r="AA20" s="16"/>
       <c r="AB20" s="3" t="n">
@@ -1925,7 +1997,9 @@
         <v>4.160252</v>
       </c>
       <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
+      <c r="AE20" s="3" t="n">
+        <v>9.501070831</v>
+      </c>
       <c r="AH20" s="16"/>
       <c r="AI20" s="16"/>
       <c r="AJ20" s="3" t="n">
@@ -1988,7 +2062,9 @@
         <v>16.812417</v>
       </c>
       <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
+      <c r="X21" s="3" t="n">
+        <v>16.493277293</v>
+      </c>
       <c r="Y21" s="15"/>
       <c r="AA21" s="16"/>
       <c r="AB21" s="3" t="n">
@@ -1998,7 +2074,9 @@
         <v>4.149565</v>
       </c>
       <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
+      <c r="AE21" s="3" t="n">
+        <v>9.711218432</v>
+      </c>
       <c r="AH21" s="16"/>
       <c r="AI21" s="16"/>
       <c r="AJ21" s="3" t="n">
@@ -2008,7 +2086,9 @@
         <v>69.489459</v>
       </c>
       <c r="AL21" s="3"/>
-      <c r="AM21" s="3"/>
+      <c r="AM21" s="3" t="n">
+        <v>247.519737636</v>
+      </c>
       <c r="AP21" s="16"/>
       <c r="AQ21" s="16"/>
       <c r="AR21" s="17" t="s">
@@ -2063,7 +2143,9 @@
         <v>37.89806</v>
       </c>
       <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
+      <c r="X22" s="3" t="n">
+        <v>26.591218639</v>
+      </c>
       <c r="Y22" s="15"/>
       <c r="AA22" s="16" t="n">
         <v>2600</v>
@@ -2075,7 +2157,9 @@
         <v>6.911403</v>
       </c>
       <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
+      <c r="AE22" s="3" t="n">
+        <v>16.013072654</v>
+      </c>
       <c r="AH22" s="16" t="n">
         <v>256</v>
       </c>
@@ -2087,7 +2171,9 @@
         <v>72.997667</v>
       </c>
       <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
+      <c r="AM22" s="3" t="n">
+        <v>219.63591324</v>
+      </c>
       <c r="AP22" s="16"/>
       <c r="AQ22" s="16" t="n">
         <v>2</v>
@@ -2128,7 +2214,9 @@
         <v>38.203285</v>
       </c>
       <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
+      <c r="X23" s="3" t="n">
+        <v>27.784564401</v>
+      </c>
       <c r="Y23" s="15"/>
       <c r="AA23" s="16"/>
       <c r="AB23" s="3" t="n">
@@ -2138,7 +2226,9 @@
         <v>6.95426</v>
       </c>
       <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
+      <c r="AE23" s="3" t="n">
+        <v>15.7220935</v>
+      </c>
       <c r="AH23" s="16"/>
       <c r="AI23" s="16"/>
       <c r="AJ23" s="3" t="n">
@@ -2187,7 +2277,9 @@
         <v>37.689618</v>
       </c>
       <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
+      <c r="X24" s="3" t="n">
+        <v>28.642890592</v>
+      </c>
       <c r="Y24" s="15"/>
       <c r="AA24" s="16"/>
       <c r="AB24" s="3" t="n">
@@ -2197,7 +2289,9 @@
         <v>6.905721</v>
       </c>
       <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
+      <c r="AE24" s="3" t="n">
+        <v>16.146631111</v>
+      </c>
       <c r="AH24" s="16"/>
       <c r="AI24" s="16"/>
       <c r="AJ24" s="3" t="n">
@@ -2207,7 +2301,9 @@
         <v>73.397355</v>
       </c>
       <c r="AL24" s="3"/>
-      <c r="AM24" s="3"/>
+      <c r="AM24" s="3" t="n">
+        <v>236.516388112</v>
+      </c>
       <c r="AP24" s="16"/>
       <c r="AQ24" s="16"/>
       <c r="AR24" s="17" t="s">
@@ -2246,7 +2342,9 @@
         <v>62.108903</v>
       </c>
       <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
+      <c r="X25" s="3" t="n">
+        <v>45.532502895</v>
+      </c>
       <c r="Y25" s="15"/>
       <c r="AA25" s="16" t="n">
         <v>3000</v>
@@ -2258,7 +2356,9 @@
         <v>10.649621</v>
       </c>
       <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
+      <c r="AE25" s="3" t="n">
+        <v>24.651739773</v>
+      </c>
       <c r="AH25" s="16" t="n">
         <v>512</v>
       </c>
@@ -2270,7 +2370,9 @@
         <v>67.320278</v>
       </c>
       <c r="AL25" s="3"/>
-      <c r="AM25" s="3"/>
+      <c r="AM25" s="3" t="n">
+        <v>211.973380488</v>
+      </c>
       <c r="AP25" s="16"/>
       <c r="AQ25" s="16"/>
       <c r="AR25" s="17" t="s">
@@ -2307,7 +2409,9 @@
         <v>62.218933</v>
       </c>
       <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
+      <c r="X26" s="3" t="n">
+        <v>42.962997197</v>
+      </c>
       <c r="Y26" s="15"/>
       <c r="AA26" s="16"/>
       <c r="AB26" s="3" t="n">
@@ -2317,7 +2421,9 @@
         <v>10.741454</v>
       </c>
       <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
+      <c r="AE26" s="3" t="n">
+        <v>24.224232084</v>
+      </c>
       <c r="AH26" s="16"/>
       <c r="AI26" s="16"/>
       <c r="AJ26" s="3" t="n">
@@ -2368,7 +2474,9 @@
         <v>62.603877</v>
       </c>
       <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
+      <c r="X27" s="3" t="n">
+        <v>45.532808236</v>
+      </c>
       <c r="AA27" s="16"/>
       <c r="AB27" s="3" t="n">
         <v>3</v>
@@ -2377,7 +2485,9 @@
         <v>10.656897</v>
       </c>
       <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
+      <c r="AE27" s="3" t="n">
+        <v>25.20768692</v>
+      </c>
       <c r="AH27" s="16"/>
       <c r="AI27" s="16"/>
       <c r="AJ27" s="3" t="n">
@@ -2387,7 +2497,9 @@
         <v>67.332532</v>
       </c>
       <c r="AL27" s="3"/>
-      <c r="AM27" s="3"/>
+      <c r="AM27" s="3" t="n">
+        <v>215.317711165</v>
+      </c>
       <c r="AP27" s="16"/>
       <c r="AQ27" s="16"/>
       <c r="AR27" s="17" t="s">
@@ -2428,7 +2540,9 @@
         <v>27.192171</v>
       </c>
       <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
+      <c r="AE28" s="3" t="n">
+        <v>62.669789236</v>
+      </c>
       <c r="AH28" s="16" t="n">
         <v>1024</v>
       </c>
@@ -2440,7 +2554,9 @@
         <v>71.350666</v>
       </c>
       <c r="AL28" s="3"/>
-      <c r="AM28" s="3"/>
+      <c r="AM28" s="3" t="n">
+        <v>212.437486873</v>
+      </c>
       <c r="AP28" s="16"/>
       <c r="AQ28" s="16"/>
       <c r="AR28" s="17" t="s">
@@ -2477,7 +2593,9 @@
         <v>27.435021</v>
       </c>
       <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
+      <c r="AE29" s="3" t="n">
+        <v>61.668461944</v>
+      </c>
       <c r="AH29" s="16"/>
       <c r="AI29" s="16"/>
       <c r="AJ29" s="3" t="n">
@@ -2524,7 +2642,9 @@
         <v>27.311766</v>
       </c>
       <c r="AD30" s="3"/>
-      <c r="AE30" s="3"/>
+      <c r="AE30" s="3" t="n">
+        <v>64.131194993</v>
+      </c>
       <c r="AH30" s="16"/>
       <c r="AI30" s="16"/>
       <c r="AJ30" s="3" t="n">
@@ -2534,7 +2654,9 @@
         <v>71.59229</v>
       </c>
       <c r="AL30" s="3"/>
-      <c r="AM30" s="3"/>
+      <c r="AM30" s="3" t="n">
+        <v>222.927507907</v>
+      </c>
       <c r="AP30" s="16" t="n">
         <v>1400</v>
       </c>
@@ -2581,7 +2703,9 @@
         <v>92.711013</v>
       </c>
       <c r="AD31" s="3"/>
-      <c r="AE31" s="3"/>
+      <c r="AE31" s="3" t="n">
+        <v>212.504139675</v>
+      </c>
       <c r="AH31" s="16" t="n">
         <v>128</v>
       </c>
@@ -2595,7 +2719,9 @@
         <v>191.459751</v>
       </c>
       <c r="AL31" s="3"/>
-      <c r="AM31" s="3"/>
+      <c r="AM31" s="3" t="n">
+        <v>570.0537716</v>
+      </c>
       <c r="AP31" s="16"/>
       <c r="AQ31" s="16"/>
       <c r="AR31" s="17" t="s">
@@ -2636,7 +2762,9 @@
         <v>93.197964</v>
       </c>
       <c r="AD32" s="3"/>
-      <c r="AE32" s="3"/>
+      <c r="AE32" s="3" t="n">
+        <v>207.638829957</v>
+      </c>
       <c r="AH32" s="16"/>
       <c r="AI32" s="16"/>
       <c r="AJ32" s="3" t="n">
@@ -2683,7 +2811,9 @@
         <v>91.629528</v>
       </c>
       <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
+      <c r="AE33" s="3" t="n">
+        <v>214.288231185</v>
+      </c>
       <c r="AH33" s="16"/>
       <c r="AI33" s="16"/>
       <c r="AJ33" s="3" t="n">
@@ -2693,7 +2823,9 @@
         <v>189.763645</v>
       </c>
       <c r="AL33" s="3"/>
-      <c r="AM33" s="3"/>
+      <c r="AM33" s="3" t="n">
+        <v>582.125475691</v>
+      </c>
       <c r="AP33" s="16"/>
       <c r="AQ33" s="16"/>
       <c r="AR33" s="17" t="s">
@@ -2732,7 +2864,9 @@
         <v>220.146748</v>
       </c>
       <c r="AD34" s="3"/>
-      <c r="AE34" s="3"/>
+      <c r="AE34" s="3" t="n">
+        <v>502.903257167</v>
+      </c>
       <c r="AH34" s="16" t="n">
         <v>256</v>
       </c>
@@ -2744,7 +2878,9 @@
         <v>195.39242</v>
       </c>
       <c r="AL34" s="3"/>
-      <c r="AM34" s="3"/>
+      <c r="AM34" s="3" t="n">
+        <v>544.721944469</v>
+      </c>
       <c r="AP34" s="16"/>
       <c r="AQ34" s="16" t="n">
         <v>2</v>
@@ -2785,7 +2921,9 @@
         <v>219.145195</v>
       </c>
       <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
+      <c r="AE35" s="3" t="n">
+        <v>494.876566077</v>
+      </c>
       <c r="AH35" s="16"/>
       <c r="AI35" s="16"/>
       <c r="AJ35" s="3" t="n">
@@ -2834,7 +2972,9 @@
         <v>218.717726</v>
       </c>
       <c r="AD36" s="3"/>
-      <c r="AE36" s="3"/>
+      <c r="AE36" s="3" t="n">
+        <v>505.639933029</v>
+      </c>
       <c r="AH36" s="16"/>
       <c r="AI36" s="16"/>
       <c r="AJ36" s="3" t="n">
@@ -2844,7 +2984,9 @@
         <v>194.452869</v>
       </c>
       <c r="AL36" s="3"/>
-      <c r="AM36" s="3"/>
+      <c r="AM36" s="3" t="n">
+        <v>563.069172852</v>
+      </c>
       <c r="AP36" s="16"/>
       <c r="AQ36" s="16"/>
       <c r="AR36" s="17" t="s">
@@ -2883,7 +3025,9 @@
         <v>428.233548</v>
       </c>
       <c r="AD37" s="3"/>
-      <c r="AE37" s="3"/>
+      <c r="AE37" s="3" t="n">
+        <v>994.678100168</v>
+      </c>
       <c r="AH37" s="16" t="n">
         <v>512</v>
       </c>
@@ -2895,7 +3039,9 @@
         <v>173.008523</v>
       </c>
       <c r="AL37" s="3"/>
-      <c r="AM37" s="3"/>
+      <c r="AM37" s="3" t="n">
+        <v>549.737653988</v>
+      </c>
       <c r="AP37" s="16"/>
       <c r="AQ37" s="16"/>
       <c r="AR37" s="17" t="s">
@@ -2932,7 +3078,9 @@
         <v>431.271812</v>
       </c>
       <c r="AD38" s="3"/>
-      <c r="AE38" s="3"/>
+      <c r="AE38" s="3" t="n">
+        <v>968.098889841</v>
+      </c>
       <c r="AH38" s="16"/>
       <c r="AI38" s="16"/>
       <c r="AJ38" s="3" t="n">
@@ -2984,7 +3132,9 @@
         <v>427.666957</v>
       </c>
       <c r="AD39" s="3"/>
-      <c r="AE39" s="3"/>
+      <c r="AE39" s="3" t="n">
+        <v>993.540539454</v>
+      </c>
       <c r="AH39" s="16"/>
       <c r="AI39" s="16"/>
       <c r="AJ39" s="3" t="n">
@@ -2994,7 +3144,9 @@
         <v>172.040129</v>
       </c>
       <c r="AL39" s="3"/>
-      <c r="AM39" s="3"/>
+      <c r="AM39" s="3" t="n">
+        <v>557.871592194</v>
+      </c>
       <c r="AP39" s="16"/>
       <c r="AQ39" s="16"/>
       <c r="AR39" s="17" t="s">
@@ -3037,7 +3189,9 @@
         <v>170.242623</v>
       </c>
       <c r="AL40" s="3"/>
-      <c r="AM40" s="3"/>
+      <c r="AM40" s="3" t="n">
+        <v>590.201754938</v>
+      </c>
       <c r="AP40" s="16"/>
       <c r="AQ40" s="16"/>
       <c r="AR40" s="17" t="s">
@@ -3115,7 +3269,9 @@
         <v>172.70656</v>
       </c>
       <c r="AL42" s="3"/>
-      <c r="AM42" s="3"/>
+      <c r="AM42" s="3" t="n">
+        <v>579.312606143</v>
+      </c>
       <c r="AP42" s="16" t="n">
         <v>1800</v>
       </c>
@@ -3166,7 +3322,9 @@
         <v>333.29852</v>
       </c>
       <c r="AL43" s="3"/>
-      <c r="AM43" s="3"/>
+      <c r="AM43" s="3" t="n">
+        <v>1108.888656539</v>
+      </c>
       <c r="AP43" s="16"/>
       <c r="AQ43" s="16"/>
       <c r="AR43" s="17" t="s">
@@ -3248,7 +3406,9 @@
         <v>334.460238</v>
       </c>
       <c r="AL45" s="3"/>
-      <c r="AM45" s="3"/>
+      <c r="AM45" s="3" t="n">
+        <v>1111.739174592</v>
+      </c>
       <c r="AP45" s="16"/>
       <c r="AQ45" s="16"/>
       <c r="AR45" s="17" t="s">
@@ -3289,7 +3449,9 @@
         <v>350.919022</v>
       </c>
       <c r="AL46" s="3"/>
-      <c r="AM46" s="3"/>
+      <c r="AM46" s="3" t="n">
+        <v>1076.083576631</v>
+      </c>
       <c r="AP46" s="16"/>
       <c r="AQ46" s="16" t="n">
         <v>2</v>
@@ -3373,7 +3535,9 @@
         <v>340.074066</v>
       </c>
       <c r="AL48" s="3"/>
-      <c r="AM48" s="3"/>
+      <c r="AM48" s="3" t="n">
+        <v>1038.366186767</v>
+      </c>
       <c r="AP48" s="16"/>
       <c r="AQ48" s="16"/>
       <c r="AR48" s="17" t="s">
@@ -3414,7 +3578,9 @@
         <v>321.848549</v>
       </c>
       <c r="AL49" s="3"/>
-      <c r="AM49" s="3"/>
+      <c r="AM49" s="3" t="n">
+        <v>1007.178475017</v>
+      </c>
       <c r="AP49" s="16"/>
       <c r="AQ49" s="16"/>
       <c r="AR49" s="17" t="s">
@@ -3496,7 +3662,9 @@
         <v>311.822077</v>
       </c>
       <c r="AL51" s="3"/>
-      <c r="AM51" s="3"/>
+      <c r="AM51" s="3" t="n">
+        <v>1029.368816762</v>
+      </c>
       <c r="AP51" s="16"/>
       <c r="AQ51" s="16"/>
       <c r="AR51" s="17" t="s">
@@ -3539,7 +3707,9 @@
         <v>324.822943</v>
       </c>
       <c r="AL52" s="3"/>
-      <c r="AM52" s="3"/>
+      <c r="AM52" s="3" t="n">
+        <v>982.25482638</v>
+      </c>
       <c r="AP52" s="16"/>
       <c r="AQ52" s="16"/>
       <c r="AR52" s="17" t="s">
@@ -3578,7 +3748,9 @@
         <v>320.605221</v>
       </c>
       <c r="AL53" s="3"/>
-      <c r="AM53" s="3"/>
+      <c r="AM53" s="3" t="n">
+        <v>1021.135029645</v>
+      </c>
       <c r="AP53" s="16"/>
       <c r="AQ53" s="16"/>
       <c r="AR53" s="17" t="s">
@@ -3617,7 +3789,9 @@
         <v>326.764733</v>
       </c>
       <c r="AL54" s="3"/>
-      <c r="AM54" s="3"/>
+      <c r="AM54" s="3" t="n">
+        <v>1039.81966532</v>
+      </c>
       <c r="AP54" s="16" t="n">
         <v>2200</v>
       </c>

--- a/assign1/doc/data/all_data.xlsx
+++ b/assign1/doc/data/all_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uporto-my.sharepoint.com/personal/up202004187_up_pt/Documents/UNI/Ano 3/Semestre 2/Computacao Paralela e Distribuida (CPD)/g13/assign1/doc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_F0C9C43B7134F0CEED19ABE7D32DDD36997747A4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35BE6B2D-5D98-45CF-B7B4-60B1C36D4F9D}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_F0C9C43B7134F0CEED19ABE7D32DDD36997747A4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E01CB978-FB24-4550-96FB-6DBD4867CAC2}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AMJ197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AN8" sqref="AN8"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AO9" sqref="AO9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,7 +932,7 @@
       </c>
       <c r="F7" s="1">
         <f>IFERROR(AVERAGE(W7:W9),0)</f>
-        <v>0.45400000000000001</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="G7" s="1">
         <f>IFERROR(AVERAGE(X7:X9),0)</f>
@@ -944,7 +944,7 @@
       </c>
       <c r="I7" s="1">
         <f>IFERROR(AVERAGE(AD7:AD9),0)</f>
-        <v>0.25750000000000001</v>
+        <v>0.25433333333333336</v>
       </c>
       <c r="J7" s="1">
         <f>IFERROR(AVERAGE(AE7:AE9),0)</f>
@@ -962,7 +962,7 @@
       </c>
       <c r="O7" s="1">
         <f>IFERROR(AVERAGE(AL7:AL9),0)</f>
-        <v>82.835999999999999</v>
+        <v>82.302666666666667</v>
       </c>
       <c r="P7" s="1">
         <f>IFERROR(AVERAGE(AM7:AM9),0)</f>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="F8" s="1">
         <f>IFERROR(AVERAGE(W10:W12),0)</f>
-        <v>2.3644999999999996</v>
+        <v>2.2693333333333334</v>
       </c>
       <c r="G8" s="1">
         <f>IFERROR(AVERAGE(X10:X12),0)</f>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="I8" s="1">
         <f>IFERROR(AVERAGE(AD10:AD12),0)</f>
-        <v>1.1539999999999999</v>
+        <v>1.143</v>
       </c>
       <c r="J8" s="1">
         <f>IFERROR(AVERAGE(AE10:AE12),0)</f>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="O8" s="1">
         <f>IFERROR(AVERAGE(AL10:AL12),0)</f>
-        <v>80.93950000000001</v>
+        <v>80.696666666666673</v>
       </c>
       <c r="P8" s="1">
         <f>IFERROR(AVERAGE(AM10:AM12),0)</f>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="F9" s="1">
         <f>IFERROR(AVERAGE(W13:W15),0)</f>
-        <v>6.8405000000000005</v>
+        <v>6.681</v>
       </c>
       <c r="G9" s="1">
         <f>IFERROR(AVERAGE(X13:X15),0)</f>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="I9" s="1">
         <f>IFERROR(AVERAGE(AD13:AD15),0)</f>
-        <v>3.1654999999999998</v>
+        <v>3.1386666666666669</v>
       </c>
       <c r="J9" s="1">
         <f>IFERROR(AVERAGE(AE13:AE15),0)</f>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="O9" s="1">
         <f>IFERROR(AVERAGE(AL13:AL15),0)</f>
-        <v>79.217000000000013</v>
+        <v>79.253333333333345</v>
       </c>
       <c r="P9" s="1">
         <f>IFERROR(AVERAGE(AM13:AM15),0)</f>
@@ -1210,7 +1210,9 @@
       <c r="V9" s="16">
         <v>0.14838200000000001</v>
       </c>
-      <c r="W9" s="16"/>
+      <c r="W9" s="16">
+        <v>0.439</v>
+      </c>
       <c r="X9" s="1">
         <v>0.23284880099999999</v>
       </c>
@@ -1222,7 +1224,9 @@
       <c r="AC9" s="16">
         <v>6.2348000000000001E-2</v>
       </c>
-      <c r="AD9" s="16"/>
+      <c r="AD9" s="16">
+        <v>0.248</v>
+      </c>
       <c r="AE9" s="1">
         <v>0.19239168100000001</v>
       </c>
@@ -1234,7 +1238,9 @@
       <c r="AK9" s="16">
         <v>20.589556999999999</v>
       </c>
-      <c r="AL9" s="16"/>
+      <c r="AL9" s="16">
+        <v>81.236000000000004</v>
+      </c>
       <c r="AM9" s="1">
         <v>70.729489573999999</v>
       </c>
@@ -1274,7 +1280,7 @@
       </c>
       <c r="F10" s="1">
         <f>IFERROR(AVERAGE(W16:W18),0)</f>
-        <v>14.972000000000001</v>
+        <v>14.720666666666668</v>
       </c>
       <c r="G10" s="1">
         <f>IFERROR(AVERAGE(X16:X18),0)</f>
@@ -1286,7 +1292,7 @@
       </c>
       <c r="I10" s="1">
         <f>IFERROR(AVERAGE(AD16:AD18),0)</f>
-        <v>6.7534999999999998</v>
+        <v>6.6946666666666665</v>
       </c>
       <c r="J10" s="1">
         <f>IFERROR(AVERAGE(AE16:AE18),0)</f>
@@ -1302,7 +1308,7 @@
       </c>
       <c r="O10" s="1">
         <f>IFERROR(AVERAGE(AL16:AL18),0)</f>
-        <v>80.248500000000007</v>
+        <v>79.75200000000001</v>
       </c>
       <c r="P10" s="1">
         <f>IFERROR(AVERAGE(AM16:AM18),0)</f>
@@ -1396,7 +1402,7 @@
       </c>
       <c r="F11" s="1">
         <f>IFERROR(AVERAGE(W19:W21),0)</f>
-        <v>27.770499999999998</v>
+        <v>27.193666666666662</v>
       </c>
       <c r="G11" s="1">
         <f>IFERROR(AVERAGE(X19:X21),0)</f>
@@ -1408,7 +1414,7 @@
       </c>
       <c r="I11" s="1">
         <f>IFERROR(AVERAGE(AD19:AD21),0)</f>
-        <v>12.341999999999999</v>
+        <v>12.355666666666664</v>
       </c>
       <c r="J11" s="1">
         <f>IFERROR(AVERAGE(AE19:AE21),0)</f>
@@ -1426,7 +1432,7 @@
       </c>
       <c r="O11" s="1">
         <f>IFERROR(AVERAGE(AL19:AL21),0)</f>
-        <v>278.52250000000004</v>
+        <v>277.41166666666669</v>
       </c>
       <c r="P11" s="1">
         <f>IFERROR(AVERAGE(AM19:AM21),0)</f>
@@ -1510,7 +1516,7 @@
       </c>
       <c r="F12" s="1">
         <f>IFERROR(AVERAGE(W22:W24),0)</f>
-        <v>47.319000000000003</v>
+        <v>46.502333333333333</v>
       </c>
       <c r="G12" s="1">
         <f>IFERROR(AVERAGE(X22:X24),0)</f>
@@ -1522,7 +1528,7 @@
       </c>
       <c r="I12" s="1">
         <f>IFERROR(AVERAGE(AD22:AD24),0)</f>
-        <v>20.469000000000001</v>
+        <v>20.455333333333332</v>
       </c>
       <c r="J12" s="1">
         <f>IFERROR(AVERAGE(AE22:AE24),0)</f>
@@ -1538,7 +1544,7 @@
       </c>
       <c r="O12" s="1">
         <f>IFERROR(AVERAGE(AL22:AL24),0)</f>
-        <v>274.89549999999997</v>
+        <v>275.35399999999998</v>
       </c>
       <c r="P12" s="1">
         <f>IFERROR(AVERAGE(AM22:AM24),0)</f>
@@ -1552,7 +1558,9 @@
       <c r="V12" s="16">
         <v>0.67136899999999999</v>
       </c>
-      <c r="W12" s="16"/>
+      <c r="W12" s="16">
+        <v>2.0790000000000002</v>
+      </c>
       <c r="X12" s="1">
         <v>1.0996328479999999</v>
       </c>
@@ -1564,7 +1572,9 @@
       <c r="AC12" s="16">
         <v>0.28289799999999998</v>
       </c>
-      <c r="AD12" s="16"/>
+      <c r="AD12" s="16">
+        <v>1.121</v>
+      </c>
       <c r="AE12" s="1">
         <v>0.89057750800000002</v>
       </c>
@@ -1576,7 +1586,9 @@
       <c r="AK12" s="16">
         <v>21.863876999999999</v>
       </c>
-      <c r="AL12" s="16"/>
+      <c r="AL12" s="16">
+        <v>80.210999999999999</v>
+      </c>
       <c r="AM12" s="1">
         <v>68.319259458000005</v>
       </c>
@@ -1616,7 +1628,7 @@
       </c>
       <c r="F13" s="1">
         <f>IFERROR(AVERAGE(W25:W27),0)</f>
-        <v>72.97999999999999</v>
+        <v>71.466666666666654</v>
       </c>
       <c r="G13" s="1">
         <f>IFERROR(AVERAGE(X25:X27),0)</f>
@@ -1628,7 +1640,7 @@
       </c>
       <c r="I13" s="1">
         <f>IFERROR(AVERAGE(AD25:AD27),0)</f>
-        <v>31.363</v>
+        <v>31.342333333333332</v>
       </c>
       <c r="J13" s="1">
         <f>IFERROR(AVERAGE(AE25:AE27),0)</f>
@@ -1644,7 +1656,7 @@
       </c>
       <c r="O13" s="1">
         <f>IFERROR(AVERAGE(AL25:AL27),0)</f>
-        <v>270.63400000000001</v>
+        <v>270.95533333333333</v>
       </c>
       <c r="P13" s="1">
         <f>IFERROR(AVERAGE(AM25:AM27),0)</f>
@@ -1737,7 +1749,7 @@
       </c>
       <c r="I14" s="1">
         <f>IFERROR(AVERAGE(AD28:AD30),0)</f>
-        <v>81.668000000000006</v>
+        <v>80.414666666666676</v>
       </c>
       <c r="J14" s="1">
         <f>IFERROR(AVERAGE(AE28:AE30),0)</f>
@@ -1753,7 +1765,7 @@
       </c>
       <c r="O14" s="1">
         <f>IFERROR(AVERAGE(AL28:AL30),0)</f>
-        <v>280.87900000000002</v>
+        <v>275.22766666666666</v>
       </c>
       <c r="P14" s="1">
         <f>IFERROR(AVERAGE(AM28:AM30),0)</f>
@@ -1842,7 +1854,7 @@
       </c>
       <c r="I15" s="1">
         <f>IFERROR(AVERAGE(AD31:AD33),0)</f>
-        <v>277.8295</v>
+        <v>275.18866666666668</v>
       </c>
       <c r="J15" s="1">
         <f>IFERROR(AVERAGE(AE31:AE33),0)</f>
@@ -1860,7 +1872,7 @@
       </c>
       <c r="O15" s="1">
         <f>IFERROR(AVERAGE(AL31:AL33),0)</f>
-        <v>663.88550000000009</v>
+        <v>659.41333333333341</v>
       </c>
       <c r="P15" s="1">
         <f>IFERROR(AVERAGE(AM31:AM33),0)</f>
@@ -1874,7 +1886,9 @@
       <c r="V15" s="16">
         <v>2.4981339999999999</v>
       </c>
-      <c r="W15" s="16"/>
+      <c r="W15" s="16">
+        <v>6.3620000000000001</v>
+      </c>
       <c r="X15" s="1">
         <v>3.9858859400000002</v>
       </c>
@@ -1886,7 +1900,9 @@
       <c r="AC15" s="16">
         <v>0.94923800000000003</v>
       </c>
-      <c r="AD15" s="16"/>
+      <c r="AD15" s="16">
+        <v>3.085</v>
+      </c>
       <c r="AE15" s="1">
         <v>2.47531481</v>
       </c>
@@ -1898,7 +1914,9 @@
       <c r="AK15" s="2">
         <v>21.230785000000001</v>
       </c>
-      <c r="AL15" s="16"/>
+      <c r="AL15" s="16">
+        <v>79.325999999999993</v>
+      </c>
       <c r="AM15" s="1">
         <v>65.625170709000002</v>
       </c>
@@ -1943,7 +1961,7 @@
       </c>
       <c r="I16" s="1">
         <f>IFERROR(AVERAGE(AD34:AD36),0)</f>
-        <v>647.15499999999997</v>
+        <v>645.71799999999996</v>
       </c>
       <c r="J16" s="1">
         <f>IFERROR(AVERAGE(AE34:AE36),0)</f>
@@ -1959,7 +1977,7 @@
       </c>
       <c r="O16" s="1">
         <f>IFERROR(AVERAGE(AL34:AL36),0)</f>
-        <v>639.48199999999997</v>
+        <v>641.01166666666666</v>
       </c>
       <c r="P16" s="1">
         <f>IFERROR(AVERAGE(AM34:AM36),0)</f>
@@ -2052,7 +2070,7 @@
       </c>
       <c r="I17" s="1">
         <f>IFERROR(AVERAGE(AD37:AD39),0)</f>
-        <v>1268.8689999999999</v>
+        <v>1253.1566666666665</v>
       </c>
       <c r="J17" s="1">
         <f>IFERROR(AVERAGE(AE37:AE39),0)</f>
@@ -2068,7 +2086,7 @@
       </c>
       <c r="O17" s="1">
         <f>IFERROR(AVERAGE(AL37:AL39),0)</f>
-        <v>634.76549999999997</v>
+        <v>631.31966666666665</v>
       </c>
       <c r="P17" s="1">
         <f>IFERROR(AVERAGE(AM37:AM39),0)</f>
@@ -2151,7 +2169,7 @@
       </c>
       <c r="O18" s="1">
         <f>IFERROR(AVERAGE(AL40:AL42),0)</f>
-        <v>635.21849999999995</v>
+        <v>637.37599999999998</v>
       </c>
       <c r="P18" s="1">
         <f>IFERROR(AVERAGE(AM40:AM42),0)</f>
@@ -2165,7 +2183,9 @@
       <c r="V18" s="16">
         <v>5.7826240000000002</v>
       </c>
-      <c r="W18" s="16"/>
+      <c r="W18" s="16">
+        <v>14.218</v>
+      </c>
       <c r="X18" s="1">
         <v>8.9730201510000001</v>
       </c>
@@ -2177,7 +2197,9 @@
       <c r="AC18" s="16">
         <v>2.2167859999999999</v>
       </c>
-      <c r="AD18" s="16"/>
+      <c r="AD18" s="16">
+        <v>6.577</v>
+      </c>
       <c r="AE18" s="1">
         <v>5.2940924960000002</v>
       </c>
@@ -2189,7 +2211,9 @@
       <c r="AK18" s="16">
         <v>20.992498000000001</v>
       </c>
-      <c r="AL18" s="16"/>
+      <c r="AL18" s="16">
+        <v>78.759</v>
+      </c>
       <c r="AM18" s="1">
         <v>66.152702343000001</v>
       </c>
@@ -2240,7 +2264,7 @@
       </c>
       <c r="O19" s="1">
         <f>IFERROR(AVERAGE(AL43:AL45),0)</f>
-        <v>1276.1585</v>
+        <v>1281.0116666666665</v>
       </c>
       <c r="P19" s="1">
         <f>IFERROR(AVERAGE(AM43:AM45),0)</f>
@@ -2337,7 +2361,7 @@
       </c>
       <c r="O20" s="1">
         <f>IFERROR(AVERAGE(AL46:AL48),0)</f>
-        <v>1273.8764999999999</v>
+        <v>1262.2523333333331</v>
       </c>
       <c r="P20" s="1">
         <f>IFERROR(AVERAGE(AM46:AM48),0)</f>
@@ -2420,11 +2444,11 @@
       </c>
       <c r="O21" s="1">
         <f>IFERROR(AVERAGE(AL49:AL51),0)</f>
-        <v>1271.4549999999999</v>
+        <v>1254.3146666666667</v>
       </c>
       <c r="P21" s="1">
         <f>IFERROR(AVERAGE(AM49:AM51),0)</f>
-        <v>1018.2736458895</v>
+        <v>1014.5752555986668</v>
       </c>
       <c r="S21" s="14"/>
       <c r="T21" s="18"/>
@@ -2434,7 +2458,9 @@
       <c r="V21" s="16">
         <v>16.812417</v>
       </c>
-      <c r="W21" s="16"/>
+      <c r="W21" s="16">
+        <v>26.04</v>
+      </c>
       <c r="X21" s="1">
         <v>16.493277292999998</v>
       </c>
@@ -2446,7 +2472,9 @@
       <c r="AC21" s="16">
         <v>4.1495649999999999</v>
       </c>
-      <c r="AD21" s="16"/>
+      <c r="AD21" s="16">
+        <v>12.382999999999999</v>
+      </c>
       <c r="AE21" s="1">
         <v>9.7112184320000008</v>
       </c>
@@ -2458,7 +2486,9 @@
       <c r="AK21" s="16">
         <v>69.489458999999997</v>
       </c>
-      <c r="AL21" s="16"/>
+      <c r="AL21" s="16">
+        <v>275.19</v>
+      </c>
       <c r="AM21" s="1">
         <v>247.519737636</v>
       </c>
@@ -2499,7 +2529,7 @@
       </c>
       <c r="O22" s="1">
         <f>IFERROR(AVERAGE(AL52:AL54),0)</f>
-        <v>1251.1904999999999</v>
+        <v>1239.2329999999999</v>
       </c>
       <c r="P22" s="1">
         <f>IFERROR(AVERAGE(AM52:AM54),0)</f>
@@ -2661,7 +2691,9 @@
       <c r="V24" s="16">
         <v>37.689618000000003</v>
       </c>
-      <c r="W24" s="16"/>
+      <c r="W24" s="16">
+        <v>44.869</v>
+      </c>
       <c r="X24" s="1">
         <v>28.642890592000001</v>
       </c>
@@ -2673,7 +2705,9 @@
       <c r="AC24" s="16">
         <v>6.9057209999999998</v>
       </c>
-      <c r="AD24" s="16"/>
+      <c r="AD24" s="16">
+        <v>20.428000000000001</v>
+      </c>
       <c r="AE24" s="1">
         <v>16.146631111000001</v>
       </c>
@@ -2685,7 +2719,9 @@
       <c r="AK24" s="16">
         <v>73.397355000000005</v>
       </c>
-      <c r="AL24" s="16"/>
+      <c r="AL24" s="16">
+        <v>276.27100000000002</v>
+      </c>
       <c r="AM24" s="1">
         <v>236.51638811199999</v>
       </c>
@@ -2870,7 +2906,9 @@
       <c r="V27" s="16">
         <v>62.603876999999997</v>
       </c>
-      <c r="W27" s="16"/>
+      <c r="W27" s="16">
+        <v>68.44</v>
+      </c>
       <c r="X27" s="1">
         <v>45.532808236000001</v>
       </c>
@@ -2881,7 +2919,9 @@
       <c r="AC27" s="16">
         <v>10.656897000000001</v>
       </c>
-      <c r="AD27" s="16"/>
+      <c r="AD27" s="16">
+        <v>31.300999999999998</v>
+      </c>
       <c r="AE27" s="1">
         <v>25.20768692</v>
       </c>
@@ -2893,7 +2933,9 @@
       <c r="AK27" s="16">
         <v>67.332532</v>
       </c>
-      <c r="AL27" s="16"/>
+      <c r="AL27" s="16">
+        <v>271.59800000000001</v>
+      </c>
       <c r="AM27" s="1">
         <v>215.31771116499999</v>
       </c>
@@ -3046,7 +3088,9 @@
       <c r="AC30" s="16">
         <v>27.311765999999999</v>
       </c>
-      <c r="AD30" s="16"/>
+      <c r="AD30" s="16">
+        <v>77.908000000000001</v>
+      </c>
       <c r="AE30" s="1">
         <v>64.131194992999994</v>
       </c>
@@ -3058,7 +3102,9 @@
       <c r="AK30" s="16">
         <v>71.592290000000006</v>
       </c>
-      <c r="AL30" s="16"/>
+      <c r="AL30" s="16">
+        <v>263.92500000000001</v>
+      </c>
       <c r="AM30" s="1">
         <v>222.92750790700001</v>
       </c>
@@ -3223,7 +3269,9 @@
       <c r="AC33" s="16">
         <v>91.629527999999993</v>
       </c>
-      <c r="AD33" s="16"/>
+      <c r="AD33" s="16">
+        <v>269.90699999999998</v>
+      </c>
       <c r="AE33" s="1">
         <v>214.288231185</v>
       </c>
@@ -3235,7 +3283,9 @@
       <c r="AK33" s="16">
         <v>189.763645</v>
       </c>
-      <c r="AL33" s="16"/>
+      <c r="AL33" s="16">
+        <v>650.46900000000005</v>
+      </c>
       <c r="AM33" s="1">
         <v>582.12547569100002</v>
       </c>
@@ -3392,7 +3442,9 @@
       <c r="AC36" s="16">
         <v>218.717726</v>
       </c>
-      <c r="AD36" s="16"/>
+      <c r="AD36" s="16">
+        <v>642.84400000000005</v>
+      </c>
       <c r="AE36" s="1">
         <v>505.63993302900002</v>
       </c>
@@ -3404,7 +3456,9 @@
       <c r="AK36" s="16">
         <v>194.45286899999999</v>
       </c>
-      <c r="AL36" s="16"/>
+      <c r="AL36" s="16">
+        <v>644.07100000000003</v>
+      </c>
       <c r="AM36" s="1">
         <v>563.06917285199995</v>
       </c>
@@ -3560,7 +3614,9 @@
       <c r="AC39" s="16">
         <v>427.66695700000002</v>
       </c>
-      <c r="AD39" s="16"/>
+      <c r="AD39" s="16">
+        <v>1221.732</v>
+      </c>
       <c r="AE39" s="1">
         <v>993.54053945400005</v>
       </c>
@@ -3572,7 +3628,9 @@
       <c r="AK39" s="16">
         <v>172.04012900000001</v>
       </c>
-      <c r="AL39" s="16"/>
+      <c r="AL39" s="16">
+        <v>624.428</v>
+      </c>
       <c r="AM39" s="1">
         <v>557.87159219399996</v>
       </c>
@@ -3701,7 +3759,9 @@
       <c r="AK42" s="16">
         <v>172.70656</v>
       </c>
-      <c r="AL42" s="16"/>
+      <c r="AL42" s="16">
+        <v>641.69100000000003</v>
+      </c>
       <c r="AM42" s="1">
         <v>579.31260614300004</v>
       </c>
@@ -3842,7 +3902,9 @@
       <c r="AK45" s="16">
         <v>334.460238</v>
       </c>
-      <c r="AL45" s="16"/>
+      <c r="AL45" s="16">
+        <v>1290.7180000000001</v>
+      </c>
       <c r="AM45" s="1">
         <v>1111.7391745919999</v>
       </c>
@@ -3975,7 +4037,9 @@
       <c r="AK48" s="16">
         <v>340.07406600000002</v>
       </c>
-      <c r="AL48" s="16"/>
+      <c r="AL48" s="16">
+        <v>1239.0039999999999</v>
+      </c>
       <c r="AM48" s="1">
         <v>1038.366186767</v>
       </c>
@@ -4064,7 +4128,9 @@
       <c r="AL50" s="16">
         <v>1253.357</v>
       </c>
-      <c r="AM50" s="1"/>
+      <c r="AM50" s="1">
+        <v>1007.178475017</v>
+      </c>
       <c r="AP50" s="18"/>
       <c r="AQ50" s="18">
         <v>3</v>
@@ -4106,7 +4172,9 @@
       <c r="AK51" s="16">
         <v>311.82207699999998</v>
       </c>
-      <c r="AL51" s="16"/>
+      <c r="AL51" s="16">
+        <v>1220.0340000000001</v>
+      </c>
       <c r="AM51" s="1">
         <v>1029.3688167620001</v>
       </c>
@@ -4237,7 +4305,9 @@
       <c r="AK54" s="16">
         <v>326.76473299999998</v>
       </c>
-      <c r="AL54" s="16"/>
+      <c r="AL54" s="16">
+        <v>1215.318</v>
+      </c>
       <c r="AM54" s="1">
         <v>1039.81966532</v>
       </c>
@@ -6986,6 +7056,179 @@
     </row>
   </sheetData>
   <mergeCells count="197">
+    <mergeCell ref="BB150:BB161"/>
+    <mergeCell ref="BC150:BC197"/>
+    <mergeCell ref="BD150:BD153"/>
+    <mergeCell ref="BD154:BD157"/>
+    <mergeCell ref="BD158:BD161"/>
+    <mergeCell ref="BB162:BB173"/>
+    <mergeCell ref="BD162:BD165"/>
+    <mergeCell ref="BD166:BD169"/>
+    <mergeCell ref="BD170:BD173"/>
+    <mergeCell ref="BB174:BB185"/>
+    <mergeCell ref="BD174:BD177"/>
+    <mergeCell ref="BD178:BD181"/>
+    <mergeCell ref="BD182:BD185"/>
+    <mergeCell ref="BB186:BB197"/>
+    <mergeCell ref="BD186:BD189"/>
+    <mergeCell ref="BD190:BD193"/>
+    <mergeCell ref="BD194:BD197"/>
+    <mergeCell ref="BD106:BD109"/>
+    <mergeCell ref="AW107:AW110"/>
+    <mergeCell ref="BD110:BD113"/>
+    <mergeCell ref="AW111:AW114"/>
+    <mergeCell ref="BB114:BB125"/>
+    <mergeCell ref="BD114:BD117"/>
+    <mergeCell ref="AV115:AV126"/>
+    <mergeCell ref="AW115:AW118"/>
+    <mergeCell ref="BD118:BD121"/>
+    <mergeCell ref="AW119:AW122"/>
+    <mergeCell ref="BD122:BD125"/>
+    <mergeCell ref="AW123:AW126"/>
+    <mergeCell ref="BB126:BB137"/>
+    <mergeCell ref="BD126:BD129"/>
+    <mergeCell ref="AV127:AV138"/>
+    <mergeCell ref="AW127:AW130"/>
+    <mergeCell ref="BD130:BD133"/>
+    <mergeCell ref="AW131:AW134"/>
+    <mergeCell ref="BD134:BD137"/>
+    <mergeCell ref="AW135:AW138"/>
+    <mergeCell ref="BB138:BB149"/>
+    <mergeCell ref="BD138:BD141"/>
+    <mergeCell ref="BD142:BD145"/>
+    <mergeCell ref="BD146:BD149"/>
+    <mergeCell ref="AP66:AP77"/>
+    <mergeCell ref="AQ66:AQ69"/>
+    <mergeCell ref="BB66:BB77"/>
+    <mergeCell ref="BD66:BD69"/>
+    <mergeCell ref="AV67:AV78"/>
+    <mergeCell ref="AW67:AW70"/>
+    <mergeCell ref="AQ70:AQ73"/>
+    <mergeCell ref="BD70:BD73"/>
+    <mergeCell ref="AW71:AW74"/>
+    <mergeCell ref="AQ74:AQ77"/>
+    <mergeCell ref="BD74:BD77"/>
+    <mergeCell ref="AW75:AW78"/>
+    <mergeCell ref="AP78:AP89"/>
+    <mergeCell ref="AQ78:AQ81"/>
+    <mergeCell ref="BB78:BB89"/>
+    <mergeCell ref="BD78:BD81"/>
+    <mergeCell ref="AV79:AV90"/>
+    <mergeCell ref="AW79:AW82"/>
+    <mergeCell ref="AQ82:AQ85"/>
+    <mergeCell ref="BD82:BD85"/>
+    <mergeCell ref="AW83:AW86"/>
+    <mergeCell ref="AQ86:AQ89"/>
+    <mergeCell ref="BD86:BD89"/>
+    <mergeCell ref="AW87:AW90"/>
+    <mergeCell ref="BB54:BB65"/>
+    <mergeCell ref="BC54:BC101"/>
+    <mergeCell ref="BD54:BD57"/>
+    <mergeCell ref="AV55:AV66"/>
+    <mergeCell ref="AW55:AW58"/>
+    <mergeCell ref="AQ58:AQ61"/>
+    <mergeCell ref="BD58:BD61"/>
+    <mergeCell ref="AW59:AW62"/>
+    <mergeCell ref="AQ62:AQ65"/>
+    <mergeCell ref="BD62:BD65"/>
+    <mergeCell ref="AW63:AW66"/>
+    <mergeCell ref="BB90:BB101"/>
+    <mergeCell ref="BD90:BD93"/>
+    <mergeCell ref="AV91:AV102"/>
+    <mergeCell ref="AW91:AW94"/>
+    <mergeCell ref="BD94:BD97"/>
+    <mergeCell ref="AW95:AW98"/>
+    <mergeCell ref="BD98:BD101"/>
+    <mergeCell ref="AW99:AW102"/>
+    <mergeCell ref="BB102:BB113"/>
+    <mergeCell ref="BC102:BC149"/>
+    <mergeCell ref="BD102:BD105"/>
+    <mergeCell ref="AV103:AV114"/>
+    <mergeCell ref="AW103:AW106"/>
+    <mergeCell ref="AH37:AH39"/>
+    <mergeCell ref="AQ38:AQ41"/>
+    <mergeCell ref="BD38:BD41"/>
+    <mergeCell ref="AW39:AW42"/>
+    <mergeCell ref="AH40:AH42"/>
+    <mergeCell ref="AP42:AP53"/>
+    <mergeCell ref="AQ42:AQ45"/>
+    <mergeCell ref="BB42:BB53"/>
+    <mergeCell ref="BD42:BD45"/>
+    <mergeCell ref="AH43:AH45"/>
+    <mergeCell ref="AI43:AI54"/>
+    <mergeCell ref="AV43:AV54"/>
+    <mergeCell ref="AW43:AW46"/>
+    <mergeCell ref="AH46:AH48"/>
+    <mergeCell ref="AQ46:AQ49"/>
+    <mergeCell ref="BD46:BD49"/>
+    <mergeCell ref="AW47:AW50"/>
+    <mergeCell ref="AH49:AH51"/>
+    <mergeCell ref="AQ50:AQ53"/>
+    <mergeCell ref="BD50:BD53"/>
+    <mergeCell ref="AW51:AW54"/>
+    <mergeCell ref="AH52:AH54"/>
+    <mergeCell ref="AP54:AP65"/>
+    <mergeCell ref="AQ54:AQ57"/>
+    <mergeCell ref="AW23:AW26"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="AA25:AA27"/>
+    <mergeCell ref="AH25:AH27"/>
+    <mergeCell ref="AQ26:AQ29"/>
+    <mergeCell ref="BD26:BD29"/>
+    <mergeCell ref="AW27:AW30"/>
+    <mergeCell ref="AA28:AA30"/>
+    <mergeCell ref="AH28:AH30"/>
+    <mergeCell ref="AP30:AP41"/>
+    <mergeCell ref="AQ30:AQ33"/>
+    <mergeCell ref="BB30:BB41"/>
+    <mergeCell ref="BD30:BD33"/>
+    <mergeCell ref="AA31:AA33"/>
+    <mergeCell ref="AH31:AH33"/>
+    <mergeCell ref="AI31:AI42"/>
+    <mergeCell ref="AV31:AV42"/>
+    <mergeCell ref="AW31:AW34"/>
+    <mergeCell ref="AA34:AA36"/>
+    <mergeCell ref="AH34:AH36"/>
+    <mergeCell ref="AQ34:AQ37"/>
+    <mergeCell ref="BD34:BD37"/>
+    <mergeCell ref="AW35:AW38"/>
+    <mergeCell ref="AA37:AA39"/>
+    <mergeCell ref="E14:G17"/>
+    <mergeCell ref="AQ14:AQ17"/>
+    <mergeCell ref="BD14:BD17"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="AW15:AW18"/>
+    <mergeCell ref="T16:T18"/>
+    <mergeCell ref="AA16:AA18"/>
+    <mergeCell ref="AH16:AH18"/>
+    <mergeCell ref="AP18:AP29"/>
+    <mergeCell ref="AQ18:AQ21"/>
+    <mergeCell ref="BB18:BB29"/>
+    <mergeCell ref="BD18:BD21"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="T19:T21"/>
+    <mergeCell ref="AA19:AA21"/>
+    <mergeCell ref="AH19:AH21"/>
+    <mergeCell ref="AI19:AI30"/>
+    <mergeCell ref="AV19:AV30"/>
+    <mergeCell ref="AW19:AW22"/>
+    <mergeCell ref="T22:T24"/>
+    <mergeCell ref="AA22:AA24"/>
+    <mergeCell ref="AH22:AH24"/>
+    <mergeCell ref="AQ22:AQ25"/>
+    <mergeCell ref="BD22:BD25"/>
+    <mergeCell ref="AV7:AV18"/>
+    <mergeCell ref="AW7:AW10"/>
+    <mergeCell ref="T10:T12"/>
+    <mergeCell ref="AA10:AA12"/>
+    <mergeCell ref="AH10:AH12"/>
+    <mergeCell ref="AQ10:AQ13"/>
+    <mergeCell ref="BD10:BD13"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="AW11:AW14"/>
+    <mergeCell ref="T13:T15"/>
+    <mergeCell ref="AA13:AA15"/>
+    <mergeCell ref="AH13:AH15"/>
     <mergeCell ref="D4:J4"/>
     <mergeCell ref="L4:P4"/>
     <mergeCell ref="T4:X4"/>
@@ -7010,179 +7253,6 @@
     <mergeCell ref="AA7:AA9"/>
     <mergeCell ref="AH7:AH9"/>
     <mergeCell ref="AI7:AI18"/>
-    <mergeCell ref="AV7:AV18"/>
-    <mergeCell ref="AW7:AW10"/>
-    <mergeCell ref="T10:T12"/>
-    <mergeCell ref="AA10:AA12"/>
-    <mergeCell ref="AH10:AH12"/>
-    <mergeCell ref="AQ10:AQ13"/>
-    <mergeCell ref="BD10:BD13"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="AW11:AW14"/>
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="AA13:AA15"/>
-    <mergeCell ref="AH13:AH15"/>
-    <mergeCell ref="E14:G17"/>
-    <mergeCell ref="AQ14:AQ17"/>
-    <mergeCell ref="BD14:BD17"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="AW15:AW18"/>
-    <mergeCell ref="T16:T18"/>
-    <mergeCell ref="AA16:AA18"/>
-    <mergeCell ref="AH16:AH18"/>
-    <mergeCell ref="AP18:AP29"/>
-    <mergeCell ref="AQ18:AQ21"/>
-    <mergeCell ref="BB18:BB29"/>
-    <mergeCell ref="BD18:BD21"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="T19:T21"/>
-    <mergeCell ref="AA19:AA21"/>
-    <mergeCell ref="AH19:AH21"/>
-    <mergeCell ref="AI19:AI30"/>
-    <mergeCell ref="AV19:AV30"/>
-    <mergeCell ref="AW19:AW22"/>
-    <mergeCell ref="T22:T24"/>
-    <mergeCell ref="AA22:AA24"/>
-    <mergeCell ref="AH22:AH24"/>
-    <mergeCell ref="AQ22:AQ25"/>
-    <mergeCell ref="BD22:BD25"/>
-    <mergeCell ref="AW23:AW26"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="AA25:AA27"/>
-    <mergeCell ref="AH25:AH27"/>
-    <mergeCell ref="AQ26:AQ29"/>
-    <mergeCell ref="BD26:BD29"/>
-    <mergeCell ref="AW27:AW30"/>
-    <mergeCell ref="AA28:AA30"/>
-    <mergeCell ref="AH28:AH30"/>
-    <mergeCell ref="AP30:AP41"/>
-    <mergeCell ref="AQ30:AQ33"/>
-    <mergeCell ref="BB30:BB41"/>
-    <mergeCell ref="BD30:BD33"/>
-    <mergeCell ref="AA31:AA33"/>
-    <mergeCell ref="AH31:AH33"/>
-    <mergeCell ref="AI31:AI42"/>
-    <mergeCell ref="AV31:AV42"/>
-    <mergeCell ref="AW31:AW34"/>
-    <mergeCell ref="AA34:AA36"/>
-    <mergeCell ref="AH34:AH36"/>
-    <mergeCell ref="AQ34:AQ37"/>
-    <mergeCell ref="BD34:BD37"/>
-    <mergeCell ref="AW35:AW38"/>
-    <mergeCell ref="AA37:AA39"/>
-    <mergeCell ref="AH37:AH39"/>
-    <mergeCell ref="AQ38:AQ41"/>
-    <mergeCell ref="BD38:BD41"/>
-    <mergeCell ref="AW39:AW42"/>
-    <mergeCell ref="AH40:AH42"/>
-    <mergeCell ref="AP42:AP53"/>
-    <mergeCell ref="AQ42:AQ45"/>
-    <mergeCell ref="BB42:BB53"/>
-    <mergeCell ref="BD42:BD45"/>
-    <mergeCell ref="AH43:AH45"/>
-    <mergeCell ref="AI43:AI54"/>
-    <mergeCell ref="AV43:AV54"/>
-    <mergeCell ref="AW43:AW46"/>
-    <mergeCell ref="AH46:AH48"/>
-    <mergeCell ref="AQ46:AQ49"/>
-    <mergeCell ref="BD46:BD49"/>
-    <mergeCell ref="AW47:AW50"/>
-    <mergeCell ref="AH49:AH51"/>
-    <mergeCell ref="AQ50:AQ53"/>
-    <mergeCell ref="BD50:BD53"/>
-    <mergeCell ref="AW51:AW54"/>
-    <mergeCell ref="AH52:AH54"/>
-    <mergeCell ref="AP54:AP65"/>
-    <mergeCell ref="AQ54:AQ57"/>
-    <mergeCell ref="BB54:BB65"/>
-    <mergeCell ref="BC54:BC101"/>
-    <mergeCell ref="BD54:BD57"/>
-    <mergeCell ref="AV55:AV66"/>
-    <mergeCell ref="AW55:AW58"/>
-    <mergeCell ref="AQ58:AQ61"/>
-    <mergeCell ref="BD58:BD61"/>
-    <mergeCell ref="AW59:AW62"/>
-    <mergeCell ref="AQ62:AQ65"/>
-    <mergeCell ref="BD62:BD65"/>
-    <mergeCell ref="AW63:AW66"/>
-    <mergeCell ref="BB90:BB101"/>
-    <mergeCell ref="BD90:BD93"/>
-    <mergeCell ref="AV91:AV102"/>
-    <mergeCell ref="AW91:AW94"/>
-    <mergeCell ref="BD94:BD97"/>
-    <mergeCell ref="AW95:AW98"/>
-    <mergeCell ref="BD98:BD101"/>
-    <mergeCell ref="AW99:AW102"/>
-    <mergeCell ref="BB102:BB113"/>
-    <mergeCell ref="BC102:BC149"/>
-    <mergeCell ref="BD102:BD105"/>
-    <mergeCell ref="AV103:AV114"/>
-    <mergeCell ref="AW103:AW106"/>
-    <mergeCell ref="AP66:AP77"/>
-    <mergeCell ref="AQ66:AQ69"/>
-    <mergeCell ref="BB66:BB77"/>
-    <mergeCell ref="BD66:BD69"/>
-    <mergeCell ref="AV67:AV78"/>
-    <mergeCell ref="AW67:AW70"/>
-    <mergeCell ref="AQ70:AQ73"/>
-    <mergeCell ref="BD70:BD73"/>
-    <mergeCell ref="AW71:AW74"/>
-    <mergeCell ref="AQ74:AQ77"/>
-    <mergeCell ref="BD74:BD77"/>
-    <mergeCell ref="AW75:AW78"/>
-    <mergeCell ref="AP78:AP89"/>
-    <mergeCell ref="AQ78:AQ81"/>
-    <mergeCell ref="BB78:BB89"/>
-    <mergeCell ref="BD78:BD81"/>
-    <mergeCell ref="AV79:AV90"/>
-    <mergeCell ref="AW79:AW82"/>
-    <mergeCell ref="AQ82:AQ85"/>
-    <mergeCell ref="BD82:BD85"/>
-    <mergeCell ref="AW83:AW86"/>
-    <mergeCell ref="AQ86:AQ89"/>
-    <mergeCell ref="BD86:BD89"/>
-    <mergeCell ref="AW87:AW90"/>
-    <mergeCell ref="BD106:BD109"/>
-    <mergeCell ref="AW107:AW110"/>
-    <mergeCell ref="BD110:BD113"/>
-    <mergeCell ref="AW111:AW114"/>
-    <mergeCell ref="BB114:BB125"/>
-    <mergeCell ref="BD114:BD117"/>
-    <mergeCell ref="AV115:AV126"/>
-    <mergeCell ref="AW115:AW118"/>
-    <mergeCell ref="BD118:BD121"/>
-    <mergeCell ref="AW119:AW122"/>
-    <mergeCell ref="BD122:BD125"/>
-    <mergeCell ref="AW123:AW126"/>
-    <mergeCell ref="BB126:BB137"/>
-    <mergeCell ref="BD126:BD129"/>
-    <mergeCell ref="AV127:AV138"/>
-    <mergeCell ref="AW127:AW130"/>
-    <mergeCell ref="BD130:BD133"/>
-    <mergeCell ref="AW131:AW134"/>
-    <mergeCell ref="BD134:BD137"/>
-    <mergeCell ref="AW135:AW138"/>
-    <mergeCell ref="BB138:BB149"/>
-    <mergeCell ref="BD138:BD141"/>
-    <mergeCell ref="BD142:BD145"/>
-    <mergeCell ref="BD146:BD149"/>
-    <mergeCell ref="BB150:BB161"/>
-    <mergeCell ref="BC150:BC197"/>
-    <mergeCell ref="BD150:BD153"/>
-    <mergeCell ref="BD154:BD157"/>
-    <mergeCell ref="BD158:BD161"/>
-    <mergeCell ref="BB162:BB173"/>
-    <mergeCell ref="BD162:BD165"/>
-    <mergeCell ref="BD166:BD169"/>
-    <mergeCell ref="BD170:BD173"/>
-    <mergeCell ref="BB174:BB185"/>
-    <mergeCell ref="BD174:BD177"/>
-    <mergeCell ref="BD178:BD181"/>
-    <mergeCell ref="BD182:BD185"/>
-    <mergeCell ref="BB186:BB197"/>
-    <mergeCell ref="BD186:BD189"/>
-    <mergeCell ref="BD190:BD193"/>
-    <mergeCell ref="BD194:BD197"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/assign1/doc/data/all_data.xlsx
+++ b/assign1/doc/data/all_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oliveira\Desktop\g13\assign1\doc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC9C1E55-1A00-4114-BCCC-C08A161CB224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE331A8-5D1C-4762-8307-3DD3A887FB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -323,6 +323,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -330,21 +336,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -363,6 +354,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -385,7 +385,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -834,6 +834,8 @@
         <c:axId val="545324624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="72"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1027,7 +1029,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1396,6 +1398,8 @@
         <c:axId val="1389855792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="42000000000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1534,7 +1538,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1953,6 +1957,8 @@
         <c:axId val="1389882192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="220000000000.00003"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2091,7 +2097,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2574,6 +2580,7 @@
         <c:axId val="1178239520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="160000000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2712,7 +2719,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3240,6 +3247,8 @@
         <c:axId val="543335520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1260"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3433,7 +3442,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4056,6 +4065,8 @@
         <c:axId val="1351256112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1350"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4249,7 +4260,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4588,6 +4599,8 @@
         <c:axId val="1044412256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="51000000000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4726,7 +4739,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5145,6 +5158,8 @@
         <c:axId val="1351247472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="280000000000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5283,7 +5298,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5770,6 +5785,8 @@
         <c:axId val="1351250352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="175000000000.00003"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5908,7 +5925,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6287,6 +6304,8 @@
         <c:axId val="1178233280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="55000000000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6425,7 +6444,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6852,6 +6871,8 @@
         <c:axId val="1044407456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3300000000000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6990,7 +7011,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7477,6 +7498,8 @@
         <c:axId val="1389873072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3600000000000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -14325,13 +14348,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>286445</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>585669</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
@@ -14360,14 +14383,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>569179</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>269954</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
@@ -14541,15 +14564,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
+      <xdr:colOff>2671</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>2671</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
+      <xdr:colOff>307471</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:rowOff>78871</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14577,15 +14600,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>2672</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>165293</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
+      <xdr:colOff>307472</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:rowOff>55639</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14612,16 +14635,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>6803</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>186417</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>599212</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>292553</xdr:colOff>
+      <xdr:colOff>280938</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>72117</xdr:rowOff>
+      <xdr:rowOff>72118</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14648,16 +14671,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>20410</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>601204</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>183761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>306160</xdr:colOff>
+      <xdr:colOff>282929</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>74108</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14684,16 +14707,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>6803</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>599212</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>183763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>292553</xdr:colOff>
+      <xdr:colOff>280937</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>74110</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14721,12 +14744,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -15024,8 +15043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:BI197"/>
   <sheetViews>
-    <sheetView topLeftCell="E22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y38" sqref="Y38"/>
+    <sheetView topLeftCell="N31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15034,111 +15053,111 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:61" x14ac:dyDescent="0.25">
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="L4" s="14" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="L4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="T4" s="18" t="s">
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="T4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="AA4" s="18" t="s">
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="AA4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AH4" s="18" t="s">
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AH4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="18"/>
-      <c r="AK4" s="18"/>
-      <c r="AL4" s="18"/>
-      <c r="AM4" s="18"/>
-      <c r="AP4" s="18" t="s">
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AP4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AQ4" s="18"/>
-      <c r="AR4" s="18"/>
-      <c r="AS4" s="18"/>
-      <c r="AV4" s="21" t="s">
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="11"/>
+      <c r="AV4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="AW4" s="22"/>
-      <c r="AX4" s="22"/>
-      <c r="AY4" s="23"/>
-      <c r="BB4" s="18" t="s">
+      <c r="AW4" s="19"/>
+      <c r="AX4" s="19"/>
+      <c r="AY4" s="20"/>
+      <c r="BB4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="BC4" s="18"/>
-      <c r="BD4" s="18"/>
-      <c r="BE4" s="18"/>
-      <c r="BF4" s="18"/>
+      <c r="BC4" s="11"/>
+      <c r="BD4" s="11"/>
+      <c r="BE4" s="11"/>
+      <c r="BF4" s="11"/>
     </row>
     <row r="5" spans="4:61" x14ac:dyDescent="0.25">
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="L5" s="14" t="s">
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="L5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
       <c r="T5" s="4"/>
       <c r="U5" s="5"/>
-      <c r="V5" s="21" t="s">
+      <c r="V5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="W5" s="22"/>
-      <c r="X5" s="23"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="20"/>
       <c r="Y5" s="3"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="5"/>
-      <c r="AC5" s="21" t="s">
+      <c r="AC5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AD5" s="22"/>
-      <c r="AE5" s="23"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="20"/>
       <c r="AI5" s="4"/>
       <c r="AJ5" s="5"/>
-      <c r="AK5" s="21" t="s">
+      <c r="AK5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AL5" s="22"/>
-      <c r="AM5" s="23"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="20"/>
       <c r="AP5" s="6" t="s">
         <v>4</v>
       </c>
@@ -15180,7 +15199,7 @@
       </c>
     </row>
     <row r="6" spans="4:61" x14ac:dyDescent="0.25">
-      <c r="D6" s="14"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="8" t="s">
         <v>11</v>
       </c>
@@ -15199,8 +15218,8 @@
       <c r="J6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
       <c r="N6" s="8" t="s">
         <v>11</v>
       </c>
@@ -15260,10 +15279,10 @@
       <c r="AM6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AP6" s="18">
+      <c r="AP6" s="11">
         <v>600</v>
       </c>
-      <c r="AQ6" s="18">
+      <c r="AQ6" s="11">
         <v>1</v>
       </c>
       <c r="AR6" s="1" t="s">
@@ -15272,10 +15291,10 @@
       <c r="AS6" s="1">
         <v>243874779</v>
       </c>
-      <c r="AV6" s="11">
+      <c r="AV6" s="13">
         <v>600</v>
       </c>
-      <c r="AW6" s="11">
+      <c r="AW6" s="13">
         <v>1</v>
       </c>
       <c r="AX6" s="1" t="s">
@@ -15284,13 +15303,13 @@
       <c r="AY6" s="1">
         <v>27601231</v>
       </c>
-      <c r="BB6" s="18">
+      <c r="BB6" s="11">
         <v>128</v>
       </c>
-      <c r="BC6" s="18">
+      <c r="BC6" s="11">
         <v>4096</v>
       </c>
-      <c r="BD6" s="18">
+      <c r="BD6" s="11">
         <v>1</v>
       </c>
       <c r="BE6" s="1" t="s">
@@ -15328,7 +15347,7 @@
         <f>IFERROR(AVERAGE(AE7:AE9),0)</f>
         <v>0.19010243033333332</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="12">
         <v>4096</v>
       </c>
       <c r="M7" s="10">
@@ -15347,7 +15366,7 @@
         <v>69.053604156333336</v>
       </c>
       <c r="S7" s="7"/>
-      <c r="T7" s="18">
+      <c r="T7" s="11">
         <v>600</v>
       </c>
       <c r="U7" s="1">
@@ -15363,7 +15382,7 @@
         <v>0.26038251699999998</v>
       </c>
       <c r="Y7" s="3"/>
-      <c r="AA7" s="18">
+      <c r="AA7" s="11">
         <v>600</v>
       </c>
       <c r="AB7" s="1">
@@ -15378,10 +15397,10 @@
       <c r="AE7" s="1">
         <v>0.190523413</v>
       </c>
-      <c r="AH7" s="18">
+      <c r="AH7" s="11">
         <v>128</v>
       </c>
-      <c r="AI7" s="18">
+      <c r="AI7" s="11">
         <v>4096</v>
       </c>
       <c r="AJ7" s="6">
@@ -15396,25 +15415,25 @@
       <c r="AM7" s="6">
         <v>69.273222629000003</v>
       </c>
-      <c r="AP7" s="18"/>
-      <c r="AQ7" s="18"/>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="11"/>
       <c r="AR7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AS7" s="1">
         <v>435755472</v>
       </c>
-      <c r="AV7" s="12"/>
-      <c r="AW7" s="12"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
       <c r="AX7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AY7" s="1">
         <v>656221007</v>
       </c>
-      <c r="BB7" s="18"/>
-      <c r="BC7" s="18"/>
-      <c r="BD7" s="18"/>
+      <c r="BB7" s="11"/>
+      <c r="BC7" s="11"/>
+      <c r="BD7" s="11"/>
       <c r="BE7" s="1" t="s">
         <v>16</v>
       </c>
@@ -15450,7 +15469,7 @@
         <f>IFERROR(AVERAGE(AE10:AE12),0)</f>
         <v>0.87773268533333348</v>
       </c>
-      <c r="L8" s="14"/>
+      <c r="L8" s="12"/>
       <c r="M8" s="8">
         <v>256</v>
       </c>
@@ -15467,7 +15486,7 @@
         <v>65.897783769666674</v>
       </c>
       <c r="S8" s="7"/>
-      <c r="T8" s="18"/>
+      <c r="T8" s="11"/>
       <c r="U8" s="1">
         <v>2</v>
       </c>
@@ -15481,7 +15500,7 @@
         <v>0.22845807000000001</v>
       </c>
       <c r="Y8" s="3"/>
-      <c r="AA8" s="18"/>
+      <c r="AA8" s="11"/>
       <c r="AB8" s="1">
         <v>2</v>
       </c>
@@ -15494,8 +15513,8 @@
       <c r="AE8" s="1">
         <v>0.18739219700000001</v>
       </c>
-      <c r="AH8" s="18"/>
-      <c r="AI8" s="18"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
       <c r="AJ8" s="1">
         <v>2</v>
       </c>
@@ -15508,25 +15527,25 @@
       <c r="AM8" s="1">
         <v>67.158100266000005</v>
       </c>
-      <c r="AP8" s="18"/>
-      <c r="AQ8" s="18"/>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="11"/>
       <c r="AR8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AS8" s="1">
         <v>219774</v>
       </c>
-      <c r="AV8" s="12"/>
-      <c r="AW8" s="12"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
       <c r="AX8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AY8" s="1">
         <v>170063</v>
       </c>
-      <c r="BB8" s="18"/>
-      <c r="BC8" s="18"/>
-      <c r="BD8" s="18"/>
+      <c r="BB8" s="11"/>
+      <c r="BC8" s="11"/>
+      <c r="BD8" s="11"/>
       <c r="BE8" s="1" t="s">
         <v>17</v>
       </c>
@@ -15562,7 +15581,7 @@
         <f>IFERROR(AVERAGE(AE13:AE15),0)</f>
         <v>2.4294857580000002</v>
       </c>
-      <c r="L9" s="14"/>
+      <c r="L9" s="12"/>
       <c r="M9" s="8">
         <v>512</v>
       </c>
@@ -15579,7 +15598,7 @@
         <v>64.192990046666665</v>
       </c>
       <c r="S9" s="7"/>
-      <c r="T9" s="18"/>
+      <c r="T9" s="11"/>
       <c r="U9" s="1">
         <v>3</v>
       </c>
@@ -15593,7 +15612,7 @@
         <v>0.23284880099999999</v>
       </c>
       <c r="Y9" s="3"/>
-      <c r="AA9" s="18"/>
+      <c r="AA9" s="11"/>
       <c r="AB9" s="1">
         <v>3</v>
       </c>
@@ -15606,8 +15625,8 @@
       <c r="AE9" s="1">
         <v>0.19239168100000001</v>
       </c>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="18"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
       <c r="AJ9" s="1">
         <v>3</v>
       </c>
@@ -15620,25 +15639,25 @@
       <c r="AM9" s="1">
         <v>70.729489573999999</v>
       </c>
-      <c r="AP9" s="18"/>
-      <c r="AQ9" s="18"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="11"/>
       <c r="AR9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AS9" s="1">
         <v>243421406</v>
       </c>
-      <c r="AV9" s="12"/>
-      <c r="AW9" s="13"/>
+      <c r="AV9" s="14"/>
+      <c r="AW9" s="15"/>
       <c r="AX9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AY9" s="1">
         <v>27284450</v>
       </c>
-      <c r="BB9" s="18"/>
-      <c r="BC9" s="18"/>
-      <c r="BD9" s="18"/>
+      <c r="BB9" s="11"/>
+      <c r="BC9" s="11"/>
+      <c r="BD9" s="11"/>
       <c r="BE9" s="1" t="s">
         <v>18</v>
       </c>
@@ -15677,7 +15696,7 @@
         <f>IFERROR(AVERAGE(AE16:AE18),0)</f>
         <v>5.2236872860000005</v>
       </c>
-      <c r="L10" s="14"/>
+      <c r="L10" s="12"/>
       <c r="M10" s="8">
         <v>1024</v>
       </c>
@@ -15694,7 +15713,7 @@
         <v>66.071098268</v>
       </c>
       <c r="S10" s="7"/>
-      <c r="T10" s="18">
+      <c r="T10" s="11">
         <v>1000</v>
       </c>
       <c r="U10" s="1">
@@ -15710,7 +15729,7 @@
         <v>1.0285200830000001</v>
       </c>
       <c r="Y10" s="3"/>
-      <c r="AA10" s="18">
+      <c r="AA10" s="11">
         <v>1000</v>
       </c>
       <c r="AB10" s="1">
@@ -15725,10 +15744,10 @@
       <c r="AE10" s="1">
         <v>0.87906120399999998</v>
       </c>
-      <c r="AH10" s="18">
+      <c r="AH10" s="11">
         <v>256</v>
       </c>
-      <c r="AI10" s="18"/>
+      <c r="AI10" s="11"/>
       <c r="AJ10" s="1">
         <v>1</v>
       </c>
@@ -15741,8 +15760,8 @@
       <c r="AM10" s="1">
         <v>65.964860666000007</v>
       </c>
-      <c r="AP10" s="18"/>
-      <c r="AQ10" s="18">
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="11">
         <v>2</v>
       </c>
       <c r="AR10" s="1" t="s">
@@ -15751,8 +15770,8 @@
       <c r="AS10" s="1">
         <v>243776043</v>
       </c>
-      <c r="AV10" s="12"/>
-      <c r="AW10" s="11">
+      <c r="AV10" s="14"/>
+      <c r="AW10" s="13">
         <v>2</v>
       </c>
       <c r="AX10" s="1" t="s">
@@ -15761,9 +15780,9 @@
       <c r="AY10" s="1">
         <v>27636514</v>
       </c>
-      <c r="BB10" s="18"/>
-      <c r="BC10" s="18"/>
-      <c r="BD10" s="18">
+      <c r="BB10" s="11"/>
+      <c r="BC10" s="11"/>
+      <c r="BD10" s="11">
         <v>2</v>
       </c>
       <c r="BE10" s="1" t="s">
@@ -15801,7 +15820,7 @@
         <f>IFERROR(AVERAGE(AE19:AE21),0)</f>
         <v>9.5981915353333349</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="12">
         <v>6144</v>
       </c>
       <c r="M11" s="8">
@@ -15820,7 +15839,7 @@
         <v>234.13123066466665</v>
       </c>
       <c r="S11" s="7"/>
-      <c r="T11" s="18"/>
+      <c r="T11" s="11"/>
       <c r="U11" s="1">
         <v>2</v>
       </c>
@@ -15834,7 +15853,7 @@
         <v>1.02948427</v>
       </c>
       <c r="Y11" s="3"/>
-      <c r="AA11" s="18"/>
+      <c r="AA11" s="11"/>
       <c r="AB11" s="1">
         <v>2</v>
       </c>
@@ -15847,8 +15866,8 @@
       <c r="AE11" s="1">
         <v>0.86355934400000001</v>
       </c>
-      <c r="AH11" s="18"/>
-      <c r="AI11" s="18"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
       <c r="AJ11" s="1">
         <v>2</v>
       </c>
@@ -15861,25 +15880,25 @@
       <c r="AM11" s="1">
         <v>63.409231185000003</v>
       </c>
-      <c r="AP11" s="18"/>
-      <c r="AQ11" s="18"/>
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="11"/>
       <c r="AR11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AS11" s="1">
         <v>435758351</v>
       </c>
-      <c r="AV11" s="12"/>
-      <c r="AW11" s="12"/>
+      <c r="AV11" s="14"/>
+      <c r="AW11" s="14"/>
       <c r="AX11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AY11" s="1">
         <v>656122130</v>
       </c>
-      <c r="BB11" s="18"/>
-      <c r="BC11" s="18"/>
-      <c r="BD11" s="18"/>
+      <c r="BB11" s="11"/>
+      <c r="BC11" s="11"/>
+      <c r="BD11" s="11"/>
       <c r="BE11" s="1" t="s">
         <v>16</v>
       </c>
@@ -15915,7 +15934,7 @@
         <f>IFERROR(AVERAGE(AE22:AE24),0)</f>
         <v>15.960599088333334</v>
       </c>
-      <c r="L12" s="14"/>
+      <c r="L12" s="12"/>
       <c r="M12" s="8">
         <v>256</v>
       </c>
@@ -15932,7 +15951,7 @@
         <v>224.73482521999998</v>
       </c>
       <c r="S12" s="7"/>
-      <c r="T12" s="18"/>
+      <c r="T12" s="11"/>
       <c r="U12" s="1">
         <v>3</v>
       </c>
@@ -15946,7 +15965,7 @@
         <v>1.0996328479999999</v>
       </c>
       <c r="Y12" s="3"/>
-      <c r="AA12" s="18"/>
+      <c r="AA12" s="11"/>
       <c r="AB12" s="1">
         <v>3</v>
       </c>
@@ -15959,8 +15978,8 @@
       <c r="AE12" s="1">
         <v>0.89057750800000002</v>
       </c>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="18"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
       <c r="AJ12" s="1">
         <v>3</v>
       </c>
@@ -15973,25 +15992,25 @@
       <c r="AM12" s="1">
         <v>68.319259458000005</v>
       </c>
-      <c r="AP12" s="18"/>
-      <c r="AQ12" s="18"/>
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="11"/>
       <c r="AR12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AS12" s="1">
         <v>251177</v>
       </c>
-      <c r="AV12" s="12"/>
-      <c r="AW12" s="12"/>
+      <c r="AV12" s="14"/>
+      <c r="AW12" s="14"/>
       <c r="AX12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AY12" s="1">
         <v>195590</v>
       </c>
-      <c r="BB12" s="18"/>
-      <c r="BC12" s="18"/>
-      <c r="BD12" s="18"/>
+      <c r="BB12" s="11"/>
+      <c r="BC12" s="11"/>
+      <c r="BD12" s="11"/>
       <c r="BE12" s="1" t="s">
         <v>17</v>
       </c>
@@ -16027,7 +16046,7 @@
         <f>IFERROR(AVERAGE(AE25:AE27),0)</f>
         <v>24.694552925666667</v>
       </c>
-      <c r="L13" s="14"/>
+      <c r="L13" s="12"/>
       <c r="M13" s="8">
         <v>512</v>
       </c>
@@ -16044,7 +16063,7 @@
         <v>213.827258129</v>
       </c>
       <c r="S13" s="7"/>
-      <c r="T13" s="18">
+      <c r="T13" s="11">
         <v>1400</v>
       </c>
       <c r="U13" s="1">
@@ -16060,7 +16079,7 @@
         <v>3.7638601230000002</v>
       </c>
       <c r="Y13" s="3"/>
-      <c r="AA13" s="18">
+      <c r="AA13" s="11">
         <v>1400</v>
       </c>
       <c r="AB13" s="1">
@@ -16075,10 +16094,10 @@
       <c r="AE13" s="1">
         <v>2.4404577000000001</v>
       </c>
-      <c r="AH13" s="18">
+      <c r="AH13" s="11">
         <v>512</v>
       </c>
-      <c r="AI13" s="18"/>
+      <c r="AI13" s="11"/>
       <c r="AJ13" s="1">
         <v>1</v>
       </c>
@@ -16091,25 +16110,25 @@
       <c r="AM13" s="1">
         <v>64.588413705999997</v>
       </c>
-      <c r="AP13" s="18"/>
-      <c r="AQ13" s="18"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="11"/>
       <c r="AR13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AS13" s="1">
         <v>243248354</v>
       </c>
-      <c r="AV13" s="12"/>
-      <c r="AW13" s="13"/>
+      <c r="AV13" s="14"/>
+      <c r="AW13" s="15"/>
       <c r="AX13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AY13" s="1">
         <v>27288895</v>
       </c>
-      <c r="BB13" s="18"/>
-      <c r="BC13" s="18"/>
-      <c r="BD13" s="18"/>
+      <c r="BB13" s="11"/>
+      <c r="BC13" s="11"/>
+      <c r="BD13" s="11"/>
       <c r="BE13" s="1" t="s">
         <v>18</v>
       </c>
@@ -16121,9 +16140,9 @@
       <c r="D14" s="8">
         <v>4096</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
       <c r="H14" s="8">
         <f>IFERROR(AVERAGE(AC28:AC30),0)</f>
         <v>27.312985999999995</v>
@@ -16136,7 +16155,7 @@
         <f>IFERROR(AVERAGE(AE28:AE30),0)</f>
         <v>62.823148724333329</v>
       </c>
-      <c r="L14" s="14"/>
+      <c r="L14" s="12"/>
       <c r="M14" s="8">
         <v>1024</v>
       </c>
@@ -16153,7 +16172,7 @@
         <v>216.08889759866668</v>
       </c>
       <c r="S14" s="7"/>
-      <c r="T14" s="18"/>
+      <c r="T14" s="11"/>
       <c r="U14" s="1">
         <v>2</v>
       </c>
@@ -16167,7 +16186,7 @@
         <v>3.3589948220000001</v>
       </c>
       <c r="Y14" s="3"/>
-      <c r="AA14" s="18"/>
+      <c r="AA14" s="11"/>
       <c r="AB14" s="1">
         <v>2</v>
       </c>
@@ -16180,8 +16199,8 @@
       <c r="AE14" s="1">
         <v>2.3726847640000002</v>
       </c>
-      <c r="AH14" s="18"/>
-      <c r="AI14" s="18"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
       <c r="AJ14" s="1">
         <v>2</v>
       </c>
@@ -16194,8 +16213,8 @@
       <c r="AM14" s="1">
         <v>62.365385725000003</v>
       </c>
-      <c r="AP14" s="18"/>
-      <c r="AQ14" s="18">
+      <c r="AP14" s="11"/>
+      <c r="AQ14" s="11">
         <v>3</v>
       </c>
       <c r="AR14" s="1" t="s">
@@ -16204,8 +16223,8 @@
       <c r="AS14" s="1">
         <v>243772631</v>
       </c>
-      <c r="AV14" s="12"/>
-      <c r="AW14" s="11">
+      <c r="AV14" s="14"/>
+      <c r="AW14" s="13">
         <v>3</v>
       </c>
       <c r="AX14" s="1" t="s">
@@ -16214,9 +16233,9 @@
       <c r="AY14" s="1">
         <v>27649571</v>
       </c>
-      <c r="BB14" s="18"/>
-      <c r="BC14" s="18"/>
-      <c r="BD14" s="18">
+      <c r="BB14" s="11"/>
+      <c r="BC14" s="11"/>
+      <c r="BD14" s="11">
         <v>3</v>
       </c>
       <c r="BE14" s="1" t="s">
@@ -16230,9 +16249,9 @@
       <c r="D15" s="8">
         <v>6144</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
       <c r="H15" s="8">
         <f>IFERROR(AVERAGE(AC31:AC33),0)</f>
         <v>92.512834999999995</v>
@@ -16245,7 +16264,7 @@
         <f>IFERROR(AVERAGE(AE31:AE33),0)</f>
         <v>211.477066939</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="12">
         <v>8192</v>
       </c>
       <c r="M15" s="8">
@@ -16264,7 +16283,7 @@
         <v>577.72848397566668</v>
       </c>
       <c r="S15" s="7"/>
-      <c r="T15" s="18"/>
+      <c r="T15" s="11"/>
       <c r="U15" s="1">
         <v>3</v>
       </c>
@@ -16278,7 +16297,7 @@
         <v>3.9858859400000002</v>
       </c>
       <c r="Y15" s="3"/>
-      <c r="AA15" s="18"/>
+      <c r="AA15" s="11"/>
       <c r="AB15" s="1">
         <v>3</v>
       </c>
@@ -16291,8 +16310,8 @@
       <c r="AE15" s="1">
         <v>2.47531481</v>
       </c>
-      <c r="AH15" s="18"/>
-      <c r="AI15" s="18"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
       <c r="AJ15" s="1">
         <v>3</v>
       </c>
@@ -16305,25 +16324,25 @@
       <c r="AM15" s="1">
         <v>65.625170709000002</v>
       </c>
-      <c r="AP15" s="18"/>
-      <c r="AQ15" s="18"/>
+      <c r="AP15" s="11"/>
+      <c r="AQ15" s="11"/>
       <c r="AR15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AS15" s="1">
         <v>435848321</v>
       </c>
-      <c r="AV15" s="12"/>
-      <c r="AW15" s="12"/>
+      <c r="AV15" s="14"/>
+      <c r="AW15" s="14"/>
       <c r="AX15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AY15" s="1">
         <v>656228328</v>
       </c>
-      <c r="BB15" s="18"/>
-      <c r="BC15" s="18"/>
-      <c r="BD15" s="18"/>
+      <c r="BB15" s="11"/>
+      <c r="BC15" s="11"/>
+      <c r="BD15" s="11"/>
       <c r="BE15" s="1" t="s">
         <v>16</v>
       </c>
@@ -16335,9 +16354,9 @@
       <c r="D16" s="8">
         <v>8192</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="8">
         <f>IFERROR(AVERAGE(AC34:AC36),0)</f>
         <v>219.33655633333333</v>
@@ -16350,7 +16369,7 @@
         <f>IFERROR(AVERAGE(AE34:AE36),0)</f>
         <v>501.13991875766669</v>
       </c>
-      <c r="L16" s="14"/>
+      <c r="L16" s="12"/>
       <c r="M16" s="8">
         <v>256</v>
       </c>
@@ -16367,7 +16386,7 @@
         <v>553.56438935866663</v>
       </c>
       <c r="S16" s="7"/>
-      <c r="T16" s="18">
+      <c r="T16" s="11">
         <v>1800</v>
       </c>
       <c r="U16" s="1">
@@ -16383,7 +16402,7 @@
         <v>8.4808338069999998</v>
       </c>
       <c r="Y16" s="3"/>
-      <c r="AA16" s="18">
+      <c r="AA16" s="11">
         <v>1800</v>
       </c>
       <c r="AB16" s="1">
@@ -16398,10 +16417,10 @@
       <c r="AE16" s="1">
         <v>5.2376246369999997</v>
       </c>
-      <c r="AH16" s="18">
+      <c r="AH16" s="11">
         <v>1024</v>
       </c>
-      <c r="AI16" s="18"/>
+      <c r="AI16" s="11"/>
       <c r="AJ16" s="1">
         <v>1</v>
       </c>
@@ -16414,25 +16433,25 @@
       <c r="AM16" s="1">
         <v>70.464336220000007</v>
       </c>
-      <c r="AP16" s="18"/>
-      <c r="AQ16" s="18"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
       <c r="AR16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AS16" s="1">
         <v>274043</v>
       </c>
-      <c r="AV16" s="12"/>
-      <c r="AW16" s="12"/>
+      <c r="AV16" s="14"/>
+      <c r="AW16" s="14"/>
       <c r="AX16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AY16" s="1">
         <v>202548</v>
       </c>
-      <c r="BB16" s="18"/>
-      <c r="BC16" s="18"/>
-      <c r="BD16" s="18"/>
+      <c r="BB16" s="11"/>
+      <c r="BC16" s="11"/>
+      <c r="BD16" s="11"/>
       <c r="BE16" s="1" t="s">
         <v>17</v>
       </c>
@@ -16444,9 +16463,9 @@
       <c r="D17" s="8">
         <v>10240</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
       <c r="H17" s="8">
         <f>IFERROR(AVERAGE(AC37:AC39),0)</f>
         <v>429.05743899999999</v>
@@ -16459,7 +16478,7 @@
         <f>IFERROR(AVERAGE(AE37:AE39),0)</f>
         <v>985.43917648766671</v>
       </c>
-      <c r="L17" s="14"/>
+      <c r="L17" s="12"/>
       <c r="M17" s="8">
         <v>512</v>
       </c>
@@ -16476,7 +16495,7 @@
         <v>553.09252114599997</v>
       </c>
       <c r="S17" s="7"/>
-      <c r="T17" s="18"/>
+      <c r="T17" s="11"/>
       <c r="U17" s="1">
         <v>2</v>
       </c>
@@ -16490,7 +16509,7 @@
         <v>8.6289600909999997</v>
       </c>
       <c r="Y17" s="3"/>
-      <c r="AA17" s="18"/>
+      <c r="AA17" s="11"/>
       <c r="AB17" s="1">
         <v>2</v>
       </c>
@@ -16503,8 +16522,8 @@
       <c r="AE17" s="1">
         <v>5.1393447249999999</v>
       </c>
-      <c r="AH17" s="18"/>
-      <c r="AI17" s="18"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
       <c r="AJ17" s="1">
         <v>2</v>
       </c>
@@ -16517,25 +16536,25 @@
       <c r="AM17" s="1">
         <v>61.596256240999999</v>
       </c>
-      <c r="AP17" s="18"/>
-      <c r="AQ17" s="18"/>
+      <c r="AP17" s="11"/>
+      <c r="AQ17" s="11"/>
       <c r="AR17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AS17" s="1">
         <v>243350612</v>
       </c>
-      <c r="AV17" s="13"/>
-      <c r="AW17" s="13"/>
+      <c r="AV17" s="15"/>
+      <c r="AW17" s="15"/>
       <c r="AX17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AY17" s="1">
         <v>27292191</v>
       </c>
-      <c r="BB17" s="18"/>
-      <c r="BC17" s="18"/>
-      <c r="BD17" s="18"/>
+      <c r="BB17" s="11"/>
+      <c r="BC17" s="11"/>
+      <c r="BD17" s="11"/>
       <c r="BE17" s="1" t="s">
         <v>18</v>
       </c>
@@ -16544,7 +16563,7 @@
       </c>
     </row>
     <row r="18" spans="4:58" x14ac:dyDescent="0.25">
-      <c r="L18" s="14"/>
+      <c r="L18" s="12"/>
       <c r="M18" s="8">
         <v>1024</v>
       </c>
@@ -16561,7 +16580,7 @@
         <v>585.06425535866663</v>
       </c>
       <c r="S18" s="7"/>
-      <c r="T18" s="18"/>
+      <c r="T18" s="11"/>
       <c r="U18" s="1">
         <v>3</v>
       </c>
@@ -16575,7 +16594,7 @@
         <v>8.9730201510000001</v>
       </c>
       <c r="Y18" s="3"/>
-      <c r="AA18" s="18"/>
+      <c r="AA18" s="11"/>
       <c r="AB18" s="1">
         <v>3</v>
       </c>
@@ -16588,8 +16607,8 @@
       <c r="AE18" s="1">
         <v>5.2940924960000002</v>
       </c>
-      <c r="AH18" s="18"/>
-      <c r="AI18" s="18"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
       <c r="AJ18" s="1">
         <v>3</v>
       </c>
@@ -16602,10 +16621,10 @@
       <c r="AM18" s="1">
         <v>66.152702343000001</v>
       </c>
-      <c r="AP18" s="18">
+      <c r="AP18" s="11">
         <v>1000</v>
       </c>
-      <c r="AQ18" s="18">
+      <c r="AQ18" s="11">
         <v>1</v>
       </c>
       <c r="AR18" s="1" t="s">
@@ -16614,10 +16633,10 @@
       <c r="AS18" s="1">
         <v>1137638044</v>
       </c>
-      <c r="AV18" s="11">
+      <c r="AV18" s="13">
         <v>1000</v>
       </c>
-      <c r="AW18" s="11">
+      <c r="AW18" s="13">
         <v>1</v>
       </c>
       <c r="AX18" s="1" t="s">
@@ -16626,11 +16645,11 @@
       <c r="AY18" s="1">
         <v>128552164</v>
       </c>
-      <c r="BB18" s="18">
+      <c r="BB18" s="11">
         <v>256</v>
       </c>
-      <c r="BC18" s="18"/>
-      <c r="BD18" s="18">
+      <c r="BC18" s="11"/>
+      <c r="BD18" s="11">
         <v>1</v>
       </c>
       <c r="BE18" s="1" t="s">
@@ -16641,7 +16660,7 @@
       </c>
     </row>
     <row r="19" spans="4:58" x14ac:dyDescent="0.25">
-      <c r="L19" s="14">
+      <c r="L19" s="12">
         <v>10240</v>
       </c>
       <c r="M19" s="8">
@@ -16660,7 +16679,7 @@
         <v>1110.1250468363335</v>
       </c>
       <c r="S19" s="7"/>
-      <c r="T19" s="18">
+      <c r="T19" s="11">
         <v>2200</v>
       </c>
       <c r="U19" s="1">
@@ -16676,7 +16695,7 @@
         <v>15.839479915</v>
       </c>
       <c r="Y19" s="3"/>
-      <c r="AA19" s="18">
+      <c r="AA19" s="11">
         <v>2200</v>
       </c>
       <c r="AB19" s="1">
@@ -16691,10 +16710,10 @@
       <c r="AE19" s="1">
         <v>9.5822853430000006</v>
       </c>
-      <c r="AH19" s="18">
+      <c r="AH19" s="11">
         <v>128</v>
       </c>
-      <c r="AI19" s="18">
+      <c r="AI19" s="11">
         <v>6144</v>
       </c>
       <c r="AJ19" s="1">
@@ -16709,25 +16728,25 @@
       <c r="AM19" s="1">
         <v>231.08540984000001</v>
       </c>
-      <c r="AP19" s="18"/>
-      <c r="AQ19" s="18"/>
+      <c r="AP19" s="11"/>
+      <c r="AQ19" s="11"/>
       <c r="AR19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AS19" s="1">
         <v>2011103859</v>
       </c>
-      <c r="AV19" s="12"/>
-      <c r="AW19" s="12"/>
+      <c r="AV19" s="14"/>
+      <c r="AW19" s="14"/>
       <c r="AX19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AY19" s="1">
         <v>3024078820</v>
       </c>
-      <c r="BB19" s="18"/>
-      <c r="BC19" s="18"/>
-      <c r="BD19" s="18"/>
+      <c r="BB19" s="11"/>
+      <c r="BC19" s="11"/>
+      <c r="BD19" s="11"/>
       <c r="BE19" s="1" t="s">
         <v>16</v>
       </c>
@@ -16736,15 +16755,15 @@
       </c>
     </row>
     <row r="20" spans="4:58" x14ac:dyDescent="0.25">
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="20"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="8">
         <f>(SUM(E7:G13,H7:J17,N7:P22)*3)/60/60</f>
         <v>20.325420064055553</v>
       </c>
-      <c r="L20" s="14"/>
+      <c r="L20" s="12"/>
       <c r="M20" s="8">
         <v>256</v>
       </c>
@@ -16761,7 +16780,7 @@
         <v>1052.4000470636665</v>
       </c>
       <c r="S20" s="7"/>
-      <c r="T20" s="18"/>
+      <c r="T20" s="11"/>
       <c r="U20" s="1">
         <v>2</v>
       </c>
@@ -16775,7 +16794,7 @@
         <v>16.889169139</v>
       </c>
       <c r="Y20" s="3"/>
-      <c r="AA20" s="18"/>
+      <c r="AA20" s="11"/>
       <c r="AB20" s="1">
         <v>2</v>
       </c>
@@ -16788,8 +16807,8 @@
       <c r="AE20" s="1">
         <v>9.5010708309999998</v>
       </c>
-      <c r="AH20" s="18"/>
-      <c r="AI20" s="18"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
       <c r="AJ20" s="1">
         <v>2</v>
       </c>
@@ -16802,25 +16821,25 @@
       <c r="AM20" s="1">
         <v>223.78854451800001</v>
       </c>
-      <c r="AP20" s="18"/>
-      <c r="AQ20" s="18"/>
+      <c r="AP20" s="11"/>
+      <c r="AQ20" s="11"/>
       <c r="AR20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AS20" s="1">
         <v>1890794</v>
       </c>
-      <c r="AV20" s="12"/>
-      <c r="AW20" s="12"/>
+      <c r="AV20" s="14"/>
+      <c r="AW20" s="14"/>
       <c r="AX20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AY20" s="1">
         <v>768110</v>
       </c>
-      <c r="BB20" s="18"/>
-      <c r="BC20" s="18"/>
-      <c r="BD20" s="18"/>
+      <c r="BB20" s="11"/>
+      <c r="BC20" s="11"/>
+      <c r="BD20" s="11"/>
       <c r="BE20" s="1" t="s">
         <v>17</v>
       </c>
@@ -16829,7 +16848,7 @@
       </c>
     </row>
     <row r="21" spans="4:58" x14ac:dyDescent="0.25">
-      <c r="L21" s="14"/>
+      <c r="L21" s="12"/>
       <c r="M21" s="8">
         <v>512</v>
       </c>
@@ -16846,7 +16865,7 @@
         <v>1014.5752555986668</v>
       </c>
       <c r="S21" s="7"/>
-      <c r="T21" s="18"/>
+      <c r="T21" s="11"/>
       <c r="U21" s="1">
         <v>3</v>
       </c>
@@ -16860,7 +16879,7 @@
         <v>16.493277292999998</v>
       </c>
       <c r="Y21" s="3"/>
-      <c r="AA21" s="18"/>
+      <c r="AA21" s="11"/>
       <c r="AB21" s="1">
         <v>3</v>
       </c>
@@ -16873,8 +16892,8 @@
       <c r="AE21" s="1">
         <v>9.7112184320000008</v>
       </c>
-      <c r="AH21" s="18"/>
-      <c r="AI21" s="18"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
       <c r="AJ21" s="1">
         <v>3</v>
       </c>
@@ -16887,25 +16906,25 @@
       <c r="AM21" s="1">
         <v>247.519737636</v>
       </c>
-      <c r="AP21" s="18"/>
-      <c r="AQ21" s="18"/>
+      <c r="AP21" s="11"/>
+      <c r="AQ21" s="11"/>
       <c r="AR21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AS21" s="1">
         <v>1134179496</v>
       </c>
-      <c r="AV21" s="12"/>
-      <c r="AW21" s="13"/>
+      <c r="AV21" s="14"/>
+      <c r="AW21" s="15"/>
       <c r="AX21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AY21" s="1">
         <v>127354007</v>
       </c>
-      <c r="BB21" s="18"/>
-      <c r="BC21" s="18"/>
-      <c r="BD21" s="18"/>
+      <c r="BB21" s="11"/>
+      <c r="BC21" s="11"/>
+      <c r="BD21" s="11"/>
       <c r="BE21" s="1" t="s">
         <v>18</v>
       </c>
@@ -16914,7 +16933,7 @@
       </c>
     </row>
     <row r="22" spans="4:58" x14ac:dyDescent="0.25">
-      <c r="L22" s="14"/>
+      <c r="L22" s="12"/>
       <c r="M22" s="8">
         <v>1024</v>
       </c>
@@ -16931,7 +16950,7 @@
         <v>1014.4031737816667</v>
       </c>
       <c r="S22" s="7"/>
-      <c r="T22" s="18">
+      <c r="T22" s="11">
         <v>2600</v>
       </c>
       <c r="U22" s="1">
@@ -16947,7 +16966,7 @@
         <v>26.591218639000001</v>
       </c>
       <c r="Y22" s="3"/>
-      <c r="AA22" s="18">
+      <c r="AA22" s="11">
         <v>2600</v>
       </c>
       <c r="AB22" s="1">
@@ -16962,10 +16981,10 @@
       <c r="AE22" s="1">
         <v>16.013072653999998</v>
       </c>
-      <c r="AH22" s="18">
+      <c r="AH22" s="11">
         <v>256</v>
       </c>
-      <c r="AI22" s="18"/>
+      <c r="AI22" s="11"/>
       <c r="AJ22" s="1">
         <v>1</v>
       </c>
@@ -16978,8 +16997,8 @@
       <c r="AM22" s="1">
         <v>219.63591324000001</v>
       </c>
-      <c r="AP22" s="18"/>
-      <c r="AQ22" s="18">
+      <c r="AP22" s="11"/>
+      <c r="AQ22" s="11">
         <v>2</v>
       </c>
       <c r="AR22" s="1" t="s">
@@ -16988,8 +17007,8 @@
       <c r="AS22" s="1">
         <v>1137654487</v>
       </c>
-      <c r="AV22" s="12"/>
-      <c r="AW22" s="11">
+      <c r="AV22" s="14"/>
+      <c r="AW22" s="13">
         <v>2</v>
       </c>
       <c r="AX22" s="1" t="s">
@@ -16998,9 +17017,9 @@
       <c r="AY22" s="1">
         <v>128547947</v>
       </c>
-      <c r="BB22" s="18"/>
-      <c r="BC22" s="18"/>
-      <c r="BD22" s="18">
+      <c r="BB22" s="11"/>
+      <c r="BC22" s="11"/>
+      <c r="BD22" s="11">
         <v>2</v>
       </c>
       <c r="BE22" s="1" t="s">
@@ -17012,7 +17031,7 @@
     </row>
     <row r="23" spans="4:58" x14ac:dyDescent="0.25">
       <c r="S23" s="7"/>
-      <c r="T23" s="18"/>
+      <c r="T23" s="11"/>
       <c r="U23" s="1">
         <v>2</v>
       </c>
@@ -17026,7 +17045,7 @@
         <v>27.784564401000001</v>
       </c>
       <c r="Y23" s="3"/>
-      <c r="AA23" s="18"/>
+      <c r="AA23" s="11"/>
       <c r="AB23" s="1">
         <v>2</v>
       </c>
@@ -17039,8 +17058,8 @@
       <c r="AE23" s="1">
         <v>15.7220935</v>
       </c>
-      <c r="AH23" s="18"/>
-      <c r="AI23" s="18"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
       <c r="AJ23" s="1">
         <v>2</v>
       </c>
@@ -17053,25 +17072,25 @@
       <c r="AM23" s="1">
         <v>218.05217430799999</v>
       </c>
-      <c r="AP23" s="18"/>
-      <c r="AQ23" s="18"/>
+      <c r="AP23" s="11"/>
+      <c r="AQ23" s="11"/>
       <c r="AR23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AS23" s="1">
         <v>2010798999</v>
       </c>
-      <c r="AV23" s="12"/>
-      <c r="AW23" s="12"/>
+      <c r="AV23" s="14"/>
+      <c r="AW23" s="14"/>
       <c r="AX23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AY23" s="1">
         <v>3024094883</v>
       </c>
-      <c r="BB23" s="18"/>
-      <c r="BC23" s="18"/>
-      <c r="BD23" s="18"/>
+      <c r="BB23" s="11"/>
+      <c r="BC23" s="11"/>
+      <c r="BD23" s="11"/>
       <c r="BE23" s="1" t="s">
         <v>16</v>
       </c>
@@ -17081,7 +17100,7 @@
     </row>
     <row r="24" spans="4:58" x14ac:dyDescent="0.25">
       <c r="S24" s="7"/>
-      <c r="T24" s="18"/>
+      <c r="T24" s="11"/>
       <c r="U24" s="1">
         <v>3</v>
       </c>
@@ -17095,7 +17114,7 @@
         <v>28.642890592000001</v>
       </c>
       <c r="Y24" s="3"/>
-      <c r="AA24" s="18"/>
+      <c r="AA24" s="11"/>
       <c r="AB24" s="1">
         <v>3</v>
       </c>
@@ -17108,8 +17127,8 @@
       <c r="AE24" s="1">
         <v>16.146631111000001</v>
       </c>
-      <c r="AH24" s="18"/>
-      <c r="AI24" s="18"/>
+      <c r="AH24" s="11"/>
+      <c r="AI24" s="11"/>
       <c r="AJ24" s="1">
         <v>3</v>
       </c>
@@ -17122,25 +17141,25 @@
       <c r="AM24" s="1">
         <v>236.51638811199999</v>
       </c>
-      <c r="AP24" s="18"/>
-      <c r="AQ24" s="18"/>
+      <c r="AP24" s="11"/>
+      <c r="AQ24" s="11"/>
       <c r="AR24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AS24" s="1">
         <v>1946438</v>
       </c>
-      <c r="AV24" s="12"/>
-      <c r="AW24" s="12"/>
+      <c r="AV24" s="14"/>
+      <c r="AW24" s="14"/>
       <c r="AX24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AY24" s="1">
         <v>863808</v>
       </c>
-      <c r="BB24" s="18"/>
-      <c r="BC24" s="18"/>
-      <c r="BD24" s="18"/>
+      <c r="BB24" s="11"/>
+      <c r="BC24" s="11"/>
+      <c r="BD24" s="11"/>
       <c r="BE24" s="1" t="s">
         <v>17</v>
       </c>
@@ -17150,7 +17169,7 @@
     </row>
     <row r="25" spans="4:58" x14ac:dyDescent="0.25">
       <c r="S25" s="7"/>
-      <c r="T25" s="18">
+      <c r="T25" s="11">
         <v>3000</v>
       </c>
       <c r="U25" s="1">
@@ -17166,7 +17185,7 @@
         <v>45.532502895</v>
       </c>
       <c r="Y25" s="3"/>
-      <c r="AA25" s="18">
+      <c r="AA25" s="11">
         <v>3000</v>
       </c>
       <c r="AB25" s="1">
@@ -17181,10 +17200,10 @@
       <c r="AE25" s="1">
         <v>24.651739772999999</v>
       </c>
-      <c r="AH25" s="18">
+      <c r="AH25" s="11">
         <v>512</v>
       </c>
-      <c r="AI25" s="18"/>
+      <c r="AI25" s="11"/>
       <c r="AJ25" s="1">
         <v>1</v>
       </c>
@@ -17197,25 +17216,25 @@
       <c r="AM25" s="1">
         <v>211.973380488</v>
       </c>
-      <c r="AP25" s="18"/>
-      <c r="AQ25" s="18"/>
+      <c r="AP25" s="11"/>
+      <c r="AQ25" s="11"/>
       <c r="AR25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AS25" s="1">
         <v>1134333647</v>
       </c>
-      <c r="AV25" s="12"/>
-      <c r="AW25" s="13"/>
+      <c r="AV25" s="14"/>
+      <c r="AW25" s="15"/>
       <c r="AX25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AY25" s="1">
         <v>126881701</v>
       </c>
-      <c r="BB25" s="18"/>
-      <c r="BC25" s="18"/>
-      <c r="BD25" s="18"/>
+      <c r="BB25" s="11"/>
+      <c r="BC25" s="11"/>
+      <c r="BD25" s="11"/>
       <c r="BE25" s="1" t="s">
         <v>18</v>
       </c>
@@ -17225,7 +17244,7 @@
     </row>
     <row r="26" spans="4:58" x14ac:dyDescent="0.25">
       <c r="S26" s="7"/>
-      <c r="T26" s="18"/>
+      <c r="T26" s="11"/>
       <c r="U26" s="1">
         <v>2</v>
       </c>
@@ -17239,7 +17258,7 @@
         <v>42.962997197</v>
       </c>
       <c r="Y26" s="3"/>
-      <c r="AA26" s="18"/>
+      <c r="AA26" s="11"/>
       <c r="AB26" s="1">
         <v>2</v>
       </c>
@@ -17252,8 +17271,8 @@
       <c r="AE26" s="1">
         <v>24.224232084</v>
       </c>
-      <c r="AH26" s="18"/>
-      <c r="AI26" s="18"/>
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="11"/>
       <c r="AJ26" s="1">
         <v>2</v>
       </c>
@@ -17266,8 +17285,8 @@
       <c r="AM26" s="1">
         <v>214.19068273400001</v>
       </c>
-      <c r="AP26" s="18"/>
-      <c r="AQ26" s="18">
+      <c r="AP26" s="11"/>
+      <c r="AQ26" s="11">
         <v>3</v>
       </c>
       <c r="AR26" s="1" t="s">
@@ -17276,8 +17295,8 @@
       <c r="AS26" s="1">
         <v>1137665291</v>
       </c>
-      <c r="AV26" s="12"/>
-      <c r="AW26" s="11">
+      <c r="AV26" s="14"/>
+      <c r="AW26" s="13">
         <v>3</v>
       </c>
       <c r="AX26" s="1" t="s">
@@ -17286,9 +17305,9 @@
       <c r="AY26" s="1">
         <v>128547483</v>
       </c>
-      <c r="BB26" s="18"/>
-      <c r="BC26" s="18"/>
-      <c r="BD26" s="18">
+      <c r="BB26" s="11"/>
+      <c r="BC26" s="11"/>
+      <c r="BD26" s="11">
         <v>3</v>
       </c>
       <c r="BE26" s="1" t="s">
@@ -17299,7 +17318,7 @@
       </c>
     </row>
     <row r="27" spans="4:58" x14ac:dyDescent="0.25">
-      <c r="T27" s="18"/>
+      <c r="T27" s="11"/>
       <c r="U27" s="1">
         <v>3</v>
       </c>
@@ -17312,7 +17331,7 @@
       <c r="X27" s="1">
         <v>45.532808236000001</v>
       </c>
-      <c r="AA27" s="18"/>
+      <c r="AA27" s="11"/>
       <c r="AB27" s="1">
         <v>3</v>
       </c>
@@ -17325,8 +17344,8 @@
       <c r="AE27" s="1">
         <v>25.20768692</v>
       </c>
-      <c r="AH27" s="18"/>
-      <c r="AI27" s="18"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
       <c r="AJ27" s="1">
         <v>3</v>
       </c>
@@ -17339,25 +17358,25 @@
       <c r="AM27" s="1">
         <v>215.31771116499999</v>
       </c>
-      <c r="AP27" s="18"/>
-      <c r="AQ27" s="18"/>
+      <c r="AP27" s="11"/>
+      <c r="AQ27" s="11"/>
       <c r="AR27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AS27" s="1">
         <v>2010929766</v>
       </c>
-      <c r="AV27" s="12"/>
-      <c r="AW27" s="12"/>
+      <c r="AV27" s="14"/>
+      <c r="AW27" s="14"/>
       <c r="AX27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AY27" s="1">
         <v>3023746577</v>
       </c>
-      <c r="BB27" s="18"/>
-      <c r="BC27" s="18"/>
-      <c r="BD27" s="18"/>
+      <c r="BB27" s="11"/>
+      <c r="BC27" s="11"/>
+      <c r="BD27" s="11"/>
       <c r="BE27" s="1" t="s">
         <v>16</v>
       </c>
@@ -17366,7 +17385,7 @@
       </c>
     </row>
     <row r="28" spans="4:58" x14ac:dyDescent="0.25">
-      <c r="AA28" s="18">
+      <c r="AA28" s="11">
         <v>4096</v>
       </c>
       <c r="AB28" s="1">
@@ -17381,10 +17400,10 @@
       <c r="AE28" s="1">
         <v>62.669789236</v>
       </c>
-      <c r="AH28" s="18">
+      <c r="AH28" s="11">
         <v>1024</v>
       </c>
-      <c r="AI28" s="18"/>
+      <c r="AI28" s="11"/>
       <c r="AJ28" s="1">
         <v>1</v>
       </c>
@@ -17397,25 +17416,25 @@
       <c r="AM28" s="1">
         <v>212.43748687300001</v>
       </c>
-      <c r="AP28" s="18"/>
-      <c r="AQ28" s="18"/>
+      <c r="AP28" s="11"/>
+      <c r="AQ28" s="11"/>
       <c r="AR28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AS28" s="1">
         <v>1665922</v>
       </c>
-      <c r="AV28" s="12"/>
-      <c r="AW28" s="12"/>
+      <c r="AV28" s="14"/>
+      <c r="AW28" s="14"/>
       <c r="AX28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AY28" s="1">
         <v>820747</v>
       </c>
-      <c r="BB28" s="18"/>
-      <c r="BC28" s="18"/>
-      <c r="BD28" s="18"/>
+      <c r="BB28" s="11"/>
+      <c r="BC28" s="11"/>
+      <c r="BD28" s="11"/>
       <c r="BE28" s="1" t="s">
         <v>17</v>
       </c>
@@ -17424,7 +17443,7 @@
       </c>
     </row>
     <row r="29" spans="4:58" x14ac:dyDescent="0.25">
-      <c r="AA29" s="18"/>
+      <c r="AA29" s="11"/>
       <c r="AB29" s="1">
         <v>2</v>
       </c>
@@ -17437,8 +17456,8 @@
       <c r="AE29" s="1">
         <v>61.668461944000001</v>
       </c>
-      <c r="AH29" s="18"/>
-      <c r="AI29" s="18"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
       <c r="AJ29" s="1">
         <v>2</v>
       </c>
@@ -17451,25 +17470,25 @@
       <c r="AM29" s="1">
         <v>212.90169801600001</v>
       </c>
-      <c r="AP29" s="18"/>
-      <c r="AQ29" s="18"/>
+      <c r="AP29" s="11"/>
+      <c r="AQ29" s="11"/>
       <c r="AR29" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AS29" s="1">
         <v>1135353500</v>
       </c>
-      <c r="AV29" s="13"/>
-      <c r="AW29" s="13"/>
+      <c r="AV29" s="15"/>
+      <c r="AW29" s="15"/>
       <c r="AX29" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AY29" s="1">
         <v>126953527</v>
       </c>
-      <c r="BB29" s="18"/>
-      <c r="BC29" s="18"/>
-      <c r="BD29" s="18"/>
+      <c r="BB29" s="11"/>
+      <c r="BC29" s="11"/>
+      <c r="BD29" s="11"/>
       <c r="BE29" s="1" t="s">
         <v>18</v>
       </c>
@@ -17478,7 +17497,7 @@
       </c>
     </row>
     <row r="30" spans="4:58" x14ac:dyDescent="0.25">
-      <c r="AA30" s="18"/>
+      <c r="AA30" s="11"/>
       <c r="AB30" s="1">
         <v>3</v>
       </c>
@@ -17491,8 +17510,8 @@
       <c r="AE30" s="1">
         <v>64.131194992999994</v>
       </c>
-      <c r="AH30" s="18"/>
-      <c r="AI30" s="18"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
       <c r="AJ30" s="1">
         <v>3</v>
       </c>
@@ -17505,10 +17524,10 @@
       <c r="AM30" s="1">
         <v>222.92750790700001</v>
       </c>
-      <c r="AP30" s="18">
+      <c r="AP30" s="11">
         <v>1400</v>
       </c>
-      <c r="AQ30" s="18">
+      <c r="AQ30" s="11">
         <v>1</v>
       </c>
       <c r="AR30" s="1" t="s">
@@ -17517,10 +17536,10 @@
       <c r="AS30" s="1">
         <v>3124728784</v>
       </c>
-      <c r="AV30" s="11">
+      <c r="AV30" s="13">
         <v>1400</v>
       </c>
-      <c r="AW30" s="11">
+      <c r="AW30" s="13">
         <v>1</v>
       </c>
       <c r="AX30" s="1" t="s">
@@ -17529,11 +17548,11 @@
       <c r="AY30" s="1">
         <v>362373193</v>
       </c>
-      <c r="BB30" s="18">
+      <c r="BB30" s="11">
         <v>512</v>
       </c>
-      <c r="BC30" s="18"/>
-      <c r="BD30" s="18">
+      <c r="BC30" s="11"/>
+      <c r="BD30" s="11">
         <v>1</v>
       </c>
       <c r="BE30" s="1" t="s">
@@ -17544,25 +17563,25 @@
       </c>
     </row>
     <row r="31" spans="4:58" x14ac:dyDescent="0.25">
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="L31" s="14" t="s">
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="L31" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="T31" s="14" t="s">
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="T31" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="AA31" s="18">
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="AA31" s="11">
         <v>6144</v>
       </c>
       <c r="AB31" s="1">
@@ -17577,10 +17596,10 @@
       <c r="AE31" s="1">
         <v>212.504139675</v>
       </c>
-      <c r="AH31" s="18">
+      <c r="AH31" s="11">
         <v>128</v>
       </c>
-      <c r="AI31" s="18">
+      <c r="AI31" s="11">
         <v>8192</v>
       </c>
       <c r="AJ31" s="1">
@@ -17595,25 +17614,25 @@
       <c r="AM31" s="1">
         <v>570.0537716</v>
       </c>
-      <c r="AP31" s="18"/>
-      <c r="AQ31" s="18"/>
+      <c r="AP31" s="11"/>
+      <c r="AQ31" s="11"/>
       <c r="AR31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AS31" s="1">
         <v>5510212386</v>
       </c>
-      <c r="AV31" s="12"/>
-      <c r="AW31" s="12"/>
+      <c r="AV31" s="14"/>
+      <c r="AW31" s="14"/>
       <c r="AX31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AY31" s="1">
         <v>8283371965</v>
       </c>
-      <c r="BB31" s="18"/>
-      <c r="BC31" s="18"/>
-      <c r="BD31" s="18"/>
+      <c r="BB31" s="11"/>
+      <c r="BC31" s="11"/>
+      <c r="BD31" s="11"/>
       <c r="BE31" s="1" t="s">
         <v>16</v>
       </c>
@@ -17668,7 +17687,7 @@
       <c r="W32" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AA32" s="18"/>
+      <c r="AA32" s="11"/>
       <c r="AB32" s="1">
         <v>2</v>
       </c>
@@ -17681,8 +17700,8 @@
       <c r="AE32" s="1">
         <v>207.63882995700001</v>
       </c>
-      <c r="AH32" s="18"/>
-      <c r="AI32" s="18"/>
+      <c r="AH32" s="11"/>
+      <c r="AI32" s="11"/>
       <c r="AJ32" s="1">
         <v>2</v>
       </c>
@@ -17695,25 +17714,25 @@
       <c r="AM32" s="1">
         <v>581.00620463600001</v>
       </c>
-      <c r="AP32" s="18"/>
-      <c r="AQ32" s="18"/>
+      <c r="AP32" s="11"/>
+      <c r="AQ32" s="11"/>
       <c r="AR32" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AS32" s="1">
         <v>89920640</v>
       </c>
-      <c r="AV32" s="12"/>
-      <c r="AW32" s="12"/>
+      <c r="AV32" s="14"/>
+      <c r="AW32" s="14"/>
       <c r="AX32" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AY32" s="1">
         <v>2316724</v>
       </c>
-      <c r="BB32" s="18"/>
-      <c r="BC32" s="18"/>
-      <c r="BD32" s="18"/>
+      <c r="BB32" s="11"/>
+      <c r="BC32" s="11"/>
+      <c r="BD32" s="11"/>
       <c r="BE32" s="1" t="s">
         <v>17</v>
       </c>
@@ -17763,7 +17782,7 @@
       <c r="R33" s="8">
         <v>128</v>
       </c>
-      <c r="S33" s="15">
+      <c r="S33" s="22">
         <v>4096</v>
       </c>
       <c r="T33" s="8">
@@ -17782,7 +17801,7 @@
         <f>IFERROR(AVERAGE(BF9,BF13,BF17),0)</f>
         <v>10148904821.333334</v>
       </c>
-      <c r="AA33" s="18"/>
+      <c r="AA33" s="11"/>
       <c r="AB33" s="1">
         <v>3</v>
       </c>
@@ -17795,8 +17814,8 @@
       <c r="AE33" s="1">
         <v>214.288231185</v>
       </c>
-      <c r="AH33" s="18"/>
-      <c r="AI33" s="18"/>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="11"/>
       <c r="AJ33" s="1">
         <v>3</v>
       </c>
@@ -17809,25 +17828,25 @@
       <c r="AM33" s="1">
         <v>582.12547569100002</v>
       </c>
-      <c r="AP33" s="18"/>
-      <c r="AQ33" s="18"/>
+      <c r="AP33" s="11"/>
+      <c r="AQ33" s="11"/>
       <c r="AR33" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AS33" s="1">
         <v>2874160785</v>
       </c>
-      <c r="AV33" s="12"/>
-      <c r="AW33" s="13"/>
+      <c r="AV33" s="14"/>
+      <c r="AW33" s="15"/>
       <c r="AX33" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AY33" s="1">
         <v>341430883</v>
       </c>
-      <c r="BB33" s="18"/>
-      <c r="BC33" s="18"/>
-      <c r="BD33" s="18"/>
+      <c r="BB33" s="11"/>
+      <c r="BC33" s="11"/>
+      <c r="BD33" s="11"/>
       <c r="BE33" s="1" t="s">
         <v>18</v>
       </c>
@@ -17877,7 +17896,7 @@
       <c r="R34" s="8">
         <v>256</v>
       </c>
-      <c r="S34" s="16"/>
+      <c r="S34" s="23"/>
       <c r="T34" s="8">
         <f>IFERROR(AVERAGE(BF18,BF22,BF26),0)</f>
         <v>9411822843</v>
@@ -17894,7 +17913,7 @@
         <f>IFERROR(AVERAGE(BF21,BF25,BF29),0)</f>
         <v>7753552209.333333</v>
       </c>
-      <c r="AA34" s="18">
+      <c r="AA34" s="11">
         <v>8192</v>
       </c>
       <c r="AB34" s="1">
@@ -17909,10 +17928,10 @@
       <c r="AE34" s="1">
         <v>502.90325716699999</v>
       </c>
-      <c r="AH34" s="18">
+      <c r="AH34" s="11">
         <v>256</v>
       </c>
-      <c r="AI34" s="18"/>
+      <c r="AI34" s="11"/>
       <c r="AJ34" s="1">
         <v>1</v>
       </c>
@@ -17925,8 +17944,8 @@
       <c r="AM34" s="1">
         <v>544.72194446900005</v>
       </c>
-      <c r="AP34" s="18"/>
-      <c r="AQ34" s="18">
+      <c r="AP34" s="11"/>
+      <c r="AQ34" s="11">
         <v>2</v>
       </c>
       <c r="AR34" s="1" t="s">
@@ -17935,8 +17954,8 @@
       <c r="AS34" s="1">
         <v>3123886987</v>
       </c>
-      <c r="AV34" s="12"/>
-      <c r="AW34" s="11">
+      <c r="AV34" s="14"/>
+      <c r="AW34" s="13">
         <v>2</v>
       </c>
       <c r="AX34" s="1" t="s">
@@ -17945,9 +17964,9 @@
       <c r="AY34" s="1">
         <v>362975677</v>
       </c>
-      <c r="BB34" s="18"/>
-      <c r="BC34" s="18"/>
-      <c r="BD34" s="18">
+      <c r="BB34" s="11"/>
+      <c r="BC34" s="11"/>
+      <c r="BD34" s="11">
         <v>2</v>
       </c>
       <c r="BE34" s="1" t="s">
@@ -17999,7 +18018,7 @@
       <c r="R35" s="8">
         <v>512</v>
       </c>
-      <c r="S35" s="16"/>
+      <c r="S35" s="23"/>
       <c r="T35" s="8">
         <f>IFERROR(AVERAGE(BF30,BF34,BF38),0)</f>
         <v>9270097478.333334</v>
@@ -18016,7 +18035,7 @@
         <f>IFERROR(AVERAGE(BF33,BF37,BF41),0)</f>
         <v>7010032236.666667</v>
       </c>
-      <c r="AA35" s="18"/>
+      <c r="AA35" s="11"/>
       <c r="AB35" s="1">
         <v>2</v>
       </c>
@@ -18029,8 +18048,8 @@
       <c r="AE35" s="1">
         <v>494.87656607700001</v>
       </c>
-      <c r="AH35" s="18"/>
-      <c r="AI35" s="18"/>
+      <c r="AH35" s="11"/>
+      <c r="AI35" s="11"/>
       <c r="AJ35" s="1">
         <v>2</v>
       </c>
@@ -18043,25 +18062,25 @@
       <c r="AM35" s="1">
         <v>552.902050755</v>
       </c>
-      <c r="AP35" s="18"/>
-      <c r="AQ35" s="18"/>
+      <c r="AP35" s="11"/>
+      <c r="AQ35" s="11"/>
       <c r="AR35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AS35" s="1">
         <v>5509910089</v>
       </c>
-      <c r="AV35" s="12"/>
-      <c r="AW35" s="12"/>
+      <c r="AV35" s="14"/>
+      <c r="AW35" s="14"/>
       <c r="AX35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AY35" s="1">
         <v>8284317178</v>
       </c>
-      <c r="BB35" s="18"/>
-      <c r="BC35" s="18"/>
-      <c r="BD35" s="18"/>
+      <c r="BB35" s="11"/>
+      <c r="BC35" s="11"/>
+      <c r="BD35" s="11"/>
       <c r="BE35" s="1" t="s">
         <v>16</v>
       </c>
@@ -18111,7 +18130,7 @@
       <c r="R36" s="8">
         <v>1024</v>
       </c>
-      <c r="S36" s="17"/>
+      <c r="S36" s="24"/>
       <c r="T36" s="8">
         <f>IFERROR(AVERAGE(BF42,BF46,BF50),0)</f>
         <v>9355781764.666666</v>
@@ -18128,7 +18147,7 @@
         <f>IFERROR(AVERAGE(BF45,BF49,BF53),0)</f>
         <v>7801747947</v>
       </c>
-      <c r="AA36" s="18"/>
+      <c r="AA36" s="11"/>
       <c r="AB36" s="1">
         <v>3</v>
       </c>
@@ -18141,8 +18160,8 @@
       <c r="AE36" s="1">
         <v>505.63993302900002</v>
       </c>
-      <c r="AH36" s="18"/>
-      <c r="AI36" s="18"/>
+      <c r="AH36" s="11"/>
+      <c r="AI36" s="11"/>
       <c r="AJ36" s="1">
         <v>3</v>
       </c>
@@ -18155,25 +18174,25 @@
       <c r="AM36" s="1">
         <v>563.06917285199995</v>
       </c>
-      <c r="AP36" s="18"/>
-      <c r="AQ36" s="18"/>
+      <c r="AP36" s="11"/>
+      <c r="AQ36" s="11"/>
       <c r="AR36" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AS36" s="1">
         <v>68926245</v>
       </c>
-      <c r="AV36" s="12"/>
-      <c r="AW36" s="12"/>
+      <c r="AV36" s="14"/>
+      <c r="AW36" s="14"/>
       <c r="AX36" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AY36" s="1">
         <v>3279109</v>
       </c>
-      <c r="BB36" s="18"/>
-      <c r="BC36" s="18"/>
-      <c r="BD36" s="18"/>
+      <c r="BB36" s="11"/>
+      <c r="BC36" s="11"/>
+      <c r="BD36" s="11"/>
       <c r="BE36" s="1" t="s">
         <v>17</v>
       </c>
@@ -18223,7 +18242,7 @@
       <c r="R37" s="8">
         <v>128</v>
       </c>
-      <c r="S37" s="14">
+      <c r="S37" s="12">
         <v>6144</v>
       </c>
       <c r="T37" s="10">
@@ -18242,7 +18261,7 @@
         <f>IFERROR(AVERAGE(BF57,BF61,BF65),0)</f>
         <v>34220496849.333332</v>
       </c>
-      <c r="AA37" s="18">
+      <c r="AA37" s="11">
         <v>10240</v>
       </c>
       <c r="AB37" s="1">
@@ -18257,10 +18276,10 @@
       <c r="AE37" s="1">
         <v>994.67810016800001</v>
       </c>
-      <c r="AH37" s="18">
+      <c r="AH37" s="11">
         <v>512</v>
       </c>
-      <c r="AI37" s="18"/>
+      <c r="AI37" s="11"/>
       <c r="AJ37" s="1">
         <v>1</v>
       </c>
@@ -18273,25 +18292,25 @@
       <c r="AM37" s="1">
         <v>549.73765398800003</v>
       </c>
-      <c r="AP37" s="18"/>
-      <c r="AQ37" s="18"/>
+      <c r="AP37" s="11"/>
+      <c r="AQ37" s="11"/>
       <c r="AR37" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AS37" s="1">
         <v>2878718856</v>
       </c>
-      <c r="AV37" s="12"/>
-      <c r="AW37" s="13"/>
+      <c r="AV37" s="14"/>
+      <c r="AW37" s="15"/>
       <c r="AX37" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AY37" s="1">
         <v>339509580</v>
       </c>
-      <c r="BB37" s="18"/>
-      <c r="BC37" s="18"/>
-      <c r="BD37" s="18"/>
+      <c r="BB37" s="11"/>
+      <c r="BC37" s="11"/>
+      <c r="BD37" s="11"/>
       <c r="BE37" s="1" t="s">
         <v>18</v>
       </c>
@@ -18341,7 +18360,7 @@
       <c r="R38" s="8">
         <v>256</v>
       </c>
-      <c r="S38" s="14"/>
+      <c r="S38" s="12"/>
       <c r="T38" s="8">
         <f>IFERROR(AVERAGE(BF66,BF70,BF74),0)</f>
         <v>31477629714</v>
@@ -18358,7 +18377,7 @@
         <f>IFERROR(AVERAGE(BF69,BF73,BF77),0)</f>
         <v>26155735421.333332</v>
       </c>
-      <c r="AA38" s="18"/>
+      <c r="AA38" s="11"/>
       <c r="AB38" s="1">
         <v>2</v>
       </c>
@@ -18371,8 +18390,8 @@
       <c r="AE38" s="1">
         <v>968.09888984099996</v>
       </c>
-      <c r="AH38" s="18"/>
-      <c r="AI38" s="18"/>
+      <c r="AH38" s="11"/>
+      <c r="AI38" s="11"/>
       <c r="AJ38" s="1">
         <v>2</v>
       </c>
@@ -18385,8 +18404,8 @@
       <c r="AM38" s="1">
         <v>551.66831725600002</v>
       </c>
-      <c r="AP38" s="18"/>
-      <c r="AQ38" s="18">
+      <c r="AP38" s="11"/>
+      <c r="AQ38" s="11">
         <v>3</v>
       </c>
       <c r="AR38" s="1" t="s">
@@ -18395,8 +18414,8 @@
       <c r="AS38" s="1">
         <v>3125044830</v>
       </c>
-      <c r="AV38" s="12"/>
-      <c r="AW38" s="11">
+      <c r="AV38" s="14"/>
+      <c r="AW38" s="13">
         <v>3</v>
       </c>
       <c r="AX38" s="1" t="s">
@@ -18405,9 +18424,9 @@
       <c r="AY38" s="1">
         <v>363224319</v>
       </c>
-      <c r="BB38" s="18"/>
-      <c r="BC38" s="18"/>
-      <c r="BD38" s="18">
+      <c r="BB38" s="11"/>
+      <c r="BC38" s="11"/>
+      <c r="BD38" s="11">
         <v>3</v>
       </c>
       <c r="BE38" s="1" t="s">
@@ -18459,7 +18478,7 @@
       <c r="R39" s="8">
         <v>512</v>
       </c>
-      <c r="S39" s="14"/>
+      <c r="S39" s="12"/>
       <c r="T39" s="8">
         <f>IFERROR(AVERAGE(BF78,BF82,BF86),0)</f>
         <v>30498031518.666668</v>
@@ -18476,7 +18495,7 @@
         <f>IFERROR(AVERAGE(BF81,BF85,BF89),0)</f>
         <v>26536513237</v>
       </c>
-      <c r="AA39" s="18"/>
+      <c r="AA39" s="11"/>
       <c r="AB39" s="1">
         <v>3</v>
       </c>
@@ -18489,8 +18508,8 @@
       <c r="AE39" s="1">
         <v>993.54053945400005</v>
       </c>
-      <c r="AH39" s="18"/>
-      <c r="AI39" s="18"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11"/>
       <c r="AJ39" s="1">
         <v>3</v>
       </c>
@@ -18503,25 +18522,25 @@
       <c r="AM39" s="1">
         <v>557.87159219399996</v>
       </c>
-      <c r="AP39" s="18"/>
-      <c r="AQ39" s="18"/>
+      <c r="AP39" s="11"/>
+      <c r="AQ39" s="11"/>
       <c r="AR39" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AS39" s="1">
         <v>5512317784</v>
       </c>
-      <c r="AV39" s="12"/>
-      <c r="AW39" s="12"/>
+      <c r="AV39" s="14"/>
+      <c r="AW39" s="14"/>
       <c r="AX39" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AY39" s="1">
         <v>8284305438</v>
       </c>
-      <c r="BB39" s="18"/>
-      <c r="BC39" s="18"/>
-      <c r="BD39" s="18"/>
+      <c r="BB39" s="11"/>
+      <c r="BC39" s="11"/>
+      <c r="BD39" s="11"/>
       <c r="BE39" s="1" t="s">
         <v>16</v>
       </c>
@@ -18552,7 +18571,7 @@
       <c r="R40" s="8">
         <v>1024</v>
       </c>
-      <c r="S40" s="14"/>
+      <c r="S40" s="12"/>
       <c r="T40" s="8">
         <f>IFERROR(AVERAGE(BF90,BF94,BF98),0)</f>
         <v>31522731569</v>
@@ -18569,10 +18588,10 @@
         <f>IFERROR(AVERAGE(BF93,BF97,BF101),0)</f>
         <v>25951684439.333332</v>
       </c>
-      <c r="AH40" s="18">
+      <c r="AH40" s="11">
         <v>1024</v>
       </c>
-      <c r="AI40" s="18"/>
+      <c r="AI40" s="11"/>
       <c r="AJ40" s="1">
         <v>1</v>
       </c>
@@ -18585,25 +18604,25 @@
       <c r="AM40" s="1">
         <v>590.20175493800002</v>
       </c>
-      <c r="AP40" s="18"/>
-      <c r="AQ40" s="18"/>
+      <c r="AP40" s="11"/>
+      <c r="AQ40" s="11"/>
       <c r="AR40" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AS40" s="1">
         <v>77991636</v>
       </c>
-      <c r="AV40" s="12"/>
-      <c r="AW40" s="12"/>
+      <c r="AV40" s="14"/>
+      <c r="AW40" s="14"/>
       <c r="AX40" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AY40" s="1">
         <v>3311157</v>
       </c>
-      <c r="BB40" s="18"/>
-      <c r="BC40" s="18"/>
-      <c r="BD40" s="18"/>
+      <c r="BB40" s="11"/>
+      <c r="BC40" s="11"/>
+      <c r="BD40" s="11"/>
       <c r="BE40" s="1" t="s">
         <v>17</v>
       </c>
@@ -18634,7 +18653,7 @@
       <c r="R41" s="8">
         <v>128</v>
       </c>
-      <c r="S41" s="15">
+      <c r="S41" s="22">
         <v>8192</v>
       </c>
       <c r="T41" s="8">
@@ -18653,8 +18672,8 @@
         <f>IFERROR(AVERAGE(BF105,BF109,BF113),0)</f>
         <v>66184186789</v>
       </c>
-      <c r="AH41" s="18"/>
-      <c r="AI41" s="18"/>
+      <c r="AH41" s="11"/>
+      <c r="AI41" s="11"/>
       <c r="AJ41" s="1">
         <v>2</v>
       </c>
@@ -18667,25 +18686,25 @@
       <c r="AM41" s="1">
         <v>585.67840499500005</v>
       </c>
-      <c r="AP41" s="18"/>
-      <c r="AQ41" s="18"/>
+      <c r="AP41" s="11"/>
+      <c r="AQ41" s="11"/>
       <c r="AR41" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AS41" s="1">
         <v>2877583080</v>
       </c>
-      <c r="AV41" s="13"/>
-      <c r="AW41" s="13"/>
+      <c r="AV41" s="15"/>
+      <c r="AW41" s="15"/>
       <c r="AX41" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AY41" s="1">
         <v>338502784</v>
       </c>
-      <c r="BB41" s="18"/>
-      <c r="BC41" s="18"/>
-      <c r="BD41" s="18"/>
+      <c r="BB41" s="11"/>
+      <c r="BC41" s="11"/>
+      <c r="BD41" s="11"/>
       <c r="BE41" s="1" t="s">
         <v>18</v>
       </c>
@@ -18716,7 +18735,7 @@
       <c r="R42" s="8">
         <v>256</v>
       </c>
-      <c r="S42" s="16"/>
+      <c r="S42" s="23"/>
       <c r="T42" s="8">
         <f>IFERROR(AVERAGE(BF114,BF118,BF122),0)</f>
         <v>77945897335</v>
@@ -18733,8 +18752,8 @@
         <f>IFERROR(AVERAGE(BF117,BF121,BF125),0)</f>
         <v>49887970058</v>
       </c>
-      <c r="AH42" s="18"/>
-      <c r="AI42" s="18"/>
+      <c r="AH42" s="11"/>
+      <c r="AI42" s="11"/>
       <c r="AJ42" s="1">
         <v>3</v>
       </c>
@@ -18747,10 +18766,10 @@
       <c r="AM42" s="1">
         <v>579.31260614300004</v>
       </c>
-      <c r="AP42" s="18">
+      <c r="AP42" s="11">
         <v>1800</v>
       </c>
-      <c r="AQ42" s="18">
+      <c r="AQ42" s="11">
         <v>1</v>
       </c>
       <c r="AR42" s="1" t="s">
@@ -18759,10 +18778,10 @@
       <c r="AS42" s="1">
         <v>7031823940</v>
       </c>
-      <c r="AV42" s="11">
+      <c r="AV42" s="13">
         <v>1800</v>
       </c>
-      <c r="AW42" s="11">
+      <c r="AW42" s="13">
         <v>1</v>
       </c>
       <c r="AX42" s="1" t="s">
@@ -18771,11 +18790,11 @@
       <c r="AY42" s="1">
         <v>787891012</v>
       </c>
-      <c r="BB42" s="18">
+      <c r="BB42" s="11">
         <v>1024</v>
       </c>
-      <c r="BC42" s="18"/>
-      <c r="BD42" s="18">
+      <c r="BC42" s="11"/>
+      <c r="BD42" s="11">
         <v>1</v>
       </c>
       <c r="BE42" s="1" t="s">
@@ -18808,7 +18827,7 @@
       <c r="R43" s="8">
         <v>512</v>
       </c>
-      <c r="S43" s="16"/>
+      <c r="S43" s="23"/>
       <c r="T43" s="8">
         <f>IFERROR(AVERAGE(BF126,BF130,BF134),0)</f>
         <v>74149329539.666672</v>
@@ -18825,10 +18844,10 @@
         <f>IFERROR(AVERAGE(BF129,BF133,BF137),0)</f>
         <v>55621257626.333336</v>
       </c>
-      <c r="AH43" s="18">
+      <c r="AH43" s="11">
         <v>128</v>
       </c>
-      <c r="AI43" s="18">
+      <c r="AI43" s="11">
         <v>10240</v>
       </c>
       <c r="AJ43" s="1">
@@ -18843,25 +18862,25 @@
       <c r="AM43" s="1">
         <v>1108.8886565390001</v>
       </c>
-      <c r="AP43" s="18"/>
-      <c r="AQ43" s="18"/>
+      <c r="AP43" s="11"/>
+      <c r="AQ43" s="11"/>
       <c r="AR43" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AS43" s="1">
         <v>11701508432</v>
       </c>
-      <c r="AV43" s="12"/>
-      <c r="AW43" s="12"/>
+      <c r="AV43" s="14"/>
+      <c r="AW43" s="14"/>
       <c r="AX43" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AY43" s="1">
         <v>17583525474</v>
       </c>
-      <c r="BB43" s="18"/>
-      <c r="BC43" s="18"/>
-      <c r="BD43" s="18"/>
+      <c r="BB43" s="11"/>
+      <c r="BC43" s="11"/>
+      <c r="BD43" s="11"/>
       <c r="BE43" s="1" t="s">
         <v>16</v>
       </c>
@@ -18873,7 +18892,7 @@
       <c r="R44" s="8">
         <v>1024</v>
       </c>
-      <c r="S44" s="17"/>
+      <c r="S44" s="24"/>
       <c r="T44" s="8">
         <f>IFERROR(AVERAGE(BF138,BF142,BF146),0)</f>
         <v>74869346187.666672</v>
@@ -18890,8 +18909,8 @@
         <f>IFERROR(AVERAGE(BF141,BF145,BF149),0)</f>
         <v>61539037447.666664</v>
       </c>
-      <c r="AH44" s="18"/>
-      <c r="AI44" s="18"/>
+      <c r="AH44" s="11"/>
+      <c r="AI44" s="11"/>
       <c r="AJ44" s="1">
         <v>2</v>
       </c>
@@ -18904,25 +18923,25 @@
       <c r="AM44" s="1">
         <v>1109.747309378</v>
       </c>
-      <c r="AP44" s="18"/>
-      <c r="AQ44" s="18"/>
+      <c r="AP44" s="11"/>
+      <c r="AQ44" s="11"/>
       <c r="AR44" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AS44" s="1">
         <v>164016209</v>
       </c>
-      <c r="AV44" s="12"/>
-      <c r="AW44" s="12"/>
+      <c r="AV44" s="14"/>
+      <c r="AW44" s="14"/>
       <c r="AX44" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AY44" s="1">
         <v>8090880</v>
       </c>
-      <c r="BB44" s="18"/>
-      <c r="BC44" s="18"/>
-      <c r="BD44" s="18"/>
+      <c r="BB44" s="11"/>
+      <c r="BC44" s="11"/>
+      <c r="BD44" s="11"/>
       <c r="BE44" s="1" t="s">
         <v>17</v>
       </c>
@@ -18934,7 +18953,7 @@
       <c r="R45" s="8">
         <v>128</v>
       </c>
-      <c r="S45" s="15">
+      <c r="S45" s="22">
         <v>10240</v>
       </c>
       <c r="T45" s="8">
@@ -18953,8 +18972,8 @@
         <f>IFERROR(AVERAGE(BF153,BF157,BF161),0)</f>
         <v>154217945676.66666</v>
       </c>
-      <c r="AH45" s="18"/>
-      <c r="AI45" s="18"/>
+      <c r="AH45" s="11"/>
+      <c r="AI45" s="11"/>
       <c r="AJ45" s="1">
         <v>3</v>
       </c>
@@ -18967,25 +18986,25 @@
       <c r="AM45" s="1">
         <v>1111.7391745919999</v>
       </c>
-      <c r="AP45" s="18"/>
-      <c r="AQ45" s="18"/>
+      <c r="AP45" s="11"/>
+      <c r="AQ45" s="11"/>
       <c r="AR45" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AS45" s="1">
         <v>6460785534</v>
       </c>
-      <c r="AV45" s="12"/>
-      <c r="AW45" s="13"/>
+      <c r="AV45" s="14"/>
+      <c r="AW45" s="15"/>
       <c r="AX45" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AY45" s="1">
         <v>649553401</v>
       </c>
-      <c r="BB45" s="18"/>
-      <c r="BC45" s="18"/>
-      <c r="BD45" s="18"/>
+      <c r="BB45" s="11"/>
+      <c r="BC45" s="11"/>
+      <c r="BD45" s="11"/>
       <c r="BE45" s="1" t="s">
         <v>18</v>
       </c>
@@ -18997,7 +19016,7 @@
       <c r="R46" s="8">
         <v>256</v>
       </c>
-      <c r="S46" s="16"/>
+      <c r="S46" s="23"/>
       <c r="T46" s="8">
         <f>IFERROR(AVERAGE(BF162,BF166,BF170),0)</f>
         <v>145205954455.33334</v>
@@ -19014,10 +19033,10 @@
         <f>IFERROR(AVERAGE(BF165,BF169,BF173),0)</f>
         <v>120951065749.33333</v>
       </c>
-      <c r="AH46" s="18">
+      <c r="AH46" s="11">
         <v>256</v>
       </c>
-      <c r="AI46" s="18"/>
+      <c r="AI46" s="11"/>
       <c r="AJ46" s="1">
         <v>1</v>
       </c>
@@ -19030,8 +19049,8 @@
       <c r="AM46" s="1">
         <v>1076.0835766309999</v>
       </c>
-      <c r="AP46" s="18"/>
-      <c r="AQ46" s="18">
+      <c r="AP46" s="11"/>
+      <c r="AQ46" s="11">
         <v>2</v>
       </c>
       <c r="AR46" s="1" t="s">
@@ -19040,8 +19059,8 @@
       <c r="AS46" s="1">
         <v>7035398368</v>
       </c>
-      <c r="AV46" s="12"/>
-      <c r="AW46" s="11">
+      <c r="AV46" s="14"/>
+      <c r="AW46" s="13">
         <v>2</v>
       </c>
       <c r="AX46" s="1" t="s">
@@ -19050,9 +19069,9 @@
       <c r="AY46" s="1">
         <v>787979671</v>
       </c>
-      <c r="BB46" s="18"/>
-      <c r="BC46" s="18"/>
-      <c r="BD46" s="18">
+      <c r="BB46" s="11"/>
+      <c r="BC46" s="11"/>
+      <c r="BD46" s="11">
         <v>2</v>
       </c>
       <c r="BE46" s="1" t="s">
@@ -19066,7 +19085,7 @@
       <c r="R47" s="8">
         <v>512</v>
       </c>
-      <c r="S47" s="16"/>
+      <c r="S47" s="23"/>
       <c r="T47" s="8">
         <f>IFERROR(AVERAGE(BF174,BF178,BF182),0)</f>
         <v>141109148041</v>
@@ -19083,8 +19102,8 @@
         <f>IFERROR(AVERAGE(BF177,BF181,BF185),0)</f>
         <v>122467566534.33333</v>
       </c>
-      <c r="AH47" s="18"/>
-      <c r="AI47" s="18"/>
+      <c r="AH47" s="11"/>
+      <c r="AI47" s="11"/>
       <c r="AJ47" s="1">
         <v>2</v>
       </c>
@@ -19097,25 +19116,25 @@
       <c r="AM47" s="1">
         <v>1042.7503777930001</v>
       </c>
-      <c r="AP47" s="18"/>
-      <c r="AQ47" s="18"/>
+      <c r="AP47" s="11"/>
+      <c r="AQ47" s="11"/>
       <c r="AR47" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AS47" s="1">
         <v>11701580875</v>
       </c>
-      <c r="AV47" s="12"/>
-      <c r="AW47" s="12"/>
+      <c r="AV47" s="14"/>
+      <c r="AW47" s="14"/>
       <c r="AX47" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AY47" s="1">
         <v>17583051571</v>
       </c>
-      <c r="BB47" s="18"/>
-      <c r="BC47" s="18"/>
-      <c r="BD47" s="18"/>
+      <c r="BB47" s="11"/>
+      <c r="BC47" s="11"/>
+      <c r="BD47" s="11"/>
       <c r="BE47" s="1" t="s">
         <v>16</v>
       </c>
@@ -19127,7 +19146,7 @@
       <c r="R48" s="8">
         <v>1024</v>
       </c>
-      <c r="S48" s="17"/>
+      <c r="S48" s="24"/>
       <c r="T48" s="8">
         <f>IFERROR(AVERAGE(BF186,BF190,BF194),0)</f>
         <v>145544737317.66666</v>
@@ -19144,8 +19163,8 @@
         <f>IFERROR(AVERAGE(BF189,BF193,BF197),0)</f>
         <v>121345887859.66667</v>
       </c>
-      <c r="AH48" s="18"/>
-      <c r="AI48" s="18"/>
+      <c r="AH48" s="11"/>
+      <c r="AI48" s="11"/>
       <c r="AJ48" s="1">
         <v>3</v>
       </c>
@@ -19158,25 +19177,25 @@
       <c r="AM48" s="1">
         <v>1038.366186767</v>
       </c>
-      <c r="AP48" s="18"/>
-      <c r="AQ48" s="18"/>
+      <c r="AP48" s="11"/>
+      <c r="AQ48" s="11"/>
       <c r="AR48" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AS48" s="1">
         <v>183294324</v>
       </c>
-      <c r="AV48" s="12"/>
-      <c r="AW48" s="12"/>
+      <c r="AV48" s="14"/>
+      <c r="AW48" s="14"/>
       <c r="AX48" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AY48" s="1">
         <v>7973472</v>
       </c>
-      <c r="BB48" s="18"/>
-      <c r="BC48" s="18"/>
-      <c r="BD48" s="18"/>
+      <c r="BB48" s="11"/>
+      <c r="BC48" s="11"/>
+      <c r="BD48" s="11"/>
       <c r="BE48" s="1" t="s">
         <v>17</v>
       </c>
@@ -19185,10 +19204,10 @@
       </c>
     </row>
     <row r="49" spans="34:58" x14ac:dyDescent="0.25">
-      <c r="AH49" s="18">
+      <c r="AH49" s="11">
         <v>512</v>
       </c>
-      <c r="AI49" s="18"/>
+      <c r="AI49" s="11"/>
       <c r="AJ49" s="1">
         <v>1</v>
       </c>
@@ -19201,25 +19220,25 @@
       <c r="AM49" s="1">
         <v>1007.178475017</v>
       </c>
-      <c r="AP49" s="18"/>
-      <c r="AQ49" s="18"/>
+      <c r="AP49" s="11"/>
+      <c r="AQ49" s="11"/>
       <c r="AR49" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AS49" s="1">
         <v>6448222876</v>
       </c>
-      <c r="AV49" s="12"/>
-      <c r="AW49" s="13"/>
+      <c r="AV49" s="14"/>
+      <c r="AW49" s="15"/>
       <c r="AX49" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AY49" s="1">
         <v>650341992</v>
       </c>
-      <c r="BB49" s="18"/>
-      <c r="BC49" s="18"/>
-      <c r="BD49" s="18"/>
+      <c r="BB49" s="11"/>
+      <c r="BC49" s="11"/>
+      <c r="BD49" s="11"/>
       <c r="BE49" s="1" t="s">
         <v>18</v>
       </c>
@@ -19228,8 +19247,8 @@
       </c>
     </row>
     <row r="50" spans="34:58" x14ac:dyDescent="0.25">
-      <c r="AH50" s="18"/>
-      <c r="AI50" s="18"/>
+      <c r="AH50" s="11"/>
+      <c r="AI50" s="11"/>
       <c r="AJ50" s="1">
         <v>2</v>
       </c>
@@ -19242,8 +19261,8 @@
       <c r="AM50" s="1">
         <v>1007.178475017</v>
       </c>
-      <c r="AP50" s="18"/>
-      <c r="AQ50" s="18">
+      <c r="AP50" s="11"/>
+      <c r="AQ50" s="11">
         <v>3</v>
       </c>
       <c r="AR50" s="1" t="s">
@@ -19252,8 +19271,8 @@
       <c r="AS50" s="1">
         <v>7053105599</v>
       </c>
-      <c r="AV50" s="12"/>
-      <c r="AW50" s="11">
+      <c r="AV50" s="14"/>
+      <c r="AW50" s="13">
         <v>3</v>
       </c>
       <c r="AX50" s="1" t="s">
@@ -19262,9 +19281,9 @@
       <c r="AY50" s="1">
         <v>787784113</v>
       </c>
-      <c r="BB50" s="18"/>
-      <c r="BC50" s="18"/>
-      <c r="BD50" s="18">
+      <c r="BB50" s="11"/>
+      <c r="BC50" s="11"/>
+      <c r="BD50" s="11">
         <v>3</v>
       </c>
       <c r="BE50" s="1" t="s">
@@ -19275,8 +19294,8 @@
       </c>
     </row>
     <row r="51" spans="34:58" x14ac:dyDescent="0.25">
-      <c r="AH51" s="18"/>
-      <c r="AI51" s="18"/>
+      <c r="AH51" s="11"/>
+      <c r="AI51" s="11"/>
       <c r="AJ51" s="1">
         <v>3</v>
       </c>
@@ -19289,25 +19308,25 @@
       <c r="AM51" s="1">
         <v>1029.3688167620001</v>
       </c>
-      <c r="AP51" s="18"/>
-      <c r="AQ51" s="18"/>
+      <c r="AP51" s="11"/>
+      <c r="AQ51" s="11"/>
       <c r="AR51" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AS51" s="1">
         <v>11706840061</v>
       </c>
-      <c r="AV51" s="12"/>
-      <c r="AW51" s="12"/>
+      <c r="AV51" s="14"/>
+      <c r="AW51" s="14"/>
       <c r="AX51" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AY51" s="1">
         <v>17581731173</v>
       </c>
-      <c r="BB51" s="18"/>
-      <c r="BC51" s="18"/>
-      <c r="BD51" s="18"/>
+      <c r="BB51" s="11"/>
+      <c r="BC51" s="11"/>
+      <c r="BD51" s="11"/>
       <c r="BE51" s="1" t="s">
         <v>16</v>
       </c>
@@ -19316,10 +19335,10 @@
       </c>
     </row>
     <row r="52" spans="34:58" x14ac:dyDescent="0.25">
-      <c r="AH52" s="18">
+      <c r="AH52" s="11">
         <v>1024</v>
       </c>
-      <c r="AI52" s="18"/>
+      <c r="AI52" s="11"/>
       <c r="AJ52" s="1">
         <v>1</v>
       </c>
@@ -19332,25 +19351,25 @@
       <c r="AM52" s="1">
         <v>982.25482638000005</v>
       </c>
-      <c r="AP52" s="18"/>
-      <c r="AQ52" s="18"/>
+      <c r="AP52" s="11"/>
+      <c r="AQ52" s="11"/>
       <c r="AR52" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AS52" s="1">
         <v>160598653</v>
       </c>
-      <c r="AV52" s="12"/>
-      <c r="AW52" s="12"/>
+      <c r="AV52" s="14"/>
+      <c r="AW52" s="14"/>
       <c r="AX52" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AY52" s="1">
         <v>7717578</v>
       </c>
-      <c r="BB52" s="18"/>
-      <c r="BC52" s="18"/>
-      <c r="BD52" s="18"/>
+      <c r="BB52" s="11"/>
+      <c r="BC52" s="11"/>
+      <c r="BD52" s="11"/>
       <c r="BE52" s="1" t="s">
         <v>17</v>
       </c>
@@ -19359,8 +19378,8 @@
       </c>
     </row>
     <row r="53" spans="34:58" x14ac:dyDescent="0.25">
-      <c r="AH53" s="18"/>
-      <c r="AI53" s="18"/>
+      <c r="AH53" s="11"/>
+      <c r="AI53" s="11"/>
       <c r="AJ53" s="1">
         <v>2</v>
       </c>
@@ -19373,25 +19392,25 @@
       <c r="AM53" s="1">
         <v>1021.135029645</v>
       </c>
-      <c r="AP53" s="18"/>
-      <c r="AQ53" s="18"/>
+      <c r="AP53" s="11"/>
+      <c r="AQ53" s="11"/>
       <c r="AR53" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AS53" s="1">
         <v>6488060938</v>
       </c>
-      <c r="AV53" s="13"/>
-      <c r="AW53" s="13"/>
+      <c r="AV53" s="15"/>
+      <c r="AW53" s="15"/>
       <c r="AX53" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AY53" s="1">
         <v>640471469</v>
       </c>
-      <c r="BB53" s="18"/>
-      <c r="BC53" s="18"/>
-      <c r="BD53" s="18"/>
+      <c r="BB53" s="11"/>
+      <c r="BC53" s="11"/>
+      <c r="BD53" s="11"/>
       <c r="BE53" s="1" t="s">
         <v>18</v>
       </c>
@@ -19400,8 +19419,8 @@
       </c>
     </row>
     <row r="54" spans="34:58" x14ac:dyDescent="0.25">
-      <c r="AH54" s="18"/>
-      <c r="AI54" s="18"/>
+      <c r="AH54" s="11"/>
+      <c r="AI54" s="11"/>
       <c r="AJ54" s="1">
         <v>3</v>
       </c>
@@ -19414,10 +19433,10 @@
       <c r="AM54" s="1">
         <v>1039.81966532</v>
       </c>
-      <c r="AP54" s="18">
+      <c r="AP54" s="11">
         <v>2200</v>
       </c>
-      <c r="AQ54" s="18">
+      <c r="AQ54" s="11">
         <v>1</v>
       </c>
       <c r="AR54" s="1" t="s">
@@ -19426,10 +19445,10 @@
       <c r="AS54" s="1">
         <v>16775271192</v>
       </c>
-      <c r="AV54" s="11">
+      <c r="AV54" s="13">
         <v>2200</v>
       </c>
-      <c r="AW54" s="11">
+      <c r="AW54" s="13">
         <v>1</v>
       </c>
       <c r="AX54" s="1" t="s">
@@ -19438,13 +19457,13 @@
       <c r="AY54" s="1">
         <v>1943443055</v>
       </c>
-      <c r="BB54" s="18">
+      <c r="BB54" s="11">
         <v>128</v>
       </c>
-      <c r="BC54" s="18">
+      <c r="BC54" s="11">
         <v>6144</v>
       </c>
-      <c r="BD54" s="18">
+      <c r="BD54" s="11">
         <v>1</v>
       </c>
       <c r="BE54" s="1" t="s">
@@ -19455,25 +19474,25 @@
       </c>
     </row>
     <row r="55" spans="34:58" x14ac:dyDescent="0.25">
-      <c r="AP55" s="18"/>
-      <c r="AQ55" s="18"/>
+      <c r="AP55" s="11"/>
+      <c r="AQ55" s="11"/>
       <c r="AR55" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AS55" s="1">
         <v>21355222099</v>
       </c>
-      <c r="AV55" s="12"/>
-      <c r="AW55" s="12"/>
+      <c r="AV55" s="14"/>
+      <c r="AW55" s="14"/>
       <c r="AX55" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AY55" s="1">
         <v>32064725799</v>
       </c>
-      <c r="BB55" s="18"/>
-      <c r="BC55" s="18"/>
-      <c r="BD55" s="18"/>
+      <c r="BB55" s="11"/>
+      <c r="BC55" s="11"/>
+      <c r="BD55" s="11"/>
       <c r="BE55" s="1" t="s">
         <v>16</v>
       </c>
@@ -19482,25 +19501,25 @@
       </c>
     </row>
     <row r="56" spans="34:58" x14ac:dyDescent="0.25">
-      <c r="AP56" s="18"/>
-      <c r="AQ56" s="18"/>
+      <c r="AP56" s="11"/>
+      <c r="AQ56" s="11"/>
       <c r="AR56" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AS56" s="1">
         <v>963441633</v>
       </c>
-      <c r="AV56" s="12"/>
-      <c r="AW56" s="12"/>
+      <c r="AV56" s="14"/>
+      <c r="AW56" s="14"/>
       <c r="AX56" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AY56" s="1">
         <v>7068586</v>
       </c>
-      <c r="BB56" s="18"/>
-      <c r="BC56" s="18"/>
-      <c r="BD56" s="18"/>
+      <c r="BB56" s="11"/>
+      <c r="BC56" s="11"/>
+      <c r="BD56" s="11"/>
       <c r="BE56" s="1" t="s">
         <v>17</v>
       </c>
@@ -19509,25 +19528,25 @@
       </c>
     </row>
     <row r="57" spans="34:58" x14ac:dyDescent="0.25">
-      <c r="AP57" s="18"/>
-      <c r="AQ57" s="18"/>
+      <c r="AP57" s="11"/>
+      <c r="AQ57" s="11"/>
       <c r="AR57" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AS57" s="1">
         <v>15208840489</v>
       </c>
-      <c r="AV57" s="12"/>
-      <c r="AW57" s="13"/>
+      <c r="AV57" s="14"/>
+      <c r="AW57" s="15"/>
       <c r="AX57" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AY57" s="1">
         <v>1562118136</v>
       </c>
-      <c r="BB57" s="18"/>
-      <c r="BC57" s="18"/>
-      <c r="BD57" s="18"/>
+      <c r="BB57" s="11"/>
+      <c r="BC57" s="11"/>
+      <c r="BD57" s="11"/>
       <c r="BE57" s="1" t="s">
         <v>18</v>
       </c>
@@ -19536,8 +19555,8 @@
       </c>
     </row>
     <row r="58" spans="34:58" x14ac:dyDescent="0.25">
-      <c r="AP58" s="18"/>
-      <c r="AQ58" s="18">
+      <c r="AP58" s="11"/>
+      <c r="AQ58" s="11">
         <v>2</v>
       </c>
       <c r="AR58" s="1" t="s">
@@ -19546,8 +19565,8 @@
       <c r="AS58" s="1">
         <v>16771462514</v>
       </c>
-      <c r="AV58" s="12"/>
-      <c r="AW58" s="11">
+      <c r="AV58" s="14"/>
+      <c r="AW58" s="13">
         <v>2</v>
       </c>
       <c r="AX58" s="1" t="s">
@@ -19556,9 +19575,9 @@
       <c r="AY58" s="1">
         <v>1942844355</v>
       </c>
-      <c r="BB58" s="18"/>
-      <c r="BC58" s="18"/>
-      <c r="BD58" s="18">
+      <c r="BB58" s="11"/>
+      <c r="BC58" s="11"/>
+      <c r="BD58" s="11">
         <v>2</v>
       </c>
       <c r="BE58" s="1" t="s">
@@ -19569,25 +19588,25 @@
       </c>
     </row>
     <row r="59" spans="34:58" x14ac:dyDescent="0.25">
-      <c r="AP59" s="18"/>
-      <c r="AQ59" s="18"/>
+      <c r="AP59" s="11"/>
+      <c r="AQ59" s="11"/>
       <c r="AR59" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AS59" s="1">
         <v>21381490725</v>
       </c>
-      <c r="AV59" s="12"/>
-      <c r="AW59" s="12"/>
+      <c r="AV59" s="14"/>
+      <c r="AW59" s="14"/>
       <c r="AX59" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AY59" s="1">
         <v>32063687622</v>
       </c>
-      <c r="BB59" s="18"/>
-      <c r="BC59" s="18"/>
-      <c r="BD59" s="18"/>
+      <c r="BB59" s="11"/>
+      <c r="BC59" s="11"/>
+      <c r="BD59" s="11"/>
       <c r="BE59" s="1" t="s">
         <v>16</v>
       </c>
@@ -19596,25 +19615,25 @@
       </c>
     </row>
     <row r="60" spans="34:58" x14ac:dyDescent="0.25">
-      <c r="AP60" s="18"/>
-      <c r="AQ60" s="18"/>
+      <c r="AP60" s="11"/>
+      <c r="AQ60" s="11"/>
       <c r="AR60" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AS60" s="1">
         <v>835932676</v>
       </c>
-      <c r="AV60" s="12"/>
-      <c r="AW60" s="12"/>
+      <c r="AV60" s="14"/>
+      <c r="AW60" s="14"/>
       <c r="AX60" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AY60" s="1">
         <v>6492553</v>
       </c>
-      <c r="BB60" s="18"/>
-      <c r="BC60" s="18"/>
-      <c r="BD60" s="18"/>
+      <c r="BB60" s="11"/>
+      <c r="BC60" s="11"/>
+      <c r="BD60" s="11"/>
       <c r="BE60" s="1" t="s">
         <v>17</v>
       </c>
@@ -19623,25 +19642,25 @@
       </c>
     </row>
     <row r="61" spans="34:58" x14ac:dyDescent="0.25">
-      <c r="AP61" s="18"/>
-      <c r="AQ61" s="18"/>
+      <c r="AP61" s="11"/>
+      <c r="AQ61" s="11"/>
       <c r="AR61" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AS61" s="1">
         <v>15341911133</v>
       </c>
-      <c r="AV61" s="12"/>
-      <c r="AW61" s="13"/>
+      <c r="AV61" s="14"/>
+      <c r="AW61" s="15"/>
       <c r="AX61" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AY61" s="1">
         <v>1562837851</v>
       </c>
-      <c r="BB61" s="18"/>
-      <c r="BC61" s="18"/>
-      <c r="BD61" s="18"/>
+      <c r="BB61" s="11"/>
+      <c r="BC61" s="11"/>
+      <c r="BD61" s="11"/>
       <c r="BE61" s="1" t="s">
         <v>18</v>
       </c>
@@ -19650,8 +19669,8 @@
       </c>
     </row>
     <row r="62" spans="34:58" x14ac:dyDescent="0.25">
-      <c r="AP62" s="18"/>
-      <c r="AQ62" s="18">
+      <c r="AP62" s="11"/>
+      <c r="AQ62" s="11">
         <v>3</v>
       </c>
       <c r="AR62" s="1" t="s">
@@ -19660,8 +19679,8 @@
       <c r="AS62" s="1">
         <v>16774200556</v>
       </c>
-      <c r="AV62" s="12"/>
-      <c r="AW62" s="11">
+      <c r="AV62" s="14"/>
+      <c r="AW62" s="13">
         <v>3</v>
       </c>
       <c r="AX62" s="1" t="s">
@@ -19670,9 +19689,9 @@
       <c r="AY62" s="1">
         <v>1944142665</v>
       </c>
-      <c r="BB62" s="18"/>
-      <c r="BC62" s="18"/>
-      <c r="BD62" s="18">
+      <c r="BB62" s="11"/>
+      <c r="BC62" s="11"/>
+      <c r="BD62" s="11">
         <v>3</v>
       </c>
       <c r="BE62" s="1" t="s">
@@ -19683,25 +19702,25 @@
       </c>
     </row>
     <row r="63" spans="34:58" x14ac:dyDescent="0.25">
-      <c r="AP63" s="18"/>
-      <c r="AQ63" s="18"/>
+      <c r="AP63" s="11"/>
+      <c r="AQ63" s="11"/>
       <c r="AR63" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AS63" s="1">
         <v>21359691058</v>
       </c>
-      <c r="AV63" s="12"/>
-      <c r="AW63" s="12"/>
+      <c r="AV63" s="14"/>
+      <c r="AW63" s="14"/>
       <c r="AX63" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AY63" s="1">
         <v>32062965232</v>
       </c>
-      <c r="BB63" s="18"/>
-      <c r="BC63" s="18"/>
-      <c r="BD63" s="18"/>
+      <c r="BB63" s="11"/>
+      <c r="BC63" s="11"/>
+      <c r="BD63" s="11"/>
       <c r="BE63" s="1" t="s">
         <v>16</v>
       </c>
@@ -19710,25 +19729,25 @@
       </c>
     </row>
     <row r="64" spans="34:58" x14ac:dyDescent="0.25">
-      <c r="AP64" s="18"/>
-      <c r="AQ64" s="18"/>
+      <c r="AP64" s="11"/>
+      <c r="AQ64" s="11"/>
       <c r="AR64" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AS64" s="1">
         <v>776291206</v>
       </c>
-      <c r="AV64" s="12"/>
-      <c r="AW64" s="12"/>
+      <c r="AV64" s="14"/>
+      <c r="AW64" s="14"/>
       <c r="AX64" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AY64" s="1">
         <v>6899230</v>
       </c>
-      <c r="BB64" s="18"/>
-      <c r="BC64" s="18"/>
-      <c r="BD64" s="18"/>
+      <c r="BB64" s="11"/>
+      <c r="BC64" s="11"/>
+      <c r="BD64" s="11"/>
       <c r="BE64" s="1" t="s">
         <v>17</v>
       </c>
@@ -19737,25 +19756,25 @@
       </c>
     </row>
     <row r="65" spans="42:58" x14ac:dyDescent="0.25">
-      <c r="AP65" s="18"/>
-      <c r="AQ65" s="18"/>
+      <c r="AP65" s="11"/>
+      <c r="AQ65" s="11"/>
       <c r="AR65" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AS65" s="1">
         <v>15404928688</v>
       </c>
-      <c r="AV65" s="13"/>
-      <c r="AW65" s="13"/>
+      <c r="AV65" s="15"/>
+      <c r="AW65" s="15"/>
       <c r="AX65" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AY65" s="1">
         <v>1558201227</v>
       </c>
-      <c r="BB65" s="18"/>
-      <c r="BC65" s="18"/>
-      <c r="BD65" s="18"/>
+      <c r="BB65" s="11"/>
+      <c r="BC65" s="11"/>
+      <c r="BD65" s="11"/>
       <c r="BE65" s="1" t="s">
         <v>18</v>
       </c>
@@ -19764,10 +19783,10 @@
       </c>
     </row>
     <row r="66" spans="42:58" x14ac:dyDescent="0.25">
-      <c r="AP66" s="18">
+      <c r="AP66" s="11">
         <v>2600</v>
       </c>
-      <c r="AQ66" s="18">
+      <c r="AQ66" s="11">
         <v>1</v>
       </c>
       <c r="AR66" s="1" t="s">
@@ -19776,10 +19795,10 @@
       <c r="AS66" s="1">
         <v>30911877467</v>
       </c>
-      <c r="AV66" s="11">
+      <c r="AV66" s="13">
         <v>2600</v>
       </c>
-      <c r="AW66" s="11">
+      <c r="AW66" s="13">
         <v>1</v>
       </c>
       <c r="AX66" s="1" t="s">
@@ -19788,11 +19807,11 @@
       <c r="AY66" s="1">
         <v>4109829745</v>
       </c>
-      <c r="BB66" s="18">
+      <c r="BB66" s="11">
         <v>256</v>
       </c>
-      <c r="BC66" s="18"/>
-      <c r="BD66" s="18">
+      <c r="BC66" s="11"/>
+      <c r="BD66" s="11">
         <v>1</v>
       </c>
       <c r="BE66" s="1" t="s">
@@ -19803,25 +19822,25 @@
       </c>
     </row>
     <row r="67" spans="42:58" x14ac:dyDescent="0.25">
-      <c r="AP67" s="18"/>
-      <c r="AQ67" s="18"/>
+      <c r="AP67" s="11"/>
+      <c r="AQ67" s="11"/>
       <c r="AR67" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AS67" s="1">
         <v>35267894535</v>
       </c>
-      <c r="AV67" s="12"/>
-      <c r="AW67" s="12"/>
+      <c r="AV67" s="14"/>
+      <c r="AW67" s="14"/>
       <c r="AX67" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AY67" s="1">
         <v>52905304036</v>
       </c>
-      <c r="BB67" s="18"/>
-      <c r="BC67" s="18"/>
-      <c r="BD67" s="18"/>
+      <c r="BB67" s="11"/>
+      <c r="BC67" s="11"/>
+      <c r="BD67" s="11"/>
       <c r="BE67" s="1" t="s">
         <v>16</v>
       </c>
@@ -19830,25 +19849,25 @@
       </c>
     </row>
     <row r="68" spans="42:58" x14ac:dyDescent="0.25">
-      <c r="AP68" s="18"/>
-      <c r="AQ68" s="18"/>
+      <c r="AP68" s="11"/>
+      <c r="AQ68" s="11"/>
       <c r="AR68" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AS68" s="1">
         <v>2596698891</v>
       </c>
-      <c r="AV68" s="12"/>
-      <c r="AW68" s="12"/>
+      <c r="AV68" s="14"/>
+      <c r="AW68" s="14"/>
       <c r="AX68" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AY68" s="1">
         <v>13957969</v>
       </c>
-      <c r="BB68" s="18"/>
-      <c r="BC68" s="18"/>
-      <c r="BD68" s="18"/>
+      <c r="BB68" s="11"/>
+      <c r="BC68" s="11"/>
+      <c r="BD68" s="11"/>
       <c r="BE68" s="1" t="s">
         <v>17</v>
       </c>
@@ -19857,25 +19876,25 @@
       </c>
     </row>
     <row r="69" spans="42:58" x14ac:dyDescent="0.25">
-      <c r="AP69" s="18"/>
-      <c r="AQ69" s="18"/>
+      <c r="AP69" s="11"/>
+      <c r="AQ69" s="11"/>
       <c r="AR69" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AS69" s="1">
         <v>27495136293</v>
       </c>
-      <c r="AV69" s="12"/>
-      <c r="AW69" s="13"/>
+      <c r="AV69" s="14"/>
+      <c r="AW69" s="15"/>
       <c r="AX69" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AY69" s="1">
         <v>3371231297</v>
       </c>
-      <c r="BB69" s="18"/>
-      <c r="BC69" s="18"/>
-      <c r="BD69" s="18"/>
+      <c r="BB69" s="11"/>
+      <c r="BC69" s="11"/>
+      <c r="BD69" s="11"/>
       <c r="BE69" s="1" t="s">
         <v>18</v>
       </c>
@@ -19884,8 +19903,8 @@
       </c>
     </row>
     <row r="70" spans="42:58" x14ac:dyDescent="0.25">
-      <c r="AP70" s="18"/>
-      <c r="AQ70" s="18">
+      <c r="AP70" s="11"/>
+      <c r="AQ70" s="11">
         <v>2</v>
       </c>
       <c r="AR70" s="1" t="s">
@@ -19894,8 +19913,8 @@
       <c r="AS70" s="1">
         <v>30910659733</v>
       </c>
-      <c r="AV70" s="12"/>
-      <c r="AW70" s="11">
+      <c r="AV70" s="14"/>
+      <c r="AW70" s="13">
         <v>2</v>
       </c>
       <c r="AX70" s="1" t="s">
@@ -19904,9 +19923,9 @@
       <c r="AY70" s="1">
         <v>4113427033</v>
       </c>
-      <c r="BB70" s="18"/>
-      <c r="BC70" s="18"/>
-      <c r="BD70" s="18">
+      <c r="BB70" s="11"/>
+      <c r="BC70" s="11"/>
+      <c r="BD70" s="11">
         <v>2</v>
       </c>
       <c r="BE70" s="1" t="s">
@@ -19917,25 +19936,25 @@
       </c>
     </row>
     <row r="71" spans="42:58" x14ac:dyDescent="0.25">
-      <c r="AP71" s="18"/>
-      <c r="AQ71" s="18"/>
+      <c r="AP71" s="11"/>
+      <c r="AQ71" s="11"/>
       <c r="AR71" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AS71" s="1">
         <v>35489478519</v>
       </c>
-      <c r="AV71" s="12"/>
-      <c r="AW71" s="12"/>
+      <c r="AV71" s="14"/>
+      <c r="AW71" s="14"/>
       <c r="AX71" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AY71" s="1">
         <v>52904580841</v>
       </c>
-      <c r="BB71" s="18"/>
-      <c r="BC71" s="18"/>
-      <c r="BD71" s="18"/>
+      <c r="BB71" s="11"/>
+      <c r="BC71" s="11"/>
+      <c r="BD71" s="11"/>
       <c r="BE71" s="1" t="s">
         <v>16</v>
       </c>
@@ -19944,25 +19963,25 @@
       </c>
     </row>
     <row r="72" spans="42:58" x14ac:dyDescent="0.25">
-      <c r="AP72" s="18"/>
-      <c r="AQ72" s="18"/>
+      <c r="AP72" s="11"/>
+      <c r="AQ72" s="11"/>
       <c r="AR72" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AS72" s="1">
         <v>2863985296</v>
       </c>
-      <c r="AV72" s="12"/>
-      <c r="AW72" s="12"/>
+      <c r="AV72" s="14"/>
+      <c r="AW72" s="14"/>
       <c r="AX72" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AY72" s="1">
         <v>14472154</v>
       </c>
-      <c r="BB72" s="18"/>
-      <c r="BC72" s="18"/>
-      <c r="BD72" s="18"/>
+      <c r="BB72" s="11"/>
+      <c r="BC72" s="11"/>
+      <c r="BD72" s="11"/>
       <c r="BE72" s="1" t="s">
         <v>17</v>
       </c>
@@ -19971,25 +19990,25 @@
       </c>
     </row>
     <row r="73" spans="42:58" x14ac:dyDescent="0.25">
-      <c r="AP73" s="18"/>
-      <c r="AQ73" s="18"/>
+      <c r="AP73" s="11"/>
+      <c r="AQ73" s="11"/>
       <c r="AR73" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AS73" s="1">
         <v>27215716012</v>
       </c>
-      <c r="AV73" s="12"/>
-      <c r="AW73" s="13"/>
+      <c r="AV73" s="14"/>
+      <c r="AW73" s="15"/>
       <c r="AX73" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AY73" s="1">
         <v>3374464113</v>
       </c>
-      <c r="BB73" s="18"/>
-      <c r="BC73" s="18"/>
-      <c r="BD73" s="18"/>
+      <c r="BB73" s="11"/>
+      <c r="BC73" s="11"/>
+      <c r="BD73" s="11"/>
       <c r="BE73" s="1" t="s">
         <v>18</v>
       </c>
@@ -19998,8 +20017,8 @@
       </c>
     </row>
     <row r="74" spans="42:58" x14ac:dyDescent="0.25">
-      <c r="AP74" s="18"/>
-      <c r="AQ74" s="18">
+      <c r="AP74" s="11"/>
+      <c r="AQ74" s="11">
         <v>3</v>
       </c>
       <c r="AR74" s="1" t="s">
@@ -20008,8 +20027,8 @@
       <c r="AS74" s="1">
         <v>30915328563</v>
       </c>
-      <c r="AV74" s="12"/>
-      <c r="AW74" s="11">
+      <c r="AV74" s="14"/>
+      <c r="AW74" s="13">
         <v>3</v>
       </c>
       <c r="AX74" s="1" t="s">
@@ -20018,9 +20037,9 @@
       <c r="AY74" s="1">
         <v>4110900935</v>
       </c>
-      <c r="BB74" s="18"/>
-      <c r="BC74" s="18"/>
-      <c r="BD74" s="18">
+      <c r="BB74" s="11"/>
+      <c r="BC74" s="11"/>
+      <c r="BD74" s="11">
         <v>3</v>
       </c>
       <c r="BE74" s="1" t="s">
@@ -20031,25 +20050,25 @@
       </c>
     </row>
     <row r="75" spans="42:58" x14ac:dyDescent="0.25">
-      <c r="AP75" s="18"/>
-      <c r="AQ75" s="18"/>
+      <c r="AP75" s="11"/>
+      <c r="AQ75" s="11"/>
       <c r="AR75" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AS75" s="1">
         <v>35269417967</v>
       </c>
-      <c r="AV75" s="12"/>
-      <c r="AW75" s="12"/>
+      <c r="AV75" s="14"/>
+      <c r="AW75" s="14"/>
       <c r="AX75" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AY75" s="1">
         <v>52903952604</v>
       </c>
-      <c r="BB75" s="18"/>
-      <c r="BC75" s="18"/>
-      <c r="BD75" s="18"/>
+      <c r="BB75" s="11"/>
+      <c r="BC75" s="11"/>
+      <c r="BD75" s="11"/>
       <c r="BE75" s="1" t="s">
         <v>16</v>
       </c>
@@ -20058,25 +20077,25 @@
       </c>
     </row>
     <row r="76" spans="42:58" x14ac:dyDescent="0.25">
-      <c r="AP76" s="18"/>
-      <c r="AQ76" s="18"/>
+      <c r="AP76" s="11"/>
+      <c r="AQ76" s="11"/>
       <c r="AR76" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AS76" s="1">
         <v>3117068197</v>
       </c>
-      <c r="AV76" s="12"/>
-      <c r="AW76" s="12"/>
+      <c r="AV76" s="14"/>
+      <c r="AW76" s="14"/>
       <c r="AX76" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AY76" s="1">
         <v>13882358</v>
       </c>
-      <c r="BB76" s="18"/>
-      <c r="BC76" s="18"/>
-      <c r="BD76" s="18"/>
+      <c r="BB76" s="11"/>
+      <c r="BC76" s="11"/>
+      <c r="BD76" s="11"/>
       <c r="BE76" s="1" t="s">
         <v>17</v>
       </c>
@@ -20085,25 +20104,25 @@
       </c>
     </row>
     <row r="77" spans="42:58" x14ac:dyDescent="0.25">
-      <c r="AP77" s="18"/>
-      <c r="AQ77" s="18"/>
+      <c r="AP77" s="11"/>
+      <c r="AQ77" s="11"/>
       <c r="AR77" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AS77" s="1">
         <v>26941045014</v>
       </c>
-      <c r="AV77" s="13"/>
-      <c r="AW77" s="13"/>
+      <c r="AV77" s="15"/>
+      <c r="AW77" s="15"/>
       <c r="AX77" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AY77" s="1">
         <v>3362462183</v>
       </c>
-      <c r="BB77" s="18"/>
-      <c r="BC77" s="18"/>
-      <c r="BD77" s="18"/>
+      <c r="BB77" s="11"/>
+      <c r="BC77" s="11"/>
+      <c r="BD77" s="11"/>
       <c r="BE77" s="1" t="s">
         <v>18</v>
       </c>
@@ -20112,10 +20131,10 @@
       </c>
     </row>
     <row r="78" spans="42:58" x14ac:dyDescent="0.25">
-      <c r="AP78" s="18">
+      <c r="AP78" s="11">
         <v>3000</v>
       </c>
-      <c r="AQ78" s="18">
+      <c r="AQ78" s="11">
         <v>1</v>
       </c>
       <c r="AR78" s="1" t="s">
@@ -20124,10 +20143,10 @@
       <c r="AS78" s="1">
         <v>50423014056</v>
       </c>
-      <c r="AV78" s="11">
+      <c r="AV78" s="13">
         <v>3000</v>
       </c>
-      <c r="AW78" s="11">
+      <c r="AW78" s="13">
         <v>1</v>
       </c>
       <c r="AX78" s="1" t="s">
@@ -20136,11 +20155,11 @@
       <c r="AY78" s="1">
         <v>6574380759</v>
       </c>
-      <c r="BB78" s="18">
+      <c r="BB78" s="11">
         <v>512</v>
       </c>
-      <c r="BC78" s="18"/>
-      <c r="BD78" s="18">
+      <c r="BC78" s="11"/>
+      <c r="BD78" s="11">
         <v>1</v>
       </c>
       <c r="BE78" s="1" t="s">
@@ -20151,25 +20170,25 @@
       </c>
     </row>
     <row r="79" spans="42:58" x14ac:dyDescent="0.25">
-      <c r="AP79" s="18"/>
-      <c r="AQ79" s="18"/>
+      <c r="AP79" s="11"/>
+      <c r="AQ79" s="11"/>
       <c r="AR79" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AS79" s="1">
         <v>54224219334</v>
       </c>
-      <c r="AV79" s="12"/>
-      <c r="AW79" s="12"/>
+      <c r="AV79" s="14"/>
+      <c r="AW79" s="14"/>
       <c r="AX79" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AY79" s="1">
         <v>81227614672</v>
       </c>
-      <c r="BB79" s="18"/>
-      <c r="BC79" s="18"/>
-      <c r="BD79" s="18"/>
+      <c r="BB79" s="11"/>
+      <c r="BC79" s="11"/>
+      <c r="BD79" s="11"/>
       <c r="BE79" s="1" t="s">
         <v>16</v>
       </c>
@@ -20178,25 +20197,25 @@
       </c>
     </row>
     <row r="80" spans="42:58" x14ac:dyDescent="0.25">
-      <c r="AP80" s="18"/>
-      <c r="AQ80" s="18"/>
+      <c r="AP80" s="11"/>
+      <c r="AQ80" s="11"/>
       <c r="AR80" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AS80" s="1">
         <v>7679390317</v>
       </c>
-      <c r="AV80" s="12"/>
-      <c r="AW80" s="12"/>
+      <c r="AV80" s="14"/>
+      <c r="AW80" s="14"/>
       <c r="AX80" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AY80" s="1">
         <v>23161942</v>
       </c>
-      <c r="BB80" s="18"/>
-      <c r="BC80" s="18"/>
-      <c r="BD80" s="18"/>
+      <c r="BB80" s="11"/>
+      <c r="BC80" s="11"/>
+      <c r="BD80" s="11"/>
       <c r="BE80" s="1" t="s">
         <v>17</v>
       </c>
@@ -20205,25 +20224,25 @@
       </c>
     </row>
     <row r="81" spans="42:58" x14ac:dyDescent="0.25">
-      <c r="AP81" s="18"/>
-      <c r="AQ81" s="18"/>
+      <c r="AP81" s="11"/>
+      <c r="AQ81" s="11"/>
       <c r="AR81" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AS81" s="1">
         <v>41371458272</v>
       </c>
-      <c r="AV81" s="12"/>
-      <c r="AW81" s="13"/>
+      <c r="AV81" s="14"/>
+      <c r="AW81" s="15"/>
       <c r="AX81" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AY81" s="1">
         <v>5367379682</v>
       </c>
-      <c r="BB81" s="18"/>
-      <c r="BC81" s="18"/>
-      <c r="BD81" s="18"/>
+      <c r="BB81" s="11"/>
+      <c r="BC81" s="11"/>
+      <c r="BD81" s="11"/>
       <c r="BE81" s="1" t="s">
         <v>18</v>
       </c>
@@ -20232,8 +20251,8 @@
       </c>
     </row>
     <row r="82" spans="42:58" x14ac:dyDescent="0.25">
-      <c r="AP82" s="18"/>
-      <c r="AQ82" s="18">
+      <c r="AP82" s="11"/>
+      <c r="AQ82" s="11">
         <v>2</v>
       </c>
       <c r="AR82" s="1" t="s">
@@ -20242,8 +20261,8 @@
       <c r="AS82" s="1">
         <v>50415426554</v>
       </c>
-      <c r="AV82" s="12"/>
-      <c r="AW82" s="11">
+      <c r="AV82" s="14"/>
+      <c r="AW82" s="13">
         <v>2</v>
       </c>
       <c r="AX82" s="1" t="s">
@@ -20252,9 +20271,9 @@
       <c r="AY82" s="1">
         <v>6574220009</v>
       </c>
-      <c r="BB82" s="18"/>
-      <c r="BC82" s="18"/>
-      <c r="BD82" s="18">
+      <c r="BB82" s="11"/>
+      <c r="BC82" s="11"/>
+      <c r="BD82" s="11">
         <v>2</v>
       </c>
       <c r="BE82" s="1" t="s">
@@ -20265,25 +20284,25 @@
       </c>
     </row>
     <row r="83" spans="42:58" x14ac:dyDescent="0.25">
-      <c r="AP83" s="18"/>
-      <c r="AQ83" s="18"/>
+      <c r="AP83" s="11"/>
+      <c r="AQ83" s="11"/>
       <c r="AR83" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AS83" s="1">
         <v>54231930850</v>
       </c>
-      <c r="AV83" s="12"/>
-      <c r="AW83" s="12"/>
+      <c r="AV83" s="14"/>
+      <c r="AW83" s="14"/>
       <c r="AX83" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AY83" s="1">
         <v>81228088689</v>
       </c>
-      <c r="BB83" s="18"/>
-      <c r="BC83" s="18"/>
-      <c r="BD83" s="18"/>
+      <c r="BB83" s="11"/>
+      <c r="BC83" s="11"/>
+      <c r="BD83" s="11"/>
       <c r="BE83" s="1" t="s">
         <v>16</v>
       </c>
@@ -20292,25 +20311,25 @@
       </c>
     </row>
     <row r="84" spans="42:58" x14ac:dyDescent="0.25">
-      <c r="AP84" s="18"/>
-      <c r="AQ84" s="18"/>
+      <c r="AP84" s="11"/>
+      <c r="AQ84" s="11"/>
       <c r="AR84" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AS84" s="1">
         <v>8159453826</v>
       </c>
-      <c r="AV84" s="12"/>
-      <c r="AW84" s="12"/>
+      <c r="AV84" s="14"/>
+      <c r="AW84" s="14"/>
       <c r="AX84" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AY84" s="1">
         <v>23804219</v>
       </c>
-      <c r="BB84" s="18"/>
-      <c r="BC84" s="18"/>
-      <c r="BD84" s="18"/>
+      <c r="BB84" s="11"/>
+      <c r="BC84" s="11"/>
+      <c r="BD84" s="11"/>
       <c r="BE84" s="1" t="s">
         <v>17</v>
       </c>
@@ -20319,25 +20338,25 @@
       </c>
     </row>
     <row r="85" spans="42:58" x14ac:dyDescent="0.25">
-      <c r="AP85" s="18"/>
-      <c r="AQ85" s="18"/>
+      <c r="AP85" s="11"/>
+      <c r="AQ85" s="11"/>
       <c r="AR85" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AS85" s="1">
         <v>40860055976</v>
       </c>
-      <c r="AV85" s="12"/>
-      <c r="AW85" s="13"/>
+      <c r="AV85" s="14"/>
+      <c r="AW85" s="15"/>
       <c r="AX85" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AY85" s="1">
         <v>5367817852</v>
       </c>
-      <c r="BB85" s="18"/>
-      <c r="BC85" s="18"/>
-      <c r="BD85" s="18"/>
+      <c r="BB85" s="11"/>
+      <c r="BC85" s="11"/>
+      <c r="BD85" s="11"/>
       <c r="BE85" s="1" t="s">
         <v>18</v>
       </c>
@@ -20346,8 +20365,8 @@
       </c>
     </row>
     <row r="86" spans="42:58" x14ac:dyDescent="0.25">
-      <c r="AP86" s="18"/>
-      <c r="AQ86" s="18">
+      <c r="AP86" s="11"/>
+      <c r="AQ86" s="11">
         <v>3</v>
       </c>
       <c r="AR86" s="1" t="s">
@@ -20356,8 +20375,8 @@
       <c r="AS86" s="1">
         <v>50415080121</v>
       </c>
-      <c r="AV86" s="12"/>
-      <c r="AW86" s="11">
+      <c r="AV86" s="14"/>
+      <c r="AW86" s="13">
         <v>3</v>
       </c>
       <c r="AX86" s="1" t="s">
@@ -20366,9 +20385,9 @@
       <c r="AY86" s="1">
         <v>6575187650</v>
       </c>
-      <c r="BB86" s="18"/>
-      <c r="BC86" s="18"/>
-      <c r="BD86" s="18">
+      <c r="BB86" s="11"/>
+      <c r="BC86" s="11"/>
+      <c r="BD86" s="11">
         <v>3</v>
       </c>
       <c r="BE86" s="1" t="s">
@@ -20379,25 +20398,25 @@
       </c>
     </row>
     <row r="87" spans="42:58" x14ac:dyDescent="0.25">
-      <c r="AP87" s="18"/>
-      <c r="AQ87" s="18"/>
+      <c r="AP87" s="11"/>
+      <c r="AQ87" s="11"/>
       <c r="AR87" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AS87" s="1">
         <v>54232555565</v>
       </c>
-      <c r="AV87" s="12"/>
-      <c r="AW87" s="12"/>
+      <c r="AV87" s="14"/>
+      <c r="AW87" s="14"/>
       <c r="AX87" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AY87" s="1">
         <v>81228539484</v>
       </c>
-      <c r="BB87" s="18"/>
-      <c r="BC87" s="18"/>
-      <c r="BD87" s="18"/>
+      <c r="BB87" s="11"/>
+      <c r="BC87" s="11"/>
+      <c r="BD87" s="11"/>
       <c r="BE87" s="1" t="s">
         <v>16</v>
       </c>
@@ -20406,25 +20425,25 @@
       </c>
     </row>
     <row r="88" spans="42:58" x14ac:dyDescent="0.25">
-      <c r="AP88" s="18"/>
-      <c r="AQ88" s="18"/>
+      <c r="AP88" s="11"/>
+      <c r="AQ88" s="11"/>
       <c r="AR88" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AS88" s="1">
         <v>7314524238</v>
       </c>
-      <c r="AV88" s="12"/>
-      <c r="AW88" s="12"/>
+      <c r="AV88" s="14"/>
+      <c r="AW88" s="14"/>
       <c r="AX88" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AY88" s="1">
         <v>23311680</v>
       </c>
-      <c r="BB88" s="18"/>
-      <c r="BC88" s="18"/>
-      <c r="BD88" s="18"/>
+      <c r="BB88" s="11"/>
+      <c r="BC88" s="11"/>
+      <c r="BD88" s="11"/>
       <c r="BE88" s="1" t="s">
         <v>17</v>
       </c>
@@ -20433,25 +20452,25 @@
       </c>
     </row>
     <row r="89" spans="42:58" x14ac:dyDescent="0.25">
-      <c r="AP89" s="18"/>
-      <c r="AQ89" s="18"/>
+      <c r="AP89" s="11"/>
+      <c r="AQ89" s="11"/>
       <c r="AR89" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AS89" s="1">
         <v>41768779032</v>
       </c>
-      <c r="AV89" s="13"/>
-      <c r="AW89" s="13"/>
+      <c r="AV89" s="15"/>
+      <c r="AW89" s="15"/>
       <c r="AX89" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AY89" s="1">
         <v>5352246119</v>
       </c>
-      <c r="BB89" s="18"/>
-      <c r="BC89" s="18"/>
-      <c r="BD89" s="18"/>
+      <c r="BB89" s="11"/>
+      <c r="BC89" s="11"/>
+      <c r="BD89" s="11"/>
       <c r="BE89" s="1" t="s">
         <v>18</v>
       </c>
@@ -20460,10 +20479,10 @@
       </c>
     </row>
     <row r="90" spans="42:58" x14ac:dyDescent="0.25">
-      <c r="AV90" s="11">
+      <c r="AV90" s="13">
         <v>4096</v>
       </c>
-      <c r="AW90" s="11">
+      <c r="AW90" s="13">
         <v>1</v>
       </c>
       <c r="AX90" s="1" t="s">
@@ -20472,11 +20491,11 @@
       <c r="AY90" s="1">
         <v>17295801345</v>
       </c>
-      <c r="BB90" s="18">
+      <c r="BB90" s="11">
         <v>1024</v>
       </c>
-      <c r="BC90" s="18"/>
-      <c r="BD90" s="18">
+      <c r="BC90" s="11"/>
+      <c r="BD90" s="11">
         <v>1</v>
       </c>
       <c r="BE90" s="1" t="s">
@@ -20487,17 +20506,17 @@
       </c>
     </row>
     <row r="91" spans="42:58" x14ac:dyDescent="0.25">
-      <c r="AV91" s="12"/>
-      <c r="AW91" s="12"/>
+      <c r="AV91" s="14"/>
+      <c r="AW91" s="14"/>
       <c r="AX91" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AY91" s="1">
         <v>206639597321</v>
       </c>
-      <c r="BB91" s="18"/>
-      <c r="BC91" s="18"/>
-      <c r="BD91" s="18"/>
+      <c r="BB91" s="11"/>
+      <c r="BC91" s="11"/>
+      <c r="BD91" s="11"/>
       <c r="BE91" s="1" t="s">
         <v>16</v>
       </c>
@@ -20506,17 +20525,17 @@
       </c>
     </row>
     <row r="92" spans="42:58" x14ac:dyDescent="0.25">
-      <c r="AV92" s="12"/>
-      <c r="AW92" s="12"/>
+      <c r="AV92" s="14"/>
+      <c r="AW92" s="14"/>
       <c r="AX92" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AY92" s="1">
         <v>70238934</v>
       </c>
-      <c r="BB92" s="18"/>
-      <c r="BC92" s="18"/>
-      <c r="BD92" s="18"/>
+      <c r="BB92" s="11"/>
+      <c r="BC92" s="11"/>
+      <c r="BD92" s="11"/>
       <c r="BE92" s="1" t="s">
         <v>17</v>
       </c>
@@ -20525,17 +20544,17 @@
       </c>
     </row>
     <row r="93" spans="42:58" x14ac:dyDescent="0.25">
-      <c r="AV93" s="12"/>
-      <c r="AW93" s="13"/>
+      <c r="AV93" s="14"/>
+      <c r="AW93" s="15"/>
       <c r="AX93" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AY93" s="1">
         <v>13689300207</v>
       </c>
-      <c r="BB93" s="18"/>
-      <c r="BC93" s="18"/>
-      <c r="BD93" s="18"/>
+      <c r="BB93" s="11"/>
+      <c r="BC93" s="11"/>
+      <c r="BD93" s="11"/>
       <c r="BE93" s="1" t="s">
         <v>18</v>
       </c>
@@ -20544,8 +20563,8 @@
       </c>
     </row>
     <row r="94" spans="42:58" x14ac:dyDescent="0.25">
-      <c r="AV94" s="12"/>
-      <c r="AW94" s="11">
+      <c r="AV94" s="14"/>
+      <c r="AW94" s="13">
         <v>2</v>
       </c>
       <c r="AX94" s="1" t="s">
@@ -20554,9 +20573,9 @@
       <c r="AY94" s="1">
         <v>17298028955</v>
       </c>
-      <c r="BB94" s="18"/>
-      <c r="BC94" s="18"/>
-      <c r="BD94" s="18">
+      <c r="BB94" s="11"/>
+      <c r="BC94" s="11"/>
+      <c r="BD94" s="11">
         <v>2</v>
       </c>
       <c r="BE94" s="1" t="s">
@@ -20567,17 +20586,17 @@
       </c>
     </row>
     <row r="95" spans="42:58" x14ac:dyDescent="0.25">
-      <c r="AV95" s="12"/>
-      <c r="AW95" s="12"/>
+      <c r="AV95" s="14"/>
+      <c r="AW95" s="14"/>
       <c r="AX95" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AY95" s="1">
         <v>206638783432</v>
       </c>
-      <c r="BB95" s="18"/>
-      <c r="BC95" s="18"/>
-      <c r="BD95" s="18"/>
+      <c r="BB95" s="11"/>
+      <c r="BC95" s="11"/>
+      <c r="BD95" s="11"/>
       <c r="BE95" s="1" t="s">
         <v>16</v>
       </c>
@@ -20586,17 +20605,17 @@
       </c>
     </row>
     <row r="96" spans="42:58" x14ac:dyDescent="0.25">
-      <c r="AV96" s="12"/>
-      <c r="AW96" s="12"/>
+      <c r="AV96" s="14"/>
+      <c r="AW96" s="14"/>
       <c r="AX96" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AY96" s="1">
         <v>72387379</v>
       </c>
-      <c r="BB96" s="18"/>
-      <c r="BC96" s="18"/>
-      <c r="BD96" s="18"/>
+      <c r="BB96" s="11"/>
+      <c r="BC96" s="11"/>
+      <c r="BD96" s="11"/>
       <c r="BE96" s="1" t="s">
         <v>17</v>
       </c>
@@ -20605,17 +20624,17 @@
       </c>
     </row>
     <row r="97" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV97" s="12"/>
-      <c r="AW97" s="13"/>
+      <c r="AV97" s="14"/>
+      <c r="AW97" s="15"/>
       <c r="AX97" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AY97" s="1">
         <v>13819896170</v>
       </c>
-      <c r="BB97" s="18"/>
-      <c r="BC97" s="18"/>
-      <c r="BD97" s="18"/>
+      <c r="BB97" s="11"/>
+      <c r="BC97" s="11"/>
+      <c r="BD97" s="11"/>
       <c r="BE97" s="1" t="s">
         <v>18</v>
       </c>
@@ -20624,8 +20643,8 @@
       </c>
     </row>
     <row r="98" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV98" s="12"/>
-      <c r="AW98" s="11">
+      <c r="AV98" s="14"/>
+      <c r="AW98" s="13">
         <v>3</v>
       </c>
       <c r="AX98" s="1" t="s">
@@ -20634,9 +20653,9 @@
       <c r="AY98" s="1">
         <v>17268537900</v>
       </c>
-      <c r="BB98" s="18"/>
-      <c r="BC98" s="18"/>
-      <c r="BD98" s="18">
+      <c r="BB98" s="11"/>
+      <c r="BC98" s="11"/>
+      <c r="BD98" s="11">
         <v>3</v>
       </c>
       <c r="BE98" s="1" t="s">
@@ -20647,17 +20666,17 @@
       </c>
     </row>
     <row r="99" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV99" s="12"/>
-      <c r="AW99" s="12"/>
+      <c r="AV99" s="14"/>
+      <c r="AW99" s="14"/>
       <c r="AX99" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AY99" s="1">
         <v>206637561164</v>
       </c>
-      <c r="BB99" s="18"/>
-      <c r="BC99" s="18"/>
-      <c r="BD99" s="18"/>
+      <c r="BB99" s="11"/>
+      <c r="BC99" s="11"/>
+      <c r="BD99" s="11"/>
       <c r="BE99" s="1" t="s">
         <v>16</v>
       </c>
@@ -20666,17 +20685,17 @@
       </c>
     </row>
     <row r="100" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV100" s="12"/>
-      <c r="AW100" s="12"/>
+      <c r="AV100" s="14"/>
+      <c r="AW100" s="14"/>
       <c r="AX100" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AY100" s="1">
         <v>74531090</v>
       </c>
-      <c r="BB100" s="18"/>
-      <c r="BC100" s="18"/>
-      <c r="BD100" s="18"/>
+      <c r="BB100" s="11"/>
+      <c r="BC100" s="11"/>
+      <c r="BD100" s="11"/>
       <c r="BE100" s="1" t="s">
         <v>17</v>
       </c>
@@ -20685,17 +20704,17 @@
       </c>
     </row>
     <row r="101" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV101" s="13"/>
-      <c r="AW101" s="13"/>
+      <c r="AV101" s="15"/>
+      <c r="AW101" s="15"/>
       <c r="AX101" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AY101" s="1">
         <v>13717145574</v>
       </c>
-      <c r="BB101" s="18"/>
-      <c r="BC101" s="18"/>
-      <c r="BD101" s="18"/>
+      <c r="BB101" s="11"/>
+      <c r="BC101" s="11"/>
+      <c r="BD101" s="11"/>
       <c r="BE101" s="1" t="s">
         <v>18</v>
       </c>
@@ -20704,10 +20723,10 @@
       </c>
     </row>
     <row r="102" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV102" s="11">
+      <c r="AV102" s="13">
         <v>6144</v>
       </c>
-      <c r="AW102" s="11">
+      <c r="AW102" s="13">
         <v>1</v>
       </c>
       <c r="AX102" s="1" t="s">
@@ -20716,13 +20735,13 @@
       <c r="AY102" s="1">
         <v>58311228946</v>
       </c>
-      <c r="BB102" s="18">
+      <c r="BB102" s="11">
         <v>128</v>
       </c>
-      <c r="BC102" s="18">
+      <c r="BC102" s="11">
         <v>8192</v>
       </c>
-      <c r="BD102" s="18">
+      <c r="BD102" s="11">
         <v>1</v>
       </c>
       <c r="BE102" s="1" t="s">
@@ -20733,17 +20752,17 @@
       </c>
     </row>
     <row r="103" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV103" s="12"/>
-      <c r="AW103" s="12"/>
+      <c r="AV103" s="14"/>
+      <c r="AW103" s="14"/>
       <c r="AX103" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AY103" s="1">
         <v>696996204491</v>
       </c>
-      <c r="BB103" s="18"/>
-      <c r="BC103" s="18"/>
-      <c r="BD103" s="18"/>
+      <c r="BB103" s="11"/>
+      <c r="BC103" s="11"/>
+      <c r="BD103" s="11"/>
       <c r="BE103" s="1" t="s">
         <v>16</v>
       </c>
@@ -20752,17 +20771,17 @@
       </c>
     </row>
     <row r="104" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV104" s="12"/>
-      <c r="AW104" s="12"/>
+      <c r="AV104" s="14"/>
+      <c r="AW104" s="14"/>
       <c r="AX104" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AY104" s="1">
         <v>313129312</v>
       </c>
-      <c r="BB104" s="18"/>
-      <c r="BC104" s="18"/>
-      <c r="BD104" s="18"/>
+      <c r="BB104" s="11"/>
+      <c r="BC104" s="11"/>
+      <c r="BD104" s="11"/>
       <c r="BE104" s="1" t="s">
         <v>17</v>
       </c>
@@ -20771,17 +20790,17 @@
       </c>
     </row>
     <row r="105" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV105" s="12"/>
-      <c r="AW105" s="13"/>
+      <c r="AV105" s="14"/>
+      <c r="AW105" s="15"/>
       <c r="AX105" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AY105" s="1">
         <v>45656488257</v>
       </c>
-      <c r="BB105" s="18"/>
-      <c r="BC105" s="18"/>
-      <c r="BD105" s="18"/>
+      <c r="BB105" s="11"/>
+      <c r="BC105" s="11"/>
+      <c r="BD105" s="11"/>
       <c r="BE105" s="1" t="s">
         <v>18</v>
       </c>
@@ -20790,8 +20809,8 @@
       </c>
     </row>
     <row r="106" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV106" s="12"/>
-      <c r="AW106" s="11">
+      <c r="AV106" s="14"/>
+      <c r="AW106" s="13">
         <v>2</v>
       </c>
       <c r="AX106" s="1" t="s">
@@ -20800,9 +20819,9 @@
       <c r="AY106" s="1">
         <v>58311051794</v>
       </c>
-      <c r="BB106" s="18"/>
-      <c r="BC106" s="18"/>
-      <c r="BD106" s="18">
+      <c r="BB106" s="11"/>
+      <c r="BC106" s="11"/>
+      <c r="BD106" s="11">
         <v>2</v>
       </c>
       <c r="BE106" s="1" t="s">
@@ -20813,17 +20832,17 @@
       </c>
     </row>
     <row r="107" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV107" s="12"/>
-      <c r="AW107" s="12"/>
+      <c r="AV107" s="14"/>
+      <c r="AW107" s="14"/>
       <c r="AX107" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AY107" s="1">
         <v>696989350448</v>
       </c>
-      <c r="BB107" s="18"/>
-      <c r="BC107" s="18"/>
-      <c r="BD107" s="18"/>
+      <c r="BB107" s="11"/>
+      <c r="BC107" s="11"/>
+      <c r="BD107" s="11"/>
       <c r="BE107" s="1" t="s">
         <v>16</v>
       </c>
@@ -20832,17 +20851,17 @@
       </c>
     </row>
     <row r="108" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV108" s="12"/>
-      <c r="AW108" s="12"/>
+      <c r="AV108" s="14"/>
+      <c r="AW108" s="14"/>
       <c r="AX108" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AY108" s="1">
         <v>346781540</v>
       </c>
-      <c r="BB108" s="18"/>
-      <c r="BC108" s="18"/>
-      <c r="BD108" s="18"/>
+      <c r="BB108" s="11"/>
+      <c r="BC108" s="11"/>
+      <c r="BD108" s="11"/>
       <c r="BE108" s="1" t="s">
         <v>17</v>
       </c>
@@ -20851,17 +20870,17 @@
       </c>
     </row>
     <row r="109" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV109" s="12"/>
-      <c r="AW109" s="13"/>
+      <c r="AV109" s="14"/>
+      <c r="AW109" s="15"/>
       <c r="AX109" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AY109" s="1">
         <v>45960199357</v>
       </c>
-      <c r="BB109" s="18"/>
-      <c r="BC109" s="18"/>
-      <c r="BD109" s="18"/>
+      <c r="BB109" s="11"/>
+      <c r="BC109" s="11"/>
+      <c r="BD109" s="11"/>
       <c r="BE109" s="1" t="s">
         <v>18</v>
       </c>
@@ -20870,8 +20889,8 @@
       </c>
     </row>
     <row r="110" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV110" s="12"/>
-      <c r="AW110" s="11">
+      <c r="AV110" s="14"/>
+      <c r="AW110" s="13">
         <v>3</v>
       </c>
       <c r="AX110" s="1" t="s">
@@ -20880,9 +20899,9 @@
       <c r="AY110" s="1">
         <v>58312657592</v>
       </c>
-      <c r="BB110" s="18"/>
-      <c r="BC110" s="18"/>
-      <c r="BD110" s="18">
+      <c r="BB110" s="11"/>
+      <c r="BC110" s="11"/>
+      <c r="BD110" s="11">
         <v>3</v>
       </c>
       <c r="BE110" s="1" t="s">
@@ -20893,17 +20912,17 @@
       </c>
     </row>
     <row r="111" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV111" s="12"/>
-      <c r="AW111" s="12"/>
+      <c r="AV111" s="14"/>
+      <c r="AW111" s="14"/>
       <c r="AX111" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AY111" s="1">
         <v>696992189759</v>
       </c>
-      <c r="BB111" s="18"/>
-      <c r="BC111" s="18"/>
-      <c r="BD111" s="18"/>
+      <c r="BB111" s="11"/>
+      <c r="BC111" s="11"/>
+      <c r="BD111" s="11"/>
       <c r="BE111" s="1" t="s">
         <v>16</v>
       </c>
@@ -20912,17 +20931,17 @@
       </c>
     </row>
     <row r="112" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV112" s="12"/>
-      <c r="AW112" s="12"/>
+      <c r="AV112" s="14"/>
+      <c r="AW112" s="14"/>
       <c r="AX112" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AY112" s="1">
         <v>209982485</v>
       </c>
-      <c r="BB112" s="18"/>
-      <c r="BC112" s="18"/>
-      <c r="BD112" s="18"/>
+      <c r="BB112" s="11"/>
+      <c r="BC112" s="11"/>
+      <c r="BD112" s="11"/>
       <c r="BE112" s="1" t="s">
         <v>17</v>
       </c>
@@ -20931,17 +20950,17 @@
       </c>
     </row>
     <row r="113" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV113" s="13"/>
-      <c r="AW113" s="13"/>
+      <c r="AV113" s="15"/>
+      <c r="AW113" s="15"/>
       <c r="AX113" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AY113" s="1">
         <v>45719159805</v>
       </c>
-      <c r="BB113" s="18"/>
-      <c r="BC113" s="18"/>
-      <c r="BD113" s="18"/>
+      <c r="BB113" s="11"/>
+      <c r="BC113" s="11"/>
+      <c r="BD113" s="11"/>
       <c r="BE113" s="1" t="s">
         <v>18</v>
       </c>
@@ -20950,10 +20969,10 @@
       </c>
     </row>
     <row r="114" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV114" s="11">
+      <c r="AV114" s="13">
         <v>8192</v>
       </c>
-      <c r="AW114" s="11">
+      <c r="AW114" s="13">
         <v>1</v>
       </c>
       <c r="AX114" s="1" t="s">
@@ -20962,11 +20981,11 @@
       <c r="AY114" s="1">
         <v>138151894410</v>
       </c>
-      <c r="BB114" s="18">
+      <c r="BB114" s="11">
         <v>256</v>
       </c>
-      <c r="BC114" s="18"/>
-      <c r="BD114" s="18">
+      <c r="BC114" s="11"/>
+      <c r="BD114" s="11">
         <v>1</v>
       </c>
       <c r="BE114" s="1" t="s">
@@ -20977,17 +20996,17 @@
       </c>
     </row>
     <row r="115" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV115" s="12"/>
-      <c r="AW115" s="12"/>
+      <c r="AV115" s="14"/>
+      <c r="AW115" s="14"/>
       <c r="AX115" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AY115" s="1">
         <v>1651838062287</v>
       </c>
-      <c r="BB115" s="18"/>
-      <c r="BC115" s="18"/>
-      <c r="BD115" s="18"/>
+      <c r="BB115" s="11"/>
+      <c r="BC115" s="11"/>
+      <c r="BD115" s="11"/>
       <c r="BE115" s="1" t="s">
         <v>16</v>
       </c>
@@ -20996,17 +21015,17 @@
       </c>
     </row>
     <row r="116" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV116" s="12"/>
-      <c r="AW116" s="12"/>
+      <c r="AV116" s="14"/>
+      <c r="AW116" s="14"/>
       <c r="AX116" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AY116" s="1">
         <v>773511907</v>
       </c>
-      <c r="BB116" s="18"/>
-      <c r="BC116" s="18"/>
-      <c r="BD116" s="18"/>
+      <c r="BB116" s="11"/>
+      <c r="BC116" s="11"/>
+      <c r="BD116" s="11"/>
       <c r="BE116" s="1" t="s">
         <v>17</v>
       </c>
@@ -21015,17 +21034,17 @@
       </c>
     </row>
     <row r="117" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV117" s="12"/>
-      <c r="AW117" s="13"/>
+      <c r="AV117" s="14"/>
+      <c r="AW117" s="15"/>
       <c r="AX117" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AY117" s="1">
         <v>107860611664</v>
       </c>
-      <c r="BB117" s="18"/>
-      <c r="BC117" s="18"/>
-      <c r="BD117" s="18"/>
+      <c r="BB117" s="11"/>
+      <c r="BC117" s="11"/>
+      <c r="BD117" s="11"/>
       <c r="BE117" s="1" t="s">
         <v>18</v>
       </c>
@@ -21034,8 +21053,8 @@
       </c>
     </row>
     <row r="118" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV118" s="12"/>
-      <c r="AW118" s="11">
+      <c r="AV118" s="14"/>
+      <c r="AW118" s="13">
         <v>2</v>
       </c>
       <c r="AX118" s="1" t="s">
@@ -21044,9 +21063,9 @@
       <c r="AY118" s="1">
         <v>138147921964</v>
       </c>
-      <c r="BB118" s="18"/>
-      <c r="BC118" s="18"/>
-      <c r="BD118" s="18">
+      <c r="BB118" s="11"/>
+      <c r="BC118" s="11"/>
+      <c r="BD118" s="11">
         <v>2</v>
       </c>
       <c r="BE118" s="1" t="s">
@@ -21057,17 +21076,17 @@
       </c>
     </row>
     <row r="119" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV119" s="12"/>
-      <c r="AW119" s="12"/>
+      <c r="AV119" s="14"/>
+      <c r="AW119" s="14"/>
       <c r="AX119" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AY119" s="1">
         <v>1651843059571</v>
       </c>
-      <c r="BB119" s="18"/>
-      <c r="BC119" s="18"/>
-      <c r="BD119" s="18"/>
+      <c r="BB119" s="11"/>
+      <c r="BC119" s="11"/>
+      <c r="BD119" s="11"/>
       <c r="BE119" s="1" t="s">
         <v>16</v>
       </c>
@@ -21076,17 +21095,17 @@
       </c>
     </row>
     <row r="120" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV120" s="12"/>
-      <c r="AW120" s="12"/>
+      <c r="AV120" s="14"/>
+      <c r="AW120" s="14"/>
       <c r="AX120" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AY120" s="1">
         <v>757837402</v>
       </c>
-      <c r="BB120" s="18"/>
-      <c r="BC120" s="18"/>
-      <c r="BD120" s="18"/>
+      <c r="BB120" s="11"/>
+      <c r="BC120" s="11"/>
+      <c r="BD120" s="11"/>
       <c r="BE120" s="1" t="s">
         <v>17</v>
       </c>
@@ -21095,17 +21114,17 @@
       </c>
     </row>
     <row r="121" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV121" s="12"/>
-      <c r="AW121" s="13"/>
+      <c r="AV121" s="14"/>
+      <c r="AW121" s="15"/>
       <c r="AX121" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AY121" s="1">
         <v>108085645238</v>
       </c>
-      <c r="BB121" s="18"/>
-      <c r="BC121" s="18"/>
-      <c r="BD121" s="18"/>
+      <c r="BB121" s="11"/>
+      <c r="BC121" s="11"/>
+      <c r="BD121" s="11"/>
       <c r="BE121" s="1" t="s">
         <v>18</v>
       </c>
@@ -21114,8 +21133,8 @@
       </c>
     </row>
     <row r="122" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV122" s="12"/>
-      <c r="AW122" s="11">
+      <c r="AV122" s="14"/>
+      <c r="AW122" s="13">
         <v>3</v>
       </c>
       <c r="AX122" s="1" t="s">
@@ -21124,9 +21143,9 @@
       <c r="AY122" s="1">
         <v>138147141741</v>
       </c>
-      <c r="BB122" s="18"/>
-      <c r="BC122" s="18"/>
-      <c r="BD122" s="18">
+      <c r="BB122" s="11"/>
+      <c r="BC122" s="11"/>
+      <c r="BD122" s="11">
         <v>3</v>
       </c>
       <c r="BE122" s="1" t="s">
@@ -21137,17 +21156,17 @@
       </c>
     </row>
     <row r="123" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV123" s="12"/>
-      <c r="AW123" s="12"/>
+      <c r="AV123" s="14"/>
+      <c r="AW123" s="14"/>
       <c r="AX123" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AY123" s="1">
         <v>1651832879928</v>
       </c>
-      <c r="BB123" s="18"/>
-      <c r="BC123" s="18"/>
-      <c r="BD123" s="18"/>
+      <c r="BB123" s="11"/>
+      <c r="BC123" s="11"/>
+      <c r="BD123" s="11"/>
       <c r="BE123" s="1" t="s">
         <v>16</v>
       </c>
@@ -21156,17 +21175,17 @@
       </c>
     </row>
     <row r="124" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV124" s="12"/>
-      <c r="AW124" s="12"/>
+      <c r="AV124" s="14"/>
+      <c r="AW124" s="14"/>
       <c r="AX124" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AY124" s="1">
         <v>733811578</v>
       </c>
-      <c r="BB124" s="18"/>
-      <c r="BC124" s="18"/>
-      <c r="BD124" s="18"/>
+      <c r="BB124" s="11"/>
+      <c r="BC124" s="11"/>
+      <c r="BD124" s="11"/>
       <c r="BE124" s="1" t="s">
         <v>17</v>
       </c>
@@ -21175,17 +21194,17 @@
       </c>
     </row>
     <row r="125" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV125" s="13"/>
-      <c r="AW125" s="13"/>
+      <c r="AV125" s="15"/>
+      <c r="AW125" s="15"/>
       <c r="AX125" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AY125" s="1">
         <v>107995082263</v>
       </c>
-      <c r="BB125" s="18"/>
-      <c r="BC125" s="18"/>
-      <c r="BD125" s="18"/>
+      <c r="BB125" s="11"/>
+      <c r="BC125" s="11"/>
+      <c r="BD125" s="11"/>
       <c r="BE125" s="1" t="s">
         <v>18</v>
       </c>
@@ -21194,10 +21213,10 @@
       </c>
     </row>
     <row r="126" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV126" s="11">
+      <c r="AV126" s="13">
         <v>10240</v>
       </c>
-      <c r="AW126" s="11">
+      <c r="AW126" s="13">
         <v>1</v>
       </c>
       <c r="AX126" s="1" t="s">
@@ -21206,11 +21225,11 @@
       <c r="AY126" s="1">
         <v>269769460898</v>
       </c>
-      <c r="BB126" s="18">
+      <c r="BB126" s="11">
         <v>512</v>
       </c>
-      <c r="BC126" s="18"/>
-      <c r="BD126" s="18">
+      <c r="BC126" s="11"/>
+      <c r="BD126" s="11">
         <v>1</v>
       </c>
       <c r="BE126" s="1" t="s">
@@ -21221,17 +21240,17 @@
       </c>
     </row>
     <row r="127" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV127" s="12"/>
-      <c r="AW127" s="12"/>
+      <c r="AV127" s="14"/>
+      <c r="AW127" s="14"/>
       <c r="AX127" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AY127" s="1">
         <v>3225675588828</v>
       </c>
-      <c r="BB127" s="18"/>
-      <c r="BC127" s="18"/>
-      <c r="BD127" s="18"/>
+      <c r="BB127" s="11"/>
+      <c r="BC127" s="11"/>
+      <c r="BD127" s="11"/>
       <c r="BE127" s="1" t="s">
         <v>16</v>
       </c>
@@ -21240,17 +21259,17 @@
       </c>
     </row>
     <row r="128" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV128" s="12"/>
-      <c r="AW128" s="12"/>
+      <c r="AV128" s="14"/>
+      <c r="AW128" s="14"/>
       <c r="AX128" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AY128" s="1">
         <v>1485495447</v>
       </c>
-      <c r="BB128" s="18"/>
-      <c r="BC128" s="18"/>
-      <c r="BD128" s="18"/>
+      <c r="BB128" s="11"/>
+      <c r="BC128" s="11"/>
+      <c r="BD128" s="11"/>
       <c r="BE128" s="1" t="s">
         <v>17</v>
       </c>
@@ -21259,17 +21278,17 @@
       </c>
     </row>
     <row r="129" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV129" s="12"/>
-      <c r="AW129" s="13"/>
+      <c r="AV129" s="14"/>
+      <c r="AW129" s="15"/>
       <c r="AX129" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AY129" s="1">
         <v>210689431604</v>
       </c>
-      <c r="BB129" s="18"/>
-      <c r="BC129" s="18"/>
-      <c r="BD129" s="18"/>
+      <c r="BB129" s="11"/>
+      <c r="BC129" s="11"/>
+      <c r="BD129" s="11"/>
       <c r="BE129" s="1" t="s">
         <v>18</v>
       </c>
@@ -21278,8 +21297,8 @@
       </c>
     </row>
     <row r="130" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV130" s="12"/>
-      <c r="AW130" s="11">
+      <c r="AV130" s="14"/>
+      <c r="AW130" s="13">
         <v>2</v>
       </c>
       <c r="AX130" s="1" t="s">
@@ -21288,9 +21307,9 @@
       <c r="AY130" s="1">
         <v>269761748878</v>
       </c>
-      <c r="BB130" s="18"/>
-      <c r="BC130" s="18"/>
-      <c r="BD130" s="18">
+      <c r="BB130" s="11"/>
+      <c r="BC130" s="11"/>
+      <c r="BD130" s="11">
         <v>2</v>
       </c>
       <c r="BE130" s="1" t="s">
@@ -21301,17 +21320,17 @@
       </c>
     </row>
     <row r="131" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV131" s="12"/>
-      <c r="AW131" s="12"/>
+      <c r="AV131" s="14"/>
+      <c r="AW131" s="14"/>
       <c r="AX131" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AY131" s="1">
         <v>3225687956137</v>
       </c>
-      <c r="BB131" s="18"/>
-      <c r="BC131" s="18"/>
-      <c r="BD131" s="18"/>
+      <c r="BB131" s="11"/>
+      <c r="BC131" s="11"/>
+      <c r="BD131" s="11"/>
       <c r="BE131" s="1" t="s">
         <v>16</v>
       </c>
@@ -21320,17 +21339,17 @@
       </c>
     </row>
     <row r="132" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV132" s="12"/>
-      <c r="AW132" s="12"/>
+      <c r="AV132" s="14"/>
+      <c r="AW132" s="14"/>
       <c r="AX132" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AY132" s="1">
         <v>1793708222</v>
       </c>
-      <c r="BB132" s="18"/>
-      <c r="BC132" s="18"/>
-      <c r="BD132" s="18"/>
+      <c r="BB132" s="11"/>
+      <c r="BC132" s="11"/>
+      <c r="BD132" s="11"/>
       <c r="BE132" s="1" t="s">
         <v>17</v>
       </c>
@@ -21339,17 +21358,17 @@
       </c>
     </row>
     <row r="133" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV133" s="12"/>
-      <c r="AW133" s="13"/>
+      <c r="AV133" s="14"/>
+      <c r="AW133" s="15"/>
       <c r="AX133" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AY133" s="1">
         <v>211396754336</v>
       </c>
-      <c r="BB133" s="18"/>
-      <c r="BC133" s="18"/>
-      <c r="BD133" s="18"/>
+      <c r="BB133" s="11"/>
+      <c r="BC133" s="11"/>
+      <c r="BD133" s="11"/>
       <c r="BE133" s="1" t="s">
         <v>18</v>
       </c>
@@ -21358,8 +21377,8 @@
       </c>
     </row>
     <row r="134" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV134" s="12"/>
-      <c r="AW134" s="11">
+      <c r="AV134" s="14"/>
+      <c r="AW134" s="13">
         <v>3</v>
       </c>
       <c r="AX134" s="1" t="s">
@@ -21368,9 +21387,9 @@
       <c r="AY134" s="1">
         <v>269766690736</v>
       </c>
-      <c r="BB134" s="18"/>
-      <c r="BC134" s="18"/>
-      <c r="BD134" s="18">
+      <c r="BB134" s="11"/>
+      <c r="BC134" s="11"/>
+      <c r="BD134" s="11">
         <v>3</v>
       </c>
       <c r="BE134" s="1" t="s">
@@ -21381,17 +21400,17 @@
       </c>
     </row>
     <row r="135" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV135" s="12"/>
-      <c r="AW135" s="12"/>
+      <c r="AV135" s="14"/>
+      <c r="AW135" s="14"/>
       <c r="AX135" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AY135" s="1">
         <v>3225679687098</v>
       </c>
-      <c r="BB135" s="18"/>
-      <c r="BC135" s="18"/>
-      <c r="BD135" s="18"/>
+      <c r="BB135" s="11"/>
+      <c r="BC135" s="11"/>
+      <c r="BD135" s="11"/>
       <c r="BE135" s="1" t="s">
         <v>16</v>
       </c>
@@ -21400,17 +21419,17 @@
       </c>
     </row>
     <row r="136" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV136" s="12"/>
-      <c r="AW136" s="12"/>
+      <c r="AV136" s="14"/>
+      <c r="AW136" s="14"/>
       <c r="AX136" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AY136" s="1">
         <v>1414348184</v>
       </c>
-      <c r="BB136" s="18"/>
-      <c r="BC136" s="18"/>
-      <c r="BD136" s="18"/>
+      <c r="BB136" s="11"/>
+      <c r="BC136" s="11"/>
+      <c r="BD136" s="11"/>
       <c r="BE136" s="1" t="s">
         <v>17</v>
       </c>
@@ -21419,17 +21438,17 @@
       </c>
     </row>
     <row r="137" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="AV137" s="13"/>
-      <c r="AW137" s="13"/>
+      <c r="AV137" s="15"/>
+      <c r="AW137" s="15"/>
       <c r="AX137" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AY137" s="1">
         <v>210696257764</v>
       </c>
-      <c r="BB137" s="18"/>
-      <c r="BC137" s="18"/>
-      <c r="BD137" s="18"/>
+      <c r="BB137" s="11"/>
+      <c r="BC137" s="11"/>
+      <c r="BD137" s="11"/>
       <c r="BE137" s="1" t="s">
         <v>18</v>
       </c>
@@ -21438,11 +21457,11 @@
       </c>
     </row>
     <row r="138" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="BB138" s="18">
+      <c r="BB138" s="11">
         <v>1024</v>
       </c>
-      <c r="BC138" s="18"/>
-      <c r="BD138" s="18">
+      <c r="BC138" s="11"/>
+      <c r="BD138" s="11">
         <v>1</v>
       </c>
       <c r="BE138" s="1" t="s">
@@ -21453,9 +21472,9 @@
       </c>
     </row>
     <row r="139" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="BB139" s="18"/>
-      <c r="BC139" s="18"/>
-      <c r="BD139" s="18"/>
+      <c r="BB139" s="11"/>
+      <c r="BC139" s="11"/>
+      <c r="BD139" s="11"/>
       <c r="BE139" s="1" t="s">
         <v>16</v>
       </c>
@@ -21464,9 +21483,9 @@
       </c>
     </row>
     <row r="140" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="BB140" s="18"/>
-      <c r="BC140" s="18"/>
-      <c r="BD140" s="18"/>
+      <c r="BB140" s="11"/>
+      <c r="BC140" s="11"/>
+      <c r="BD140" s="11"/>
       <c r="BE140" s="1" t="s">
         <v>17</v>
       </c>
@@ -21475,9 +21494,9 @@
       </c>
     </row>
     <row r="141" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="BB141" s="18"/>
-      <c r="BC141" s="18"/>
-      <c r="BD141" s="18"/>
+      <c r="BB141" s="11"/>
+      <c r="BC141" s="11"/>
+      <c r="BD141" s="11"/>
       <c r="BE141" s="1" t="s">
         <v>18</v>
       </c>
@@ -21486,9 +21505,9 @@
       </c>
     </row>
     <row r="142" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="BB142" s="18"/>
-      <c r="BC142" s="18"/>
-      <c r="BD142" s="18">
+      <c r="BB142" s="11"/>
+      <c r="BC142" s="11"/>
+      <c r="BD142" s="11">
         <v>2</v>
       </c>
       <c r="BE142" s="1" t="s">
@@ -21499,9 +21518,9 @@
       </c>
     </row>
     <row r="143" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="BB143" s="18"/>
-      <c r="BC143" s="18"/>
-      <c r="BD143" s="18"/>
+      <c r="BB143" s="11"/>
+      <c r="BC143" s="11"/>
+      <c r="BD143" s="11"/>
       <c r="BE143" s="1" t="s">
         <v>16</v>
       </c>
@@ -21510,9 +21529,9 @@
       </c>
     </row>
     <row r="144" spans="48:58" x14ac:dyDescent="0.25">
-      <c r="BB144" s="18"/>
-      <c r="BC144" s="18"/>
-      <c r="BD144" s="18"/>
+      <c r="BB144" s="11"/>
+      <c r="BC144" s="11"/>
+      <c r="BD144" s="11"/>
       <c r="BE144" s="1" t="s">
         <v>17</v>
       </c>
@@ -21521,9 +21540,9 @@
       </c>
     </row>
     <row r="145" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB145" s="18"/>
-      <c r="BC145" s="18"/>
-      <c r="BD145" s="18"/>
+      <c r="BB145" s="11"/>
+      <c r="BC145" s="11"/>
+      <c r="BD145" s="11"/>
       <c r="BE145" s="1" t="s">
         <v>18</v>
       </c>
@@ -21532,9 +21551,9 @@
       </c>
     </row>
     <row r="146" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB146" s="18"/>
-      <c r="BC146" s="18"/>
-      <c r="BD146" s="18">
+      <c r="BB146" s="11"/>
+      <c r="BC146" s="11"/>
+      <c r="BD146" s="11">
         <v>3</v>
       </c>
       <c r="BE146" s="1" t="s">
@@ -21545,9 +21564,9 @@
       </c>
     </row>
     <row r="147" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB147" s="18"/>
-      <c r="BC147" s="18"/>
-      <c r="BD147" s="18"/>
+      <c r="BB147" s="11"/>
+      <c r="BC147" s="11"/>
+      <c r="BD147" s="11"/>
       <c r="BE147" s="1" t="s">
         <v>16</v>
       </c>
@@ -21556,9 +21575,9 @@
       </c>
     </row>
     <row r="148" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB148" s="18"/>
-      <c r="BC148" s="18"/>
-      <c r="BD148" s="18"/>
+      <c r="BB148" s="11"/>
+      <c r="BC148" s="11"/>
+      <c r="BD148" s="11"/>
       <c r="BE148" s="1" t="s">
         <v>17</v>
       </c>
@@ -21567,9 +21586,9 @@
       </c>
     </row>
     <row r="149" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB149" s="18"/>
-      <c r="BC149" s="18"/>
-      <c r="BD149" s="18"/>
+      <c r="BB149" s="11"/>
+      <c r="BC149" s="11"/>
+      <c r="BD149" s="11"/>
       <c r="BE149" s="1" t="s">
         <v>18</v>
       </c>
@@ -21578,13 +21597,13 @@
       </c>
     </row>
     <row r="150" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB150" s="18">
+      <c r="BB150" s="11">
         <v>128</v>
       </c>
-      <c r="BC150" s="18">
+      <c r="BC150" s="11">
         <v>10240</v>
       </c>
-      <c r="BD150" s="18">
+      <c r="BD150" s="11">
         <v>1</v>
       </c>
       <c r="BE150" s="1" t="s">
@@ -21595,9 +21614,9 @@
       </c>
     </row>
     <row r="151" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB151" s="18"/>
-      <c r="BC151" s="18"/>
-      <c r="BD151" s="18"/>
+      <c r="BB151" s="11"/>
+      <c r="BC151" s="11"/>
+      <c r="BD151" s="11"/>
       <c r="BE151" s="1" t="s">
         <v>16</v>
       </c>
@@ -21606,9 +21625,9 @@
       </c>
     </row>
     <row r="152" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB152" s="18"/>
-      <c r="BC152" s="18"/>
-      <c r="BD152" s="18"/>
+      <c r="BB152" s="11"/>
+      <c r="BC152" s="11"/>
+      <c r="BD152" s="11"/>
       <c r="BE152" s="1" t="s">
         <v>17</v>
       </c>
@@ -21617,9 +21636,9 @@
       </c>
     </row>
     <row r="153" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB153" s="18"/>
-      <c r="BC153" s="18"/>
-      <c r="BD153" s="18"/>
+      <c r="BB153" s="11"/>
+      <c r="BC153" s="11"/>
+      <c r="BD153" s="11"/>
       <c r="BE153" s="1" t="s">
         <v>18</v>
       </c>
@@ -21628,9 +21647,9 @@
       </c>
     </row>
     <row r="154" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB154" s="18"/>
-      <c r="BC154" s="18"/>
-      <c r="BD154" s="18">
+      <c r="BB154" s="11"/>
+      <c r="BC154" s="11"/>
+      <c r="BD154" s="11">
         <v>2</v>
       </c>
       <c r="BE154" s="1" t="s">
@@ -21641,9 +21660,9 @@
       </c>
     </row>
     <row r="155" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB155" s="18"/>
-      <c r="BC155" s="18"/>
-      <c r="BD155" s="18"/>
+      <c r="BB155" s="11"/>
+      <c r="BC155" s="11"/>
+      <c r="BD155" s="11"/>
       <c r="BE155" s="1" t="s">
         <v>16</v>
       </c>
@@ -21652,9 +21671,9 @@
       </c>
     </row>
     <row r="156" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB156" s="18"/>
-      <c r="BC156" s="18"/>
-      <c r="BD156" s="18"/>
+      <c r="BB156" s="11"/>
+      <c r="BC156" s="11"/>
+      <c r="BD156" s="11"/>
       <c r="BE156" s="1" t="s">
         <v>17</v>
       </c>
@@ -21663,9 +21682,9 @@
       </c>
     </row>
     <row r="157" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB157" s="18"/>
-      <c r="BC157" s="18"/>
-      <c r="BD157" s="18"/>
+      <c r="BB157" s="11"/>
+      <c r="BC157" s="11"/>
+      <c r="BD157" s="11"/>
       <c r="BE157" s="1" t="s">
         <v>18</v>
       </c>
@@ -21674,9 +21693,9 @@
       </c>
     </row>
     <row r="158" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB158" s="18"/>
-      <c r="BC158" s="18"/>
-      <c r="BD158" s="18">
+      <c r="BB158" s="11"/>
+      <c r="BC158" s="11"/>
+      <c r="BD158" s="11">
         <v>3</v>
       </c>
       <c r="BE158" s="1" t="s">
@@ -21687,9 +21706,9 @@
       </c>
     </row>
     <row r="159" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB159" s="18"/>
-      <c r="BC159" s="18"/>
-      <c r="BD159" s="18"/>
+      <c r="BB159" s="11"/>
+      <c r="BC159" s="11"/>
+      <c r="BD159" s="11"/>
       <c r="BE159" s="1" t="s">
         <v>16</v>
       </c>
@@ -21698,9 +21717,9 @@
       </c>
     </row>
     <row r="160" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB160" s="18"/>
-      <c r="BC160" s="18"/>
-      <c r="BD160" s="18"/>
+      <c r="BB160" s="11"/>
+      <c r="BC160" s="11"/>
+      <c r="BD160" s="11"/>
       <c r="BE160" s="1" t="s">
         <v>17</v>
       </c>
@@ -21709,9 +21728,9 @@
       </c>
     </row>
     <row r="161" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB161" s="18"/>
-      <c r="BC161" s="18"/>
-      <c r="BD161" s="18"/>
+      <c r="BB161" s="11"/>
+      <c r="BC161" s="11"/>
+      <c r="BD161" s="11"/>
       <c r="BE161" s="1" t="s">
         <v>18</v>
       </c>
@@ -21720,11 +21739,11 @@
       </c>
     </row>
     <row r="162" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB162" s="18">
+      <c r="BB162" s="11">
         <v>256</v>
       </c>
-      <c r="BC162" s="18"/>
-      <c r="BD162" s="18">
+      <c r="BC162" s="11"/>
+      <c r="BD162" s="11">
         <v>1</v>
       </c>
       <c r="BE162" s="1" t="s">
@@ -21735,9 +21754,9 @@
       </c>
     </row>
     <row r="163" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB163" s="18"/>
-      <c r="BC163" s="18"/>
-      <c r="BD163" s="18"/>
+      <c r="BB163" s="11"/>
+      <c r="BC163" s="11"/>
+      <c r="BD163" s="11"/>
       <c r="BE163" s="1" t="s">
         <v>16</v>
       </c>
@@ -21746,9 +21765,9 @@
       </c>
     </row>
     <row r="164" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB164" s="18"/>
-      <c r="BC164" s="18"/>
-      <c r="BD164" s="18"/>
+      <c r="BB164" s="11"/>
+      <c r="BC164" s="11"/>
+      <c r="BD164" s="11"/>
       <c r="BE164" s="1" t="s">
         <v>17</v>
       </c>
@@ -21757,9 +21776,9 @@
       </c>
     </row>
     <row r="165" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB165" s="18"/>
-      <c r="BC165" s="18"/>
-      <c r="BD165" s="18"/>
+      <c r="BB165" s="11"/>
+      <c r="BC165" s="11"/>
+      <c r="BD165" s="11"/>
       <c r="BE165" s="1" t="s">
         <v>18</v>
       </c>
@@ -21768,9 +21787,9 @@
       </c>
     </row>
     <row r="166" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB166" s="18"/>
-      <c r="BC166" s="18"/>
-      <c r="BD166" s="18">
+      <c r="BB166" s="11"/>
+      <c r="BC166" s="11"/>
+      <c r="BD166" s="11">
         <v>2</v>
       </c>
       <c r="BE166" s="1" t="s">
@@ -21781,9 +21800,9 @@
       </c>
     </row>
     <row r="167" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB167" s="18"/>
-      <c r="BC167" s="18"/>
-      <c r="BD167" s="18"/>
+      <c r="BB167" s="11"/>
+      <c r="BC167" s="11"/>
+      <c r="BD167" s="11"/>
       <c r="BE167" s="1" t="s">
         <v>16</v>
       </c>
@@ -21792,9 +21811,9 @@
       </c>
     </row>
     <row r="168" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB168" s="18"/>
-      <c r="BC168" s="18"/>
-      <c r="BD168" s="18"/>
+      <c r="BB168" s="11"/>
+      <c r="BC168" s="11"/>
+      <c r="BD168" s="11"/>
       <c r="BE168" s="1" t="s">
         <v>17</v>
       </c>
@@ -21803,9 +21822,9 @@
       </c>
     </row>
     <row r="169" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB169" s="18"/>
-      <c r="BC169" s="18"/>
-      <c r="BD169" s="18"/>
+      <c r="BB169" s="11"/>
+      <c r="BC169" s="11"/>
+      <c r="BD169" s="11"/>
       <c r="BE169" s="1" t="s">
         <v>18</v>
       </c>
@@ -21814,9 +21833,9 @@
       </c>
     </row>
     <row r="170" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB170" s="18"/>
-      <c r="BC170" s="18"/>
-      <c r="BD170" s="18">
+      <c r="BB170" s="11"/>
+      <c r="BC170" s="11"/>
+      <c r="BD170" s="11">
         <v>3</v>
       </c>
       <c r="BE170" s="1" t="s">
@@ -21827,9 +21846,9 @@
       </c>
     </row>
     <row r="171" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB171" s="18"/>
-      <c r="BC171" s="18"/>
-      <c r="BD171" s="18"/>
+      <c r="BB171" s="11"/>
+      <c r="BC171" s="11"/>
+      <c r="BD171" s="11"/>
       <c r="BE171" s="1" t="s">
         <v>16</v>
       </c>
@@ -21838,9 +21857,9 @@
       </c>
     </row>
     <row r="172" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB172" s="18"/>
-      <c r="BC172" s="18"/>
-      <c r="BD172" s="18"/>
+      <c r="BB172" s="11"/>
+      <c r="BC172" s="11"/>
+      <c r="BD172" s="11"/>
       <c r="BE172" s="1" t="s">
         <v>17</v>
       </c>
@@ -21849,9 +21868,9 @@
       </c>
     </row>
     <row r="173" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB173" s="18"/>
-      <c r="BC173" s="18"/>
-      <c r="BD173" s="18"/>
+      <c r="BB173" s="11"/>
+      <c r="BC173" s="11"/>
+      <c r="BD173" s="11"/>
       <c r="BE173" s="1" t="s">
         <v>18</v>
       </c>
@@ -21860,11 +21879,11 @@
       </c>
     </row>
     <row r="174" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB174" s="18">
+      <c r="BB174" s="11">
         <v>512</v>
       </c>
-      <c r="BC174" s="18"/>
-      <c r="BD174" s="18">
+      <c r="BC174" s="11"/>
+      <c r="BD174" s="11">
         <v>1</v>
       </c>
       <c r="BE174" s="1" t="s">
@@ -21875,9 +21894,9 @@
       </c>
     </row>
     <row r="175" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB175" s="18"/>
-      <c r="BC175" s="18"/>
-      <c r="BD175" s="18"/>
+      <c r="BB175" s="11"/>
+      <c r="BC175" s="11"/>
+      <c r="BD175" s="11"/>
       <c r="BE175" s="1" t="s">
         <v>16</v>
       </c>
@@ -21886,9 +21905,9 @@
       </c>
     </row>
     <row r="176" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB176" s="18"/>
-      <c r="BC176" s="18"/>
-      <c r="BD176" s="18"/>
+      <c r="BB176" s="11"/>
+      <c r="BC176" s="11"/>
+      <c r="BD176" s="11"/>
       <c r="BE176" s="1" t="s">
         <v>17</v>
       </c>
@@ -21897,9 +21916,9 @@
       </c>
     </row>
     <row r="177" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB177" s="18"/>
-      <c r="BC177" s="18"/>
-      <c r="BD177" s="18"/>
+      <c r="BB177" s="11"/>
+      <c r="BC177" s="11"/>
+      <c r="BD177" s="11"/>
       <c r="BE177" s="1" t="s">
         <v>18</v>
       </c>
@@ -21908,9 +21927,9 @@
       </c>
     </row>
     <row r="178" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB178" s="18"/>
-      <c r="BC178" s="18"/>
-      <c r="BD178" s="18">
+      <c r="BB178" s="11"/>
+      <c r="BC178" s="11"/>
+      <c r="BD178" s="11">
         <v>2</v>
       </c>
       <c r="BE178" s="1" t="s">
@@ -21921,9 +21940,9 @@
       </c>
     </row>
     <row r="179" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB179" s="18"/>
-      <c r="BC179" s="18"/>
-      <c r="BD179" s="18"/>
+      <c r="BB179" s="11"/>
+      <c r="BC179" s="11"/>
+      <c r="BD179" s="11"/>
       <c r="BE179" s="1" t="s">
         <v>16</v>
       </c>
@@ -21932,9 +21951,9 @@
       </c>
     </row>
     <row r="180" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB180" s="18"/>
-      <c r="BC180" s="18"/>
-      <c r="BD180" s="18"/>
+      <c r="BB180" s="11"/>
+      <c r="BC180" s="11"/>
+      <c r="BD180" s="11"/>
       <c r="BE180" s="1" t="s">
         <v>17</v>
       </c>
@@ -21943,9 +21962,9 @@
       </c>
     </row>
     <row r="181" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB181" s="18"/>
-      <c r="BC181" s="18"/>
-      <c r="BD181" s="18"/>
+      <c r="BB181" s="11"/>
+      <c r="BC181" s="11"/>
+      <c r="BD181" s="11"/>
       <c r="BE181" s="1" t="s">
         <v>18</v>
       </c>
@@ -21954,9 +21973,9 @@
       </c>
     </row>
     <row r="182" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB182" s="18"/>
-      <c r="BC182" s="18"/>
-      <c r="BD182" s="18">
+      <c r="BB182" s="11"/>
+      <c r="BC182" s="11"/>
+      <c r="BD182" s="11">
         <v>3</v>
       </c>
       <c r="BE182" s="1" t="s">
@@ -21967,9 +21986,9 @@
       </c>
     </row>
     <row r="183" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB183" s="18"/>
-      <c r="BC183" s="18"/>
-      <c r="BD183" s="18"/>
+      <c r="BB183" s="11"/>
+      <c r="BC183" s="11"/>
+      <c r="BD183" s="11"/>
       <c r="BE183" s="1" t="s">
         <v>16</v>
       </c>
@@ -21978,9 +21997,9 @@
       </c>
     </row>
     <row r="184" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB184" s="18"/>
-      <c r="BC184" s="18"/>
-      <c r="BD184" s="18"/>
+      <c r="BB184" s="11"/>
+      <c r="BC184" s="11"/>
+      <c r="BD184" s="11"/>
       <c r="BE184" s="1" t="s">
         <v>17</v>
       </c>
@@ -21989,9 +22008,9 @@
       </c>
     </row>
     <row r="185" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB185" s="18"/>
-      <c r="BC185" s="18"/>
-      <c r="BD185" s="18"/>
+      <c r="BB185" s="11"/>
+      <c r="BC185" s="11"/>
+      <c r="BD185" s="11"/>
       <c r="BE185" s="1" t="s">
         <v>18</v>
       </c>
@@ -22000,11 +22019,11 @@
       </c>
     </row>
     <row r="186" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB186" s="18">
+      <c r="BB186" s="11">
         <v>1024</v>
       </c>
-      <c r="BC186" s="18"/>
-      <c r="BD186" s="18">
+      <c r="BC186" s="11"/>
+      <c r="BD186" s="11">
         <v>1</v>
       </c>
       <c r="BE186" s="1" t="s">
@@ -22015,9 +22034,9 @@
       </c>
     </row>
     <row r="187" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB187" s="18"/>
-      <c r="BC187" s="18"/>
-      <c r="BD187" s="18"/>
+      <c r="BB187" s="11"/>
+      <c r="BC187" s="11"/>
+      <c r="BD187" s="11"/>
       <c r="BE187" s="1" t="s">
         <v>16</v>
       </c>
@@ -22026,9 +22045,9 @@
       </c>
     </row>
     <row r="188" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB188" s="18"/>
-      <c r="BC188" s="18"/>
-      <c r="BD188" s="18"/>
+      <c r="BB188" s="11"/>
+      <c r="BC188" s="11"/>
+      <c r="BD188" s="11"/>
       <c r="BE188" s="1" t="s">
         <v>17</v>
       </c>
@@ -22037,9 +22056,9 @@
       </c>
     </row>
     <row r="189" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB189" s="18"/>
-      <c r="BC189" s="18"/>
-      <c r="BD189" s="18"/>
+      <c r="BB189" s="11"/>
+      <c r="BC189" s="11"/>
+      <c r="BD189" s="11"/>
       <c r="BE189" s="1" t="s">
         <v>18</v>
       </c>
@@ -22048,9 +22067,9 @@
       </c>
     </row>
     <row r="190" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB190" s="18"/>
-      <c r="BC190" s="18"/>
-      <c r="BD190" s="18">
+      <c r="BB190" s="11"/>
+      <c r="BC190" s="11"/>
+      <c r="BD190" s="11">
         <v>2</v>
       </c>
       <c r="BE190" s="1" t="s">
@@ -22061,9 +22080,9 @@
       </c>
     </row>
     <row r="191" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB191" s="18"/>
-      <c r="BC191" s="18"/>
-      <c r="BD191" s="18"/>
+      <c r="BB191" s="11"/>
+      <c r="BC191" s="11"/>
+      <c r="BD191" s="11"/>
       <c r="BE191" s="1" t="s">
         <v>16</v>
       </c>
@@ -22072,9 +22091,9 @@
       </c>
     </row>
     <row r="192" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB192" s="18"/>
-      <c r="BC192" s="18"/>
-      <c r="BD192" s="18"/>
+      <c r="BB192" s="11"/>
+      <c r="BC192" s="11"/>
+      <c r="BD192" s="11"/>
       <c r="BE192" s="1" t="s">
         <v>17</v>
       </c>
@@ -22083,9 +22102,9 @@
       </c>
     </row>
     <row r="193" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB193" s="18"/>
-      <c r="BC193" s="18"/>
-      <c r="BD193" s="18"/>
+      <c r="BB193" s="11"/>
+      <c r="BC193" s="11"/>
+      <c r="BD193" s="11"/>
       <c r="BE193" s="1" t="s">
         <v>18</v>
       </c>
@@ -22094,9 +22113,9 @@
       </c>
     </row>
     <row r="194" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB194" s="18"/>
-      <c r="BC194" s="18"/>
-      <c r="BD194" s="18">
+      <c r="BB194" s="11"/>
+      <c r="BC194" s="11"/>
+      <c r="BD194" s="11">
         <v>3</v>
       </c>
       <c r="BE194" s="1" t="s">
@@ -22107,9 +22126,9 @@
       </c>
     </row>
     <row r="195" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB195" s="18"/>
-      <c r="BC195" s="18"/>
-      <c r="BD195" s="18"/>
+      <c r="BB195" s="11"/>
+      <c r="BC195" s="11"/>
+      <c r="BD195" s="11"/>
       <c r="BE195" s="1" t="s">
         <v>16</v>
       </c>
@@ -22118,9 +22137,9 @@
       </c>
     </row>
     <row r="196" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB196" s="18"/>
-      <c r="BC196" s="18"/>
-      <c r="BD196" s="18"/>
+      <c r="BB196" s="11"/>
+      <c r="BC196" s="11"/>
+      <c r="BD196" s="11"/>
       <c r="BE196" s="1" t="s">
         <v>17</v>
       </c>
@@ -22129,9 +22148,9 @@
       </c>
     </row>
     <row r="197" spans="54:58" x14ac:dyDescent="0.25">
-      <c r="BB197" s="18"/>
-      <c r="BC197" s="18"/>
-      <c r="BD197" s="18"/>
+      <c r="BB197" s="11"/>
+      <c r="BC197" s="11"/>
+      <c r="BD197" s="11"/>
       <c r="BE197" s="1" t="s">
         <v>18</v>
       </c>
@@ -22141,6 +22160,190 @@
     </row>
   </sheetData>
   <mergeCells count="208">
+    <mergeCell ref="AV54:AV65"/>
+    <mergeCell ref="AV42:AV53"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="S33:S36"/>
+    <mergeCell ref="S37:S40"/>
+    <mergeCell ref="S41:S44"/>
+    <mergeCell ref="S45:S48"/>
+    <mergeCell ref="AH37:AH39"/>
+    <mergeCell ref="AQ38:AQ41"/>
+    <mergeCell ref="AQ46:AQ49"/>
+    <mergeCell ref="AW74:AW77"/>
+    <mergeCell ref="AW78:AW81"/>
+    <mergeCell ref="AW82:AW85"/>
+    <mergeCell ref="AW122:AW125"/>
+    <mergeCell ref="AW126:AW129"/>
+    <mergeCell ref="AW130:AW133"/>
+    <mergeCell ref="AW134:AW137"/>
+    <mergeCell ref="AV126:AV137"/>
+    <mergeCell ref="AV114:AV125"/>
+    <mergeCell ref="AV102:AV113"/>
+    <mergeCell ref="AV90:AV101"/>
+    <mergeCell ref="AV78:AV89"/>
+    <mergeCell ref="AW86:AW89"/>
+    <mergeCell ref="AW90:AW93"/>
+    <mergeCell ref="AW94:AW97"/>
+    <mergeCell ref="AW98:AW101"/>
+    <mergeCell ref="AW102:AW105"/>
+    <mergeCell ref="AW106:AW109"/>
+    <mergeCell ref="AW110:AW113"/>
+    <mergeCell ref="AW114:AW117"/>
+    <mergeCell ref="AW118:AW121"/>
+    <mergeCell ref="AV66:AV77"/>
+    <mergeCell ref="AW22:AW25"/>
+    <mergeCell ref="AW26:AW29"/>
+    <mergeCell ref="AW30:AW33"/>
+    <mergeCell ref="AW34:AW37"/>
+    <mergeCell ref="AV18:AV29"/>
+    <mergeCell ref="AV30:AV41"/>
+    <mergeCell ref="AW38:AW41"/>
+    <mergeCell ref="AW42:AW45"/>
+    <mergeCell ref="AW46:AW49"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="AC5:AE5"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AV4:AY4"/>
+    <mergeCell ref="AV6:AV17"/>
+    <mergeCell ref="AW6:AW9"/>
+    <mergeCell ref="AW10:AW13"/>
+    <mergeCell ref="AW14:AW17"/>
+    <mergeCell ref="AW18:AW21"/>
+    <mergeCell ref="E14:G17"/>
+    <mergeCell ref="AQ14:AQ17"/>
+    <mergeCell ref="T10:T12"/>
+    <mergeCell ref="AA10:AA12"/>
+    <mergeCell ref="AH10:AH12"/>
+    <mergeCell ref="AQ10:AQ13"/>
+    <mergeCell ref="T7:T9"/>
+    <mergeCell ref="AA7:AA9"/>
+    <mergeCell ref="AH7:AH9"/>
+    <mergeCell ref="BB150:BB161"/>
+    <mergeCell ref="BC150:BC197"/>
+    <mergeCell ref="BD150:BD153"/>
+    <mergeCell ref="BD154:BD157"/>
+    <mergeCell ref="BD158:BD161"/>
+    <mergeCell ref="BB162:BB173"/>
+    <mergeCell ref="BD162:BD165"/>
+    <mergeCell ref="BD166:BD169"/>
+    <mergeCell ref="BD170:BD173"/>
+    <mergeCell ref="BB174:BB185"/>
+    <mergeCell ref="BD174:BD177"/>
+    <mergeCell ref="BD178:BD181"/>
+    <mergeCell ref="BD182:BD185"/>
+    <mergeCell ref="BB186:BB197"/>
+    <mergeCell ref="BD186:BD189"/>
+    <mergeCell ref="BD190:BD193"/>
+    <mergeCell ref="BD194:BD197"/>
+    <mergeCell ref="BD110:BD113"/>
+    <mergeCell ref="BB114:BB125"/>
+    <mergeCell ref="BD114:BD117"/>
+    <mergeCell ref="BD118:BD121"/>
+    <mergeCell ref="BD122:BD125"/>
+    <mergeCell ref="BB126:BB137"/>
+    <mergeCell ref="BD126:BD129"/>
+    <mergeCell ref="BD130:BD133"/>
+    <mergeCell ref="BD134:BD137"/>
+    <mergeCell ref="BB138:BB149"/>
+    <mergeCell ref="BD138:BD141"/>
+    <mergeCell ref="BD142:BD145"/>
+    <mergeCell ref="BD146:BD149"/>
+    <mergeCell ref="AP66:AP77"/>
+    <mergeCell ref="AQ66:AQ69"/>
+    <mergeCell ref="BB66:BB77"/>
+    <mergeCell ref="BD66:BD69"/>
+    <mergeCell ref="AQ70:AQ73"/>
+    <mergeCell ref="BD70:BD73"/>
+    <mergeCell ref="AQ74:AQ77"/>
+    <mergeCell ref="BD74:BD77"/>
+    <mergeCell ref="AP78:AP89"/>
+    <mergeCell ref="AQ78:AQ81"/>
+    <mergeCell ref="BB78:BB89"/>
+    <mergeCell ref="BD78:BD81"/>
+    <mergeCell ref="AQ82:AQ85"/>
+    <mergeCell ref="BD82:BD85"/>
+    <mergeCell ref="AQ86:AQ89"/>
+    <mergeCell ref="BD86:BD89"/>
+    <mergeCell ref="BB102:BB113"/>
+    <mergeCell ref="BC102:BC149"/>
+    <mergeCell ref="BD102:BD105"/>
+    <mergeCell ref="BD106:BD109"/>
+    <mergeCell ref="BD46:BD49"/>
+    <mergeCell ref="AH49:AH51"/>
+    <mergeCell ref="AQ50:AQ53"/>
+    <mergeCell ref="BD50:BD53"/>
+    <mergeCell ref="AH52:AH54"/>
+    <mergeCell ref="AP54:AP65"/>
+    <mergeCell ref="AQ54:AQ57"/>
+    <mergeCell ref="BB54:BB65"/>
+    <mergeCell ref="BC54:BC101"/>
+    <mergeCell ref="BD54:BD57"/>
+    <mergeCell ref="AQ58:AQ61"/>
+    <mergeCell ref="BD58:BD61"/>
+    <mergeCell ref="AQ62:AQ65"/>
+    <mergeCell ref="BD62:BD65"/>
+    <mergeCell ref="BB90:BB101"/>
+    <mergeCell ref="BD90:BD93"/>
+    <mergeCell ref="BD94:BD97"/>
+    <mergeCell ref="BD98:BD101"/>
+    <mergeCell ref="AW50:AW53"/>
+    <mergeCell ref="AW54:AW57"/>
+    <mergeCell ref="AW58:AW61"/>
+    <mergeCell ref="AW62:AW65"/>
+    <mergeCell ref="AW66:AW69"/>
+    <mergeCell ref="AW70:AW73"/>
+    <mergeCell ref="BD26:BD29"/>
+    <mergeCell ref="AA28:AA30"/>
+    <mergeCell ref="AH28:AH30"/>
+    <mergeCell ref="AP30:AP41"/>
+    <mergeCell ref="AQ30:AQ33"/>
+    <mergeCell ref="BB30:BB41"/>
+    <mergeCell ref="BD30:BD33"/>
+    <mergeCell ref="AA31:AA33"/>
+    <mergeCell ref="AH31:AH33"/>
+    <mergeCell ref="AI31:AI42"/>
+    <mergeCell ref="AA34:AA36"/>
+    <mergeCell ref="AH34:AH36"/>
+    <mergeCell ref="AQ34:AQ37"/>
+    <mergeCell ref="BD34:BD37"/>
+    <mergeCell ref="AA37:AA39"/>
+    <mergeCell ref="BD38:BD41"/>
+    <mergeCell ref="AH40:AH42"/>
+    <mergeCell ref="AP42:AP53"/>
+    <mergeCell ref="AQ42:AQ45"/>
+    <mergeCell ref="BB42:BB53"/>
+    <mergeCell ref="BD42:BD45"/>
+    <mergeCell ref="AH43:AH45"/>
+    <mergeCell ref="AI43:AI54"/>
+    <mergeCell ref="AH46:AH48"/>
+    <mergeCell ref="BD14:BD17"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="T16:T18"/>
+    <mergeCell ref="AA16:AA18"/>
+    <mergeCell ref="AH16:AH18"/>
+    <mergeCell ref="AP18:AP29"/>
+    <mergeCell ref="AQ18:AQ21"/>
+    <mergeCell ref="BB18:BB29"/>
+    <mergeCell ref="BD18:BD21"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="T19:T21"/>
+    <mergeCell ref="AA19:AA21"/>
+    <mergeCell ref="AH19:AH21"/>
+    <mergeCell ref="AI19:AI30"/>
+    <mergeCell ref="T22:T24"/>
+    <mergeCell ref="AA22:AA24"/>
+    <mergeCell ref="AH22:AH24"/>
+    <mergeCell ref="AQ22:AQ25"/>
+    <mergeCell ref="BD22:BD25"/>
+    <mergeCell ref="AI7:AI18"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="AA25:AA27"/>
+    <mergeCell ref="AH25:AH27"/>
+    <mergeCell ref="AQ26:AQ29"/>
     <mergeCell ref="BD10:BD13"/>
     <mergeCell ref="L11:L14"/>
     <mergeCell ref="T13:T15"/>
@@ -22165,190 +22368,6 @@
     <mergeCell ref="BC6:BC53"/>
     <mergeCell ref="BD6:BD9"/>
     <mergeCell ref="L7:L10"/>
-    <mergeCell ref="BD14:BD17"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="T16:T18"/>
-    <mergeCell ref="AA16:AA18"/>
-    <mergeCell ref="AH16:AH18"/>
-    <mergeCell ref="AP18:AP29"/>
-    <mergeCell ref="AQ18:AQ21"/>
-    <mergeCell ref="BB18:BB29"/>
-    <mergeCell ref="BD18:BD21"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="T19:T21"/>
-    <mergeCell ref="AA19:AA21"/>
-    <mergeCell ref="AH19:AH21"/>
-    <mergeCell ref="AI19:AI30"/>
-    <mergeCell ref="T22:T24"/>
-    <mergeCell ref="AA22:AA24"/>
-    <mergeCell ref="AH22:AH24"/>
-    <mergeCell ref="AQ22:AQ25"/>
-    <mergeCell ref="BD22:BD25"/>
-    <mergeCell ref="AI7:AI18"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="AA25:AA27"/>
-    <mergeCell ref="AH25:AH27"/>
-    <mergeCell ref="AQ26:AQ29"/>
-    <mergeCell ref="BD26:BD29"/>
-    <mergeCell ref="AA28:AA30"/>
-    <mergeCell ref="AH28:AH30"/>
-    <mergeCell ref="AP30:AP41"/>
-    <mergeCell ref="AQ30:AQ33"/>
-    <mergeCell ref="BB30:BB41"/>
-    <mergeCell ref="BD30:BD33"/>
-    <mergeCell ref="AA31:AA33"/>
-    <mergeCell ref="AH31:AH33"/>
-    <mergeCell ref="AI31:AI42"/>
-    <mergeCell ref="AA34:AA36"/>
-    <mergeCell ref="AH34:AH36"/>
-    <mergeCell ref="AQ34:AQ37"/>
-    <mergeCell ref="BD34:BD37"/>
-    <mergeCell ref="AA37:AA39"/>
-    <mergeCell ref="BD38:BD41"/>
-    <mergeCell ref="AH40:AH42"/>
-    <mergeCell ref="AP42:AP53"/>
-    <mergeCell ref="AQ42:AQ45"/>
-    <mergeCell ref="BB42:BB53"/>
-    <mergeCell ref="BD42:BD45"/>
-    <mergeCell ref="AH43:AH45"/>
-    <mergeCell ref="AI43:AI54"/>
-    <mergeCell ref="AH46:AH48"/>
-    <mergeCell ref="BD46:BD49"/>
-    <mergeCell ref="AH49:AH51"/>
-    <mergeCell ref="AQ50:AQ53"/>
-    <mergeCell ref="BD50:BD53"/>
-    <mergeCell ref="AH52:AH54"/>
-    <mergeCell ref="AP54:AP65"/>
-    <mergeCell ref="AQ54:AQ57"/>
-    <mergeCell ref="BB54:BB65"/>
-    <mergeCell ref="BC54:BC101"/>
-    <mergeCell ref="BD54:BD57"/>
-    <mergeCell ref="AQ58:AQ61"/>
-    <mergeCell ref="BD58:BD61"/>
-    <mergeCell ref="AQ62:AQ65"/>
-    <mergeCell ref="BD62:BD65"/>
-    <mergeCell ref="BB90:BB101"/>
-    <mergeCell ref="BD90:BD93"/>
-    <mergeCell ref="BD94:BD97"/>
-    <mergeCell ref="BD98:BD101"/>
-    <mergeCell ref="AW50:AW53"/>
-    <mergeCell ref="AW54:AW57"/>
-    <mergeCell ref="AW58:AW61"/>
-    <mergeCell ref="AW62:AW65"/>
-    <mergeCell ref="AW66:AW69"/>
-    <mergeCell ref="BB138:BB149"/>
-    <mergeCell ref="BD138:BD141"/>
-    <mergeCell ref="BD142:BD145"/>
-    <mergeCell ref="BD146:BD149"/>
-    <mergeCell ref="AP66:AP77"/>
-    <mergeCell ref="AQ66:AQ69"/>
-    <mergeCell ref="BB66:BB77"/>
-    <mergeCell ref="BD66:BD69"/>
-    <mergeCell ref="AQ70:AQ73"/>
-    <mergeCell ref="BD70:BD73"/>
-    <mergeCell ref="AQ74:AQ77"/>
-    <mergeCell ref="BD74:BD77"/>
-    <mergeCell ref="AP78:AP89"/>
-    <mergeCell ref="AQ78:AQ81"/>
-    <mergeCell ref="BB78:BB89"/>
-    <mergeCell ref="BD78:BD81"/>
-    <mergeCell ref="AQ82:AQ85"/>
-    <mergeCell ref="BD82:BD85"/>
-    <mergeCell ref="AQ86:AQ89"/>
-    <mergeCell ref="BD86:BD89"/>
-    <mergeCell ref="BB102:BB113"/>
-    <mergeCell ref="BC102:BC149"/>
-    <mergeCell ref="BD102:BD105"/>
-    <mergeCell ref="BD106:BD109"/>
-    <mergeCell ref="BD110:BD113"/>
-    <mergeCell ref="BB114:BB125"/>
-    <mergeCell ref="BD114:BD117"/>
-    <mergeCell ref="BD118:BD121"/>
-    <mergeCell ref="BD122:BD125"/>
-    <mergeCell ref="BB126:BB137"/>
-    <mergeCell ref="BD126:BD129"/>
-    <mergeCell ref="BD130:BD133"/>
-    <mergeCell ref="BD134:BD137"/>
-    <mergeCell ref="BB150:BB161"/>
-    <mergeCell ref="BC150:BC197"/>
-    <mergeCell ref="BD150:BD153"/>
-    <mergeCell ref="BD154:BD157"/>
-    <mergeCell ref="BD158:BD161"/>
-    <mergeCell ref="BB162:BB173"/>
-    <mergeCell ref="BD162:BD165"/>
-    <mergeCell ref="BD166:BD169"/>
-    <mergeCell ref="BD170:BD173"/>
-    <mergeCell ref="BB174:BB185"/>
-    <mergeCell ref="BD174:BD177"/>
-    <mergeCell ref="BD178:BD181"/>
-    <mergeCell ref="BD182:BD185"/>
-    <mergeCell ref="BB186:BB197"/>
-    <mergeCell ref="BD186:BD189"/>
-    <mergeCell ref="BD190:BD193"/>
-    <mergeCell ref="BD194:BD197"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="AC5:AE5"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AV4:AY4"/>
-    <mergeCell ref="AV6:AV17"/>
-    <mergeCell ref="AW6:AW9"/>
-    <mergeCell ref="AW10:AW13"/>
-    <mergeCell ref="AW14:AW17"/>
-    <mergeCell ref="AW18:AW21"/>
-    <mergeCell ref="E14:G17"/>
-    <mergeCell ref="AQ14:AQ17"/>
-    <mergeCell ref="T10:T12"/>
-    <mergeCell ref="AA10:AA12"/>
-    <mergeCell ref="AH10:AH12"/>
-    <mergeCell ref="AQ10:AQ13"/>
-    <mergeCell ref="T7:T9"/>
-    <mergeCell ref="AA7:AA9"/>
-    <mergeCell ref="AH7:AH9"/>
-    <mergeCell ref="AW22:AW25"/>
-    <mergeCell ref="AW26:AW29"/>
-    <mergeCell ref="AW30:AW33"/>
-    <mergeCell ref="AW34:AW37"/>
-    <mergeCell ref="AV18:AV29"/>
-    <mergeCell ref="AV30:AV41"/>
-    <mergeCell ref="AW38:AW41"/>
-    <mergeCell ref="AW42:AW45"/>
-    <mergeCell ref="AW46:AW49"/>
-    <mergeCell ref="AW70:AW73"/>
-    <mergeCell ref="AW74:AW77"/>
-    <mergeCell ref="AW78:AW81"/>
-    <mergeCell ref="AW82:AW85"/>
-    <mergeCell ref="AW122:AW125"/>
-    <mergeCell ref="AW126:AW129"/>
-    <mergeCell ref="AW130:AW133"/>
-    <mergeCell ref="AW134:AW137"/>
-    <mergeCell ref="AV126:AV137"/>
-    <mergeCell ref="AV114:AV125"/>
-    <mergeCell ref="AV102:AV113"/>
-    <mergeCell ref="AV90:AV101"/>
-    <mergeCell ref="AV78:AV89"/>
-    <mergeCell ref="AW86:AW89"/>
-    <mergeCell ref="AW90:AW93"/>
-    <mergeCell ref="AW94:AW97"/>
-    <mergeCell ref="AW98:AW101"/>
-    <mergeCell ref="AW102:AW105"/>
-    <mergeCell ref="AW106:AW109"/>
-    <mergeCell ref="AW110:AW113"/>
-    <mergeCell ref="AW114:AW117"/>
-    <mergeCell ref="AW118:AW121"/>
-    <mergeCell ref="AV66:AV77"/>
-    <mergeCell ref="AV54:AV65"/>
-    <mergeCell ref="AV42:AV53"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="S33:S36"/>
-    <mergeCell ref="S37:S40"/>
-    <mergeCell ref="S41:S44"/>
-    <mergeCell ref="S45:S48"/>
-    <mergeCell ref="AH37:AH39"/>
-    <mergeCell ref="AQ38:AQ41"/>
-    <mergeCell ref="AQ46:AQ49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -22359,8 +22378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9010B62C-251B-4754-A0ED-12D086247985}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
